--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Collection FrameWork" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -295,6 +295,14 @@
 * Maps work on the principal of hashing using HashSet
 </t>
     </r>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>HashMap doesn’t maintain any order.
+LinkedHashMap maintains the insertion order.
+TreeMap sort the entries in ascending order of keys.</t>
   </si>
 </sst>
 </file>
@@ -318,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -357,6 +371,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -707,64 +730,82 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:4" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -844,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection FrameWork" sheetId="1" r:id="rId1"/>
+    <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Concepts" sheetId="2" r:id="rId2"/>
-    <sheet name="DesignPattern" sheetId="3" r:id="rId3"/>
-    <sheet name="Algorithms" sheetId="4" r:id="rId4"/>
-    <sheet name="DesignPriniciples" sheetId="5" r:id="rId5"/>
+    <sheet name="Searching" sheetId="9" r:id="rId3"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId4"/>
+    <sheet name="Definition" sheetId="6" r:id="rId5"/>
+    <sheet name="Java" sheetId="8" r:id="rId6"/>
+    <sheet name="DesignPattern" sheetId="3" r:id="rId7"/>
+    <sheet name="DesignPriniciples" sheetId="5" r:id="rId8"/>
+    <sheet name="TO.DO" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>Topic</t>
-  </si>
-  <si>
-    <t>Try</t>
   </si>
   <si>
     <t>Pros vs Cons</t>
@@ -92,12 +93,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">*Change the key in Hashtable
-*Thread safe ?
-*Cache
-</t>
-  </si>
-  <si>
     <t>Vector</t>
   </si>
   <si>
@@ -119,24 +114,10 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>Wrapping exception. Good Idea.
-try {
-        // do something
-    } catch (NumberFormatException e) {
-        throw new MyBusinessException("A message that describes the error.", e);
-    }</t>
-  </si>
-  <si>
     <t>*used when frequent operation is adding or removing elements in the middle of the List</t>
   </si>
   <si>
     <t>Priority Queue</t>
-  </si>
-  <si>
-    <t>*Sorted, by natural ordered or by comparator.
-*If user defined objects are placed in queue, then comparator is must.
-*Does not take null, because it needs to compare while putting.
-*The head of the queue is the least element based on the ordering.</t>
   </si>
   <si>
     <t>*the capacity increment(2nd argument) is less than or equal to zero, the capacity of the vector is doubled each time it needs to grow.</t>
@@ -239,6 +220,12 @@
     <t>*Internally uses Array.</t>
   </si>
   <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
     <r>
       <t>*</t>
     </r>
@@ -251,7 +238,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Internally implemented using arrays and linkedList. The linked list is dynamically replaced with BST once the map reaches a threshold.</t>
+      <t>Internally implemented using arrays and linkedList. The linked list is dynamically replaced with BST once the map reaches a threshold(after the number of collisions in a given bucket location exceed a certain threshold).</t>
     </r>
     <r>
       <rPr>
@@ -268,8 +255,32 @@
 * default: load factor is 0.75, initial capacity 16.
 *product of capacity and load factor &gt; number of entries =&gt; Rehashing, capacity will be increased to next of power 2 i.e 32.
 *put() returns the old values if we add the same key again.
+*When put() returns null, it could </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>also</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mean that the previous value associated with the key is null, not necessarily that it’s a new key-value.
+Same with get(), if get() return null, it may be possible that the value is null.
+So use containsKey() in such cases
 *hash() return zero for a null key, so stores one null key, at the first location.
-* </t>
+</t>
     </r>
     <r>
       <rPr>
@@ -280,8 +291,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Collision ?
-*</t>
+      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -297,19 +307,385 @@
     </r>
   </si>
   <si>
-    <t>Map</t>
+    <t>class Entry&lt;K,V&gt; extends HashMap.Node&lt;K,V&gt; {
+    Entry&lt;K,V&gt; before, after;
+    Entry(int hash, K key, V value, Node&lt;K,V&gt; next) {
+        super(hash, key, value, next);
+    }
+}</t>
+  </si>
+  <si>
+    <t>*OverComes the drawback of HashMap by maintaing the insertion order using two added pointers.
+*It maintains a 3rd arguments , if set to true, the least accessed element is listed first.</t>
+  </si>
+  <si>
+    <t>* impossible to make any hard guarantees in the presence of unsynchronized concurrent modification, so it is incorrect to write code which depends on this exception.</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>*Takes a comparator which defines a sort order for user defined objects.</t>
   </si>
   <si>
     <t>HashMap doesn’t maintain any order.
 LinkedHashMap maintains the insertion order.
-TreeMap sort the entries in ascending order of keys.</t>
+TreeMap sort the entries in ascending order of keys.
+*linked hash map reduces the chaos in the ordering of a hash map without incurring the performance penalty of a tree map.</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>*Sorted, by natural ordered or by comparator.
+*Does not take null, because it needs to compare while putting.
+*The head of the queue is the least element based on the ordering.</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Core Java</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>MultiThreading</t>
+  </si>
+  <si>
+    <t>Java Memory Management</t>
+  </si>
+  <si>
+    <t>Interview Question</t>
+  </si>
+  <si>
+    <t>Interview Puzzle</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Executor framework</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Garbage Collection</t>
+  </si>
+  <si>
+    <t>Data structure is a particular way of organizing and storing data in a computer so that it can be accessed and modified efficiently. More precisely, a data structure is a collection of data values, the relationships among them, and the functions or operations that can be applied to the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashSet uses the functionality of HashMap like put &amp; get. It constructs a new HashMap whenever a new hashSet is created.
+LinkedHasHashMap extends HashMap function(insertion order)  </t>
+  </si>
+  <si>
+    <t>Build Management ANT/Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Patterns </t>
+  </si>
+  <si>
+    <t>Principles</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An exception is an event, which occurs during the execution of a program, that disrupts the normal flow of the program's instructions.
+When an error occurs within a method, the method creates an object and hands it off to the runtime system. The object, called an exception object, contains information about the error, including its type and the state of the program when the error occurred. Creating an exception object and handing it to the runtime system is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throwing an exception.</t>
+    </r>
+  </si>
+  <si>
+    <t>Robust and Secure</t>
+  </si>
+  <si>
+    <t>There are no explicit programmer-defined pointer data types, no pointer arithmetic, and automatic garbage collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generates bytecodes--an architecture neutral intermediate format designed to transport code efficiently to multiple hardware and software platforms. </t>
+  </si>
+  <si>
+    <t>interpreted  or ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specifies the sizes of its basic data types and the behavior of its arithmetic operators. </t>
+  </si>
+  <si>
+    <t>Portable</t>
+  </si>
+  <si>
+    <t>Architecture Neutral</t>
+  </si>
+  <si>
+    <t>Those source files are compiled into .class files by the javac compiler. A .class file does not contain code that is native to your processor; it instead contains bytecodes — the machine language of the Java Virtual Machine. The java launcher tool then runs your application with an instance of the Java Virtual Machine.</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>A platform is the hardware or software environment in which a program runs. Most popular platforms like Windows, Linux, Solaris OS, and Mac OS. Most platforms can be described as a combination of the operating system and underlying hardware. The Java platform differs from most other platforms in that it's a software-only platform that runs on top of other hardware-based platforms.</t>
+  </si>
+  <si>
+    <t>myProgram.java -&gt; API -&gt;JVM -&gt; Hardware</t>
+  </si>
+  <si>
+    <t>A class is the blueprint from which individual objects are created.</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way of defining the state and behavior for real-world things </t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An interface provides a means of comunication. Like the Moblie phone provides a interface to meassge and call. It’s the responsible of indiviual brands to define how to interact.
+Interface mobile{  call();  message(); }
+So if Samsung want to call a gadget a "Mobile" then it should define how it will do the call() and message() behaviours.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:all fields are automatically public, static, and final, and all methods that you declare are public.</t>
+    </r>
+  </si>
+  <si>
+    <t>When we want to share code among several closely related classes</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>UML Notations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOP Concepts </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Throwable is the parent class of Java Exceptions Hierarchy and it has two child objects – Error(unchecked) and Exception. 
+Exceptions are further divided into checked exceptions and Unchecked(RuntimeException).
+******
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Checked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Exceptional conditions that a well-written application should anticipate and recover from.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unchecked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Where the application usually cannot anticipate or recover from.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : These are exceptional conditions that are External to the application.Unable to read the file because of a hardware or system malfunction
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RuntimeException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :Usually indicate programming bugs, such as logic errors or improper use of an API
+******
+If the current thread is interrupted/killled  &lt;or&gt; if the JVM exits while executing the try or catch then the finally block *may* not executed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Target -10</t>
+  </si>
+  <si>
+    <r>
+      <t>Unchecked exceptions:
+       Errors :OutOfMemoryError , StackOverflowError
+       Runtime Exception: ArrayIndexOutOfBoundException 
+Checked Exceptions:
+        FileNotFoundException
+******
+try/finally vs tryWithResources
+the method throws finally block exception  and suppress the try block exception.
+the method throws try block exception and suppress the tryWithResource exception.
+The suppressed exception can be retrieved by Throwable.getSuppressed()
+*****
+catch (Exception 1  | Exception2 exp) the catch parameter exp is final and therefore you cannot assign any values to it within the catch block.
+******
+Wrapping exception. Good Idea.
+try { // do something } catch (NumberFormatException exp) {
+                          throw new MyBusinessException("A message that describes the error.", e);    }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To serialize an object means to convert its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a byte stream so that the byte stream can be reverted back into a copy of the object.</t>
+    </r>
+  </si>
+  <si>
+    <t>static , non static anonymous inner class serialization</t>
+  </si>
+  <si>
+    <t>Enumeration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +695,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -352,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -380,6 +764,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,152 +1057,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.265625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -817,67 +1238,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.265625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.59765625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11"/>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -885,9 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -899,9 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -911,6 +1338,163 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="146.73046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -919,4 +1503,137 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C1" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>Topic</t>
   </si>
@@ -649,6 +649,37 @@
     </r>
   </si>
   <si>
+    <t>Enumeration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Custom overrides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+readObject(ObjectInputStream ois):ObjectInputStream readObject() method will use this method for reading the object from stream.
+writeObject(ObjectOutputStream oos):ObjectOutputStream writeObject() method will use this method for writing the object to stream. One of the common usage is to obscure the object variables to maintain data integrity.
+Object writeReplace():After serialization process this method is called and the object returned is serialized to the stream.
+Object readResolve():After deserialization process, this method is called to return the final object to the caller program. One of the usage of this method is to implement Singleton pattern with Serialized classes.
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">To serialize an object means to convert its </t>
     </r>
@@ -671,14 +702,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> to a byte stream so that the byte stream can be reverted back into a copy of the object.</t>
-    </r>
-  </si>
-  <si>
-    <t>static , non static anonymous inner class serialization</t>
-  </si>
-  <si>
-    <t>Enumeration</t>
+      <t xml:space="preserve"> to a byte stream so that the byte stream can be reverted back into a copy of the object.
+*****
+Changes that can be done to class after serialization
+Adding new variables to the class
+Changing the variables from transient to non-transient or static to non-static.
+******
+static , non static anonymous inner class serialization ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>HeapSort</t>
   </si>
 </sst>
 </file>
@@ -736,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -777,6 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1240,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1292,15 +1330,15 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>93</v>
@@ -1326,12 +1364,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1522,7 +1576,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1567,6 +1621,9 @@
       <c r="B6" t="s">
         <v>55</v>
       </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Concepts" sheetId="2" r:id="rId2"/>
     <sheet name="Searching" sheetId="9" r:id="rId3"/>
     <sheet name="Sorting" sheetId="10" r:id="rId4"/>
-    <sheet name="Definition" sheetId="6" r:id="rId5"/>
-    <sheet name="Java" sheetId="8" r:id="rId6"/>
-    <sheet name="DesignPattern" sheetId="3" r:id="rId7"/>
-    <sheet name="DesignPriniciples" sheetId="5" r:id="rId8"/>
-    <sheet name="TO.DO" sheetId="7" r:id="rId9"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId5"/>
+    <sheet name="Definition" sheetId="6" r:id="rId6"/>
+    <sheet name="Java" sheetId="8" r:id="rId7"/>
+    <sheet name="DesignPattern" sheetId="3" r:id="rId8"/>
+    <sheet name="DesignPriniciples" sheetId="5" r:id="rId9"/>
+    <sheet name="TO.DO" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
   <si>
     <t>Topic</t>
   </si>
@@ -717,12 +718,123 @@
   <si>
     <t>HeapSort</t>
   </si>
+  <si>
+    <t>Quicksort</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
+  </si>
+  <si>
+    <t>O(n log(n))</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>Timsort</t>
+  </si>
+  <si>
+    <t>Heapsort</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Tree Sort</t>
+  </si>
+  <si>
+    <t>Shell Sort</t>
+  </si>
+  <si>
+    <t>O(n(log(n))^2)</t>
+  </si>
+  <si>
+    <t>Bucket Sort</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>O(nk)</t>
+  </si>
+  <si>
+    <t>O(n+k)</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>O(k)</t>
+  </si>
+  <si>
+    <t>Cubesort</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap sort works by visualizing the elements of the array as a special kind of complete binary tree called heap
+Max heap always finds the position for largest element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent : (i-1)/2
+Left Child : (i*2) +1
+Right Child =( i*2) +2
+Max number of nodes in Complete binary tree : 2 power h+1,  where h is the height of node.
+If there are n nodes in complete binary tree or binary tree, then the height of the tree is log.n
+*In complete Binary tree all the leaves will be at (n/2) +1  to n
+*All leaves are considered as hepified.
+Because of the above two points we hepify the elements for 0 to (n/2)-1
+ </t>
+  </si>
+  <si>
+    <t>MergeSort</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>BubbleSort</t>
+  </si>
+  <si>
+    <t>InsertionSort</t>
+  </si>
+  <si>
+    <t>SelectionSort</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,8 +858,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,8 +879,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -769,11 +894,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -815,6 +1010,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,6 +1486,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C1" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
@@ -1354,20 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1375,14 +1699,257 @@
     <col min="1" max="1" width="9.06640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1479,7 +2046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1547,18 +2114,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -1573,124 +2128,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C1" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
   <si>
     <t>Topic</t>
   </si>
@@ -828,6 +828,87 @@
   </si>
   <si>
     <t>Binary</t>
+  </si>
+  <si>
+    <t>Chain of Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpreter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flyweight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proxy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract Factory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singleton </t>
+  </si>
+  <si>
+    <t>Creational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structural </t>
+  </si>
+  <si>
+    <t>Behavioral </t>
+  </si>
+  <si>
+    <t>Gives several algorithms that can be used to perform particular operation or task</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1025,6 +1106,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1778,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2116,13 +2203,157 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.53125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="DesignPattern" sheetId="3" r:id="rId8"/>
     <sheet name="DesignPriniciples" sheetId="5" r:id="rId9"/>
     <sheet name="TO.DO" sheetId="7" r:id="rId10"/>
+    <sheet name="Thread" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="165">
   <si>
     <t>Topic</t>
   </si>
@@ -614,9 +615,6 @@
 ******
 If the current thread is interrupted/killled  &lt;or&gt; if the JVM exits while executing the try or catch then the finally block *may* not executed.</t>
     </r>
-  </si>
-  <si>
-    <t>Target -10</t>
   </si>
   <si>
     <r>
@@ -909,6 +907,244 @@
   </si>
   <si>
     <t>Gives several algorithms that can be used to perform particular operation or task</t>
+  </si>
+  <si>
+    <t>Java architecture</t>
+  </si>
+  <si>
+    <t>Explaination</t>
+  </si>
+  <si>
+    <t>Java passes everything by value. With primitives, you get a copy of the contents. With references you get a copy of the contents.</t>
+  </si>
+  <si>
+    <t>Pass by value or reference</t>
+  </si>
+  <si>
+    <t>A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time. Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read in from main memory, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Good Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+http://tutorials.jenkov.com/java-concurrency/java-memory-model.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serial GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ The first step of this algorithm is to mark the surviving objects in the old generation.
+ Then, it checks the heap from the front and leaves only the surviving ones behind (sweep).
+ In the last step, it fills up the heap from the front with the objects so that the objects are piled up consecutively, and divides the heap into two parts: one with objects and one without objects (compact).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ same . Only difference is multiple threads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel Old GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concurrent Mark &amp; Sweep GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ the GC root objects are marked as alive. During this phase, all threads of the application are suspended.
+ During concurrent marking, the marked root objects are traversed and all reachable objects are marked.
+ In the final marking, all threads are suspended and all remaining newly allocated objects are marked as alive. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Garbage First GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In most configurations the OS allocates the heap in advance to be managed by the JVM hence Global synchronization with the operating system is not needed for every single object creation or deletion.
+OutOfMemoryError is thrown after a Major GC and If more than 98% of the total time is spent in garbage collection and less than 2% of the heap is recovered.
+The Explict call to System.gc() is not always guaranteed , may be because GC are configured to run when
+ --&gt; When certain percentage of heap is occupied.
+ --&gt;
+Java avoids memory fragmentation by executing compaction(~ hard-disk defragmentation) at the end of a successful GC cycle.downside--&gt;longer GC cycle.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reducing the Impact of Compacting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Compacting is applied only after certain percentage of fragmentation is seen or compacting is stopped when certain percentage of continuous memory is available
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ard Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure and trade-off points of GC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+Throughput is the percentage of total time NOT spent in garbage collection considered over long periods of time. Throughput includes time spent in allocation.
+Latency is the responsiveness of an application. Garbage collection pauses affect the responsiveness of applications.
+Footprint is the size of each generations, which effects the throughput and Latency.
+The heap grows or shrinks(using the available virtual space) to a size that supports the chosen throughput goal by changing the maximum pause time. 
+For web server delay is negligible when compared to network delays but for interactive graphics delay is high priority so more memory is used to reduce the frequency of GC.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1396,9 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1575,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1589,106 +1823,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C1" s="13" t="s">
-        <v>90</v>
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>45</v>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>87</v>
+      <c r="A7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>52</v>
+      <c r="A13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1697,12 +1920,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="78.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1740,10 +1993,10 @@
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +2006,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
@@ -1761,10 +2014,29 @@
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +2050,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1788,7 +2060,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1814,45 +2086,45 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +2138,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1878,165 +2150,165 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
         <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2321,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2135,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2195,6 +2467,14 @@
         <v>67</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -2205,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2220,135 +2500,135 @@
   <sheetData>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Java" sheetId="8" r:id="rId7"/>
     <sheet name="DesignPattern" sheetId="3" r:id="rId8"/>
     <sheet name="DesignPriniciples" sheetId="5" r:id="rId9"/>
-    <sheet name="TO.DO" sheetId="7" r:id="rId10"/>
+    <sheet name="Topic" sheetId="7" r:id="rId10"/>
     <sheet name="Thread" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="202">
   <si>
     <t>Topic</t>
   </si>
@@ -63,11 +63,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>The ability to inspect the code in the system and see object types is not reflection, but rather Type Introspection. 
-Reflection is then the ability to make modifications at runtime by making use of introspection. 
-The distinction is necessary here as some languages support introspection, but do not support reflection. One such example is C++</t>
   </si>
   <si>
     <t>Reflection</t>
@@ -309,14 +304,6 @@
     </r>
   </si>
   <si>
-    <t>class Entry&lt;K,V&gt; extends HashMap.Node&lt;K,V&gt; {
-    Entry&lt;K,V&gt; before, after;
-    Entry(int hash, K key, V value, Node&lt;K,V&gt; next) {
-        super(hash, key, value, next);
-    }
-}</t>
-  </si>
-  <si>
     <t>*OverComes the drawback of HashMap by maintaing the insertion order using two added pointers.
 *It maintains a 3rd arguments , if set to true, the least accessed element is listed first.</t>
   </si>
@@ -339,11 +326,6 @@
     <t>Hashtable</t>
   </si>
   <si>
-    <t>*Sorted, by natural ordered or by comparator.
-*Does not take null, because it needs to compare while putting.
-*The head of the queue is the least element based on the ordering.</t>
-  </si>
-  <si>
     <t>Data Structure</t>
   </si>
   <si>
@@ -353,9 +335,6 @@
     <t>Data Structures</t>
   </si>
   <si>
-    <t>MultiThreading</t>
-  </si>
-  <si>
     <t>Java Memory Management</t>
   </si>
   <si>
@@ -365,9 +344,6 @@
     <t>Interview Puzzle</t>
   </si>
   <si>
-    <t>JVM</t>
-  </si>
-  <si>
     <t>Executor framework</t>
   </si>
   <si>
@@ -386,20 +362,10 @@
     <t>Data structure is a particular way of organizing and storing data in a computer so that it can be accessed and modified efficiently. More precisely, a data structure is a collection of data values, the relationships among them, and the functions or operations that can be applied to the data.</t>
   </si>
   <si>
-    <t xml:space="preserve">HashSet uses the functionality of HashMap like put &amp; get. It constructs a new HashMap whenever a new hashSet is created.
-LinkedHasHashMap extends HashMap function(insertion order)  </t>
-  </si>
-  <si>
     <t>Build Management ANT/Maven</t>
   </si>
   <si>
     <t xml:space="preserve">Design Patterns </t>
-  </si>
-  <si>
-    <t>Principles</t>
-  </si>
-  <si>
-    <t>Algorithms</t>
   </si>
   <si>
     <r>
@@ -720,30 +686,15 @@
     <t>Quicksort</t>
   </si>
   <si>
-    <t>O(n^2)</t>
-  </si>
-  <si>
-    <t>O(log(n))</t>
-  </si>
-  <si>
     <t>Mergesort</t>
   </si>
   <si>
-    <t>O(n log(n))</t>
-  </si>
-  <si>
-    <t>O(n)</t>
-  </si>
-  <si>
     <t>Timsort</t>
   </si>
   <si>
     <t>Heapsort</t>
   </si>
   <si>
-    <t>O(1)</t>
-  </si>
-  <si>
     <t>Bubble Sort</t>
   </si>
   <si>
@@ -759,25 +710,13 @@
     <t>Shell Sort</t>
   </si>
   <si>
-    <t>O(n(log(n))^2)</t>
-  </si>
-  <si>
     <t>Bucket Sort</t>
   </si>
   <si>
     <t>Radix Sort</t>
   </si>
   <si>
-    <t>O(nk)</t>
-  </si>
-  <si>
-    <t>O(n+k)</t>
-  </si>
-  <si>
     <t>Counting Sort</t>
-  </si>
-  <si>
-    <t>O(k)</t>
   </si>
   <si>
     <t>Cubesort</t>
@@ -906,9 +845,6 @@
     <t>Behavioral </t>
   </si>
   <si>
-    <t>Gives several algorithms that can be used to perform particular operation or task</t>
-  </si>
-  <si>
     <t>Java architecture</t>
   </si>
   <si>
@@ -1146,12 +1082,304 @@
 For web server delay is negligible when compared to network delays but for interactive graphics delay is high priority so more memory is used to reduce the frequency of GC.</t>
     </r>
   </si>
+  <si>
+    <t>Gives several types algorithms that can be used to perform particular operation or task</t>
+  </si>
+  <si>
+    <t>HackerRank</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Design Principles</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Architecture and JVM </t>
+  </si>
+  <si>
+    <t>Reflection is then the ability to make modifications at runtime by making use of introspection. 
+The distinction is necessary here as some languages support introspection, but do not support reflection. One such example is C++</t>
+  </si>
+  <si>
+    <t>The ability to inspect the code in the system and see object types is not reflection, but rather Type Introspection.</t>
+  </si>
+  <si>
+    <t>Single responsibility</t>
+  </si>
+  <si>
+    <t>look for all the reasons a class has to change. If there is more than one reason to change a class then it means this class does not follow the single responsibility principle.
+Low coupling and high cohesion.</t>
+  </si>
+  <si>
+    <t>Open-Closed Principle</t>
+  </si>
+  <si>
+    <t>open-closed-principle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Command Pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This priniciple is more related to the controller class. 
+The class exhibits its extenable functionality by providing a defined protocol(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interface/Composition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) instead of adding swithCase/if-else or inheriting/modifining .
+If any functionality (method) depends on only primary properties we can declare them in the interface.If a functionality depends on an external entity, always use composition rather than inheritance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Chrome browser. It can take any number of extension. The chrome app does not need any modificaton but can do more things by adding extensions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Design Pattern </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Factory Method and Abstract Factory
+This will make sure old implementation is not disturbed and also avoids wired bugs
+Lean/tends towards Interface</t>
+    </r>
+  </si>
+  <si>
+    <t>Liskov Substitution Principle</t>
+  </si>
+  <si>
+    <t>Principle states that any method that takes class X as a parameter must be able to work with any subclasses of X.
+The principle makes sure that every class follows the contract defined by its parent class.</t>
+  </si>
+  <si>
+    <t>Lean/tends towards inheritance. 
+Does it ?</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle</t>
+  </si>
+  <si>
+    <t>Interface Segregation Principle</t>
+  </si>
+  <si>
+    <t>Clients should not be forced to depend upon the interfaces that they do not use.</t>
+  </si>
+  <si>
+    <t>Program to an interface, not to an implementation.</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Entry&lt;K,V&gt; extends HashMap.Node&lt;K,V&gt; {
+    Entry&lt;K,V&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before, after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+    Entry(int hash, K key, V value, Node&lt;K,V&gt; next) {
+        super(hash, key, value, next);
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedHasHashMap extends HashMap function(insertion order)  </t>
+  </si>
+  <si>
+    <t>HashSet uses the functionality of HashMap like put &amp; get. It constructs a new HashMap whenever a new hashSet is created</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>LinkedHasHashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set returns true to indicate that the object is added into the map.
+return map.put(e, PRESENT)==null;
+</t>
+  </si>
+  <si>
+    <t>*Using Queue API we get Sorted, by natural ordered or by comparator.
+*Does not take null, because it needs to compare while putting.
+*The head of the queue is the least element based on the ordering.</t>
+  </si>
+  <si>
+    <t>Design Pattern is a template that has to be implemented to handle a problem</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>Behavioral patterns are used in communications between entities and make it easier and more flexible for these entities to communicate.</t>
+  </si>
+  <si>
+    <t>Constructs complex objects using step-by-step approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creates families of related dependent objects</t>
+  </si>
+  <si>
+    <t>Creates objects of several related classes without specifying the exact object to be created</t>
+  </si>
+  <si>
+    <t>Ensures that at most only one instance of an object exists throughout application</t>
+  </si>
+  <si>
+    <t>Class Loader</t>
+  </si>
+  <si>
+    <t>These design patterns are all about Class and Object composition. Structural object-patterns define ways to compose objects to obtain new functionality.</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>It provides an alternative for inhertance
+Single Responsibility Principle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n(log(n))^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n log(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n+k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n+k </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log  n  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n^2 or nlogn(randomize)</t>
+  </si>
+  <si>
+    <t>Maintainable &amp; Expandable
+Clean &amp; Readable</t>
+  </si>
+  <si>
+    <t>this pattern allows responsibilities to be added to an object</t>
+  </si>
+  <si>
+    <t>How randomized pivot reduce the complexity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,8 +1410,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,8 +1437,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1267,25 +1508,16 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1304,15 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1338,17 +1561,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,9 +1873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1655,59 +1900,59 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -1715,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1723,50 +1968,50 @@
     </row>
     <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
@@ -1774,31 +2019,50 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1809,114 +2073,145 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="13"/>
+    <col min="3" max="3" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="13">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="13">
+        <v>49</v>
+      </c>
+      <c r="C3" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="13">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F17:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1936,12 +2231,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1954,28 +2249,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
     <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1986,57 +2281,60 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
+      <c r="A3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>91</v>
+      <c r="A5" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>55</v>
+      <c r="A6" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>160</v>
+      <c r="A7" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>56</v>
+      <c r="A8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2050,17 +2348,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="14"/>
+    <col min="1" max="1" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>129</v>
+      <c r="A1" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2074,57 +2372,60 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.53125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
-        <v>95</v>
+      <c r="A3" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
-        <v>124</v>
+      <c r="A4" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
-        <v>125</v>
+      <c r="A5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
-        <v>126</v>
+      <c r="A6" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
-        <v>127</v>
+      <c r="A7" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
-        <v>128</v>
+      <c r="A8" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2135,184 +2436,193 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>121</v>
+    <row r="1" spans="1:3" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16"/>
+      <c r="B2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>99</v>
+      <c r="A3" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
+        <v>190</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>102</v>
+      <c r="A4" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
+        <v>190</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>103</v>
+      <c r="A5" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
+        <v>190</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>105</v>
+      <c r="A7" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
+        <v>198</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>106</v>
+      <c r="A8" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
+        <v>191</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>107</v>
+      <c r="A9" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
+        <v>191</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>108</v>
+      <c r="A10" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
+        <v>191</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
+        <v>191</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
+        <v>191</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
+        <v>189</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
-        <v>101</v>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2326,77 +2636,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="144.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>44</v>
+      <c r="A1" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
+      <c r="A2" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2407,72 +2717,77 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="7" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="146.73046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>64</v>
+      <c r="A1" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
+      <c r="A2" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>69</v>
+      <c r="A3" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
-        <v>72</v>
+      <c r="A8" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
-        <v>67</v>
+      <c r="A10" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
-        <v>157</v>
+      <c r="A12" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2798,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -2491,144 +2806,185 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.53125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="22"/>
+    <col min="5" max="16384" width="9.06640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="23" t="s">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="23" t="s">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="C25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="23" t="s">
+      <c r="C27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="23" t="s">
+      <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="18" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="23" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2639,12 +2995,71 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Concepts" sheetId="2" r:id="rId2"/>
     <sheet name="Searching" sheetId="9" r:id="rId3"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId4"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId5"/>
-    <sheet name="Definition" sheetId="6" r:id="rId6"/>
-    <sheet name="Java" sheetId="8" r:id="rId7"/>
-    <sheet name="DesignPattern" sheetId="3" r:id="rId8"/>
-    <sheet name="DesignPriniciples" sheetId="5" r:id="rId9"/>
-    <sheet name="Topic" sheetId="7" r:id="rId10"/>
-    <sheet name="Thread" sheetId="12" r:id="rId11"/>
+    <sheet name="DataStructure" sheetId="13" r:id="rId4"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId5"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId6"/>
+    <sheet name="Definition" sheetId="6" r:id="rId7"/>
+    <sheet name="Java" sheetId="8" r:id="rId8"/>
+    <sheet name="DesignPattern" sheetId="3" r:id="rId9"/>
+    <sheet name="DesignPriniciples" sheetId="5" r:id="rId10"/>
+    <sheet name="Topic" sheetId="7" r:id="rId11"/>
+    <sheet name="Thread" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="206">
   <si>
     <t>Topic</t>
   </si>
@@ -66,21 +67,6 @@
   </si>
   <si>
     <t>Reflection</t>
-  </si>
-  <si>
-    <t>HashMap has an inner class called an Entry Class which holds the key and values.
- static class Entry&lt;K,V&gt; implements Map.Entry&lt;K,V&gt; 
- {
-     final K key;
-     V value;
-     Entry&lt;K,V&gt; next;
-     final int hash;
- }
-**************
-put()
- -&gt;hash(key.hashCode())
- -&gt;indexFor() method is used to get the exact location(bucket) to store the Entry object.
- -&gt;Objects(Entry Objects) in the bucket are linked together using the instance variable(Entry&lt;K,V&gt; next) of the Entry class.</t>
   </si>
   <si>
     <t>LinkedList</t>
@@ -645,38 +631,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To serialize an object means to convert its </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>state</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to a byte stream so that the byte stream can be reverted back into a copy of the object.
-*****
-Changes that can be done to class after serialization
-Adding new variables to the class
-Changing the variables from transient to non-transient or static to non-static.
-******
-static , non static anonymous inner class serialization ?</t>
-    </r>
-  </si>
-  <si>
     <t>Sorting</t>
   </si>
   <si>
@@ -1373,6 +1327,68 @@
   </si>
   <si>
     <t>How randomized pivot reduce the complexity</t>
+  </si>
+  <si>
+    <t>difference between each search
+one to one
+complexity</t>
+  </si>
+  <si>
+    <t>Create generic implementaion of a DS</t>
+  </si>
+  <si>
+    <t>Find the missing card in a deck</t>
+  </si>
+  <si>
+    <t>HashMap has an inner class called an Entry Class which holds the key and values.
+ static class Entry&lt;K,V&gt; implements Map.Entry&lt;K,V&gt; 
+ {
+     final K key;
+     V value;
+     Entry&lt;K,V&gt; next;
+     final int hash;
+ }
+**************
+put()
+ -&gt;hash(key.hashCode())
+ -&gt;indexFor() method is used to get the exact location(bucket) to store the Entry object.
+ -&gt;Objects(Entry Objects) in the bucket are linked together using the instance variable(Entry&lt;K,V&gt; next) of the Entry class. Which is used during collision, to traverse.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To serialize an object means to convert its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a byte stream so that the byte stream can be reverted back into a copy of the object.
+*****
+Changes that can be done to class after serialization:
+Adding new variables to the class
+Changing the variables from transient to non-transient or static to non-static.
+******
+static , non static anonymous inner class serialization ?
+behaviour of transient to non-transient or static to non-stayic ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Inner Classes</t>
   </si>
 </sst>
 </file>
@@ -1579,12 +1595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,6 +1602,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1900,43 +1916,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -1946,13 +1962,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -1960,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1968,21 +1984,21 @@
     </row>
     <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -1992,26 +2008,26 @@
     </row>
     <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
@@ -2019,50 +2035,50 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2089,81 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2089,15 +2176,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10">
         <v>9</v>
@@ -2105,7 +2192,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10">
         <v>6</v>
@@ -2113,7 +2200,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10">
         <v>5</v>
@@ -2121,101 +2208,116 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>149</v>
+      <c r="B8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+        <v>146</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="F18:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2231,12 +2333,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2249,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2282,13 +2384,13 @@
     </row>
     <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -2296,45 +2398,45 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2345,20 +2447,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="2" max="2" width="25.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2477,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2384,48 +2504,48 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2434,11 +2554,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2451,173 +2571,173 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
-      <c r="B2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>104</v>
+      <c r="B2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
-        <v>91</v>
-      </c>
       <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="28">
+        <v>188</v>
+      </c>
+      <c r="C5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="27" t="s">
-        <v>88</v>
+      <c r="A7" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
-        <v>94</v>
-      </c>
       <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="28">
+        <v>189</v>
+      </c>
+      <c r="C10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="28">
+        <v>187</v>
+      </c>
+      <c r="C14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2643,70 +2763,70 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2732,62 +2852,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -2815,247 +2935,176 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="207">
   <si>
     <t>Topic</t>
   </si>
@@ -1389,6 +1389,9 @@
   </si>
   <si>
     <t>Inner Classes</t>
+  </si>
+  <si>
+    <t>linear</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2449,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2462,6 +2465,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8738" tabRatio="936"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
-    <sheet name="Concepts" sheetId="2" r:id="rId2"/>
-    <sheet name="Searching" sheetId="9" r:id="rId3"/>
-    <sheet name="DataStructure" sheetId="13" r:id="rId4"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId5"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId6"/>
-    <sheet name="Definition" sheetId="6" r:id="rId7"/>
-    <sheet name="Java" sheetId="8" r:id="rId8"/>
-    <sheet name="DesignPattern" sheetId="3" r:id="rId9"/>
-    <sheet name="DesignPriniciples" sheetId="5" r:id="rId10"/>
-    <sheet name="Topic" sheetId="7" r:id="rId11"/>
-    <sheet name="Thread" sheetId="12" r:id="rId12"/>
+    <sheet name="Questions" sheetId="14" r:id="rId2"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId3"/>
+    <sheet name="Searching" sheetId="9" r:id="rId4"/>
+    <sheet name="DS" sheetId="13" r:id="rId5"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId6"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId7"/>
+    <sheet name="Definition" sheetId="6" r:id="rId8"/>
+    <sheet name="Java" sheetId="8" r:id="rId9"/>
+    <sheet name="D.Pattern" sheetId="3" r:id="rId10"/>
+    <sheet name="D.Priniciples" sheetId="5" r:id="rId11"/>
+    <sheet name="Topics" sheetId="7" r:id="rId12"/>
+    <sheet name="Puzzles" sheetId="15" r:id="rId13"/>
+    <sheet name="Thread" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="218">
   <si>
     <t>Topic</t>
   </si>
@@ -1392,6 +1394,40 @@
   </si>
   <si>
     <t>linear</t>
+  </si>
+  <si>
+    <t>Recursive function to do substring search</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>open-closed-principle
+encapsulation ?</t>
+  </si>
+  <si>
+    <t>ConcurentHashMap </t>
+  </si>
+  <si>
+    <t>Inner Class</t>
+  </si>
+  <si>
+    <t>annonymous  Class</t>
+  </si>
+  <si>
+    <t>Runtime Class</t>
+  </si>
+  <si>
+    <t>Multi-Tasking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Processing </t>
+  </si>
+  <si>
+    <t>Multi-Threading</t>
   </si>
 </sst>
 </file>
@@ -1894,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2060,6 +2096,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>168</v>
@@ -2092,10 +2133,207 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2161,12 +2399,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2279,9 +2517,6 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F18" s="27"/>
@@ -2309,6 +2544,26 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2320,13 +2575,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2352,10 +2633,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2448,12 +2741,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2483,19 +2776,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2562,7 +2863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2754,12 +3055,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2837,18 +3138,33 @@
         <v>77</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2922,201 +3238,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8738" tabRatio="936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8738" tabRatio="936" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="Concepts" sheetId="2" r:id="rId3"/>
     <sheet name="Searching" sheetId="9" r:id="rId4"/>
     <sheet name="DS" sheetId="13" r:id="rId5"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId6"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId7"/>
-    <sheet name="Definition" sheetId="6" r:id="rId8"/>
-    <sheet name="Java" sheetId="8" r:id="rId9"/>
-    <sheet name="D.Pattern" sheetId="3" r:id="rId10"/>
-    <sheet name="D.Priniciples" sheetId="5" r:id="rId11"/>
-    <sheet name="Topics" sheetId="7" r:id="rId12"/>
-    <sheet name="Puzzles" sheetId="15" r:id="rId13"/>
-    <sheet name="Thread" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId7"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId8"/>
+    <sheet name="Definition" sheetId="6" r:id="rId9"/>
+    <sheet name="Java" sheetId="8" r:id="rId10"/>
+    <sheet name="D.Pattern" sheetId="3" r:id="rId11"/>
+    <sheet name="D.Priniciples" sheetId="5" r:id="rId12"/>
+    <sheet name="Topics" sheetId="7" r:id="rId13"/>
+    <sheet name="Puzzles" sheetId="15" r:id="rId14"/>
+    <sheet name="Thread" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
   <si>
     <t>Topic</t>
   </si>
@@ -1287,10 +1288,6 @@
     <t>Class Diagram</t>
   </si>
   <si>
-    <t>It provides an alternative for inhertance
-Single Responsibility Principle</t>
-  </si>
-  <si>
     <t xml:space="preserve"> n(log(n))^2)</t>
   </si>
   <si>
@@ -1323,9 +1320,6 @@
   <si>
     <t>Maintainable &amp; Expandable
 Clean &amp; Readable</t>
-  </si>
-  <si>
-    <t>this pattern allows responsibilities to be added to an object</t>
   </si>
   <si>
     <t>How randomized pivot reduce the complexity</t>
@@ -1399,9 +1393,6 @@
     <t>Recursive function to do substring search</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>Enum</t>
   </si>
   <si>
@@ -1428,6 +1419,88 @@
   </si>
   <si>
     <t>Multi-Threading</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory.
+More time consuming becuase cache memory cant be used.
+If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It provides an alternative for inhertance
+Single Responsibility Principle.
+Open for extension, but closed for modification
+Ex:  FileReader, BufferedReader </t>
+  </si>
+  <si>
+    <t>this pattern allows addition of responsibilities to an object at runtime without affecting other instance of the same class</t>
+  </si>
+  <si>
+    <t>DataStructure</t>
+  </si>
+  <si>
+    <t>Priniciple</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Generic DataStructure &lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict Binary Tree:
+each node has 2 0r zero nodes
+Complete Binary tree:
+All nodes are completely filled and all nodes which are not filled should be as left as possible
+Left Child : (i*2) +1
+Right Child =( i*2) +2
+Perfect Binary tree:
+All nodes has 2 children. other node is a leaf
+Root node is at level 0
+Max nodes at level i=2^i
+</t>
+  </si>
+  <si>
+    <t>If the input is reduced by half in every iteration then the complexity is logarathimic</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2077,7 +2150,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -2098,7 +2171,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -2132,1034 +2205,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="10"/>
-    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F18:G20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="78.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.06640625" style="11"/>
-    <col min="2" max="2" width="25.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B18" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16"/>
-      <c r="B2" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="144.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -3238,4 +2283,1145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F18:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="78.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="2" max="2" width="25.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A9:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -12,16 +12,15 @@
     <sheet name="Concepts" sheetId="2" r:id="rId3"/>
     <sheet name="Searching" sheetId="9" r:id="rId4"/>
     <sheet name="DS" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId7"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId8"/>
-    <sheet name="Definition" sheetId="6" r:id="rId9"/>
-    <sheet name="Java" sheetId="8" r:id="rId10"/>
-    <sheet name="D.Pattern" sheetId="3" r:id="rId11"/>
-    <sheet name="D.Priniciples" sheetId="5" r:id="rId12"/>
-    <sheet name="Topics" sheetId="7" r:id="rId13"/>
-    <sheet name="Puzzles" sheetId="15" r:id="rId14"/>
-    <sheet name="Thread" sheetId="12" r:id="rId15"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId6"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId7"/>
+    <sheet name="Definition" sheetId="6" r:id="rId8"/>
+    <sheet name="Java" sheetId="8" r:id="rId9"/>
+    <sheet name="D.Pattern" sheetId="3" r:id="rId10"/>
+    <sheet name="D.Priniciples" sheetId="5" r:id="rId11"/>
+    <sheet name="Topics" sheetId="7" r:id="rId12"/>
+    <sheet name="Puzzles" sheetId="15" r:id="rId13"/>
+    <sheet name="Thread" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="238">
   <si>
     <t>Topic</t>
   </si>
@@ -1501,6 +1500,58 @@
   </si>
   <si>
     <t>If the input is reduced by half in every iteration then the complexity is logarathimic</t>
+  </si>
+  <si>
+    <t>Why Strings are Immutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that they can be used in hashtable
+so that we can use the string pool safely </t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Stack/Heap</t>
+  </si>
+  <si>
+    <t>Stack memory only contains local primitive variables and reference variables to objects in heap space.
+Heap memory is used by all the parts of the application whereas stack memory is used only by one thread of execution</t>
+  </si>
+  <si>
+    <t>Deep/Shallow/Lazy/Clone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lazy copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be defined as a combination of both shallow copy and deep copy. The mechanism follows a simple approach – at the initial state, shallow copy approach is used. A counter is also used to keep a track on how many objects share the data. When the program wants to modify the original object, it checks whether the object is shared or not. If the object is shared, then the deep copy mechanism is initiated.</t>
+    </r>
+  </si>
+  <si>
+    <t>Strings are immutable :
+So that they can be used in hashtable.
+So that we can use the string pool safely, because no one can change reference of string once it gets created.
+Threads funda … still no clue</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1714,6 +1765,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2003,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2206,91 +2260,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.59765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="146.73046875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2482,13 +2455,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2553,7 +2524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -2704,8 +2675,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="H18" t="s">
         <v>221</v>
       </c>
@@ -2714,8 +2685,8 @@
       <c r="A19" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" t="s">
         <v>222</v>
       </c>
@@ -2724,8 +2695,8 @@
       <c r="A20" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -2766,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2794,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2831,21 +2802,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2867,71 +2853,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="11" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3028,28 +3038,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A9:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3111,7 +3103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -3322,7 +3314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -3424,4 +3416,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="146.73046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8738" tabRatio="936" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8738" tabRatio="936" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection" sheetId="1" r:id="rId1"/>
-    <sheet name="Questions" sheetId="14" r:id="rId2"/>
-    <sheet name="Concepts" sheetId="2" r:id="rId3"/>
-    <sheet name="Searching" sheetId="9" r:id="rId4"/>
-    <sheet name="DS" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId7"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId8"/>
-    <sheet name="Definition" sheetId="6" r:id="rId9"/>
-    <sheet name="Java" sheetId="8" r:id="rId10"/>
-    <sheet name="D.Pattern" sheetId="3" r:id="rId11"/>
-    <sheet name="D.Priniciples" sheetId="5" r:id="rId12"/>
-    <sheet name="Topics" sheetId="7" r:id="rId13"/>
-    <sheet name="Puzzles" sheetId="15" r:id="rId14"/>
-    <sheet name="Thread" sheetId="12" r:id="rId15"/>
+    <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
+    <sheet name="Topics" sheetId="7" r:id="rId2"/>
+    <sheet name="Question" sheetId="14" r:id="rId3"/>
+    <sheet name="Puzzles" sheetId="19" r:id="rId4"/>
+    <sheet name="Collection" sheetId="1" r:id="rId5"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId6"/>
+    <sheet name="Searching" sheetId="9" r:id="rId7"/>
+    <sheet name="Data Structures" sheetId="13" r:id="rId8"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId9"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId10"/>
+    <sheet name="Definition" sheetId="6" r:id="rId11"/>
+    <sheet name="Java" sheetId="8" r:id="rId12"/>
+    <sheet name="Software Architecture" sheetId="16" r:id="rId13"/>
+    <sheet name="Design Pattern" sheetId="3" r:id="rId14"/>
+    <sheet name="Design Priniciples" sheetId="5" r:id="rId15"/>
+    <sheet name="Java Versions" sheetId="17" r:id="rId16"/>
+    <sheet name="Thread" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="271">
   <si>
     <t>Topic</t>
   </si>
@@ -841,205 +843,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Serial GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
- The first step of this algorithm is to mark the surviving objects in the old generation.
- Then, it checks the heap from the front and leaves only the surviving ones behind (sweep).
- In the last step, it fills up the heap from the front with the objects so that the objects are piled up consecutively, and divides the heap into two parts: one with objects and one without objects (compact).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parallel GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
- same . Only difference is multiple threads
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parallel Old GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Concurrent Mark &amp; Sweep GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
- the GC root objects are marked as alive. During this phase, all threads of the application are suspended.
- During concurrent marking, the marked root objects are traversed and all reachable objects are marked.
- In the final marking, all threads are suspended and all remaining newly allocated objects are marked as alive. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Garbage First GC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In most configurations the OS allocates the heap in advance to be managed by the JVM hence Global synchronization with the operating system is not needed for every single object creation or deletion.
-OutOfMemoryError is thrown after a Major GC and If more than 98% of the total time is spent in garbage collection and less than 2% of the heap is recovered.
-The Explict call to System.gc() is not always guaranteed , may be because GC are configured to run when
- --&gt; When certain percentage of heap is occupied.
- --&gt;
-Java avoids memory fragmentation by executing compaction(~ hard-disk defragmentation) at the end of a successful GC cycle.downside--&gt;longer GC cycle.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reducing the Impact of Compacting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Compacting is applied only after certain percentage of fragmentation is seen or compacting is stopped when certain percentage of continuous memory is available
-C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ard Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure and trade-off points of GC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-Throughput is the percentage of total time NOT spent in garbage collection considered over long periods of time. Throughput includes time spent in allocation.
-Latency is the responsiveness of an application. Garbage collection pauses affect the responsiveness of applications.
-Footprint is the size of each generations, which effects the throughput and Latency.
-The heap grows or shrinks(using the available virtual space) to a size that supports the chosen throughput goal by changing the maximum pause time. 
-For web server delay is negligible when compared to network delays but for interactive graphics delay is high priority so more memory is used to reduce the frequency of GC.</t>
-    </r>
-  </si>
-  <si>
     <t>Gives several types algorithms that can be used to perform particular operation or task</t>
   </si>
   <si>
@@ -1069,10 +872,6 @@
   </si>
   <si>
     <t>Single responsibility</t>
-  </si>
-  <si>
-    <t>look for all the reasons a class has to change. If there is more than one reason to change a class then it means this class does not follow the single responsibility principle.
-Low coupling and high cohesion.</t>
   </si>
   <si>
     <t>Open-Closed Principle</t>
@@ -1502,12 +1301,365 @@
   <si>
     <t>If the input is reduced by half in every iteration then the complexity is logarathimic</t>
   </si>
+  <si>
+    <t>Why Strings are Immutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that they can be used in hashtable
+so that we can use the string pool safely </t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Stack/Heap</t>
+  </si>
+  <si>
+    <t>Stack memory only contains local primitive variables and reference variables to objects in heap space.
+Heap memory is used by all the parts of the application whereas stack memory is used only by one thread of execution</t>
+  </si>
+  <si>
+    <t>Deep/Shallow/Lazy/Clone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lazy copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be defined as a combination of both shallow copy and deep copy. The mechanism follows a simple approach – at the initial state, shallow copy approach is used. A counter is also used to keep a track on how many objects share the data. When the program wants to modify the original object, it checks whether the object is shared or not. If the object is shared, then the deep copy mechanism is initiated.</t>
+    </r>
+  </si>
+  <si>
+    <t>Strings are immutable :
+So that they can be used in hashtable.
+So that we can use the string pool safely, because no one can change reference of string once it gets created.
+Threads funda … still no clue</t>
+  </si>
+  <si>
+    <t>The JVM exits the program when all the user threads are completed. It does not wait for the deamon thread for completion.
+A thread should be set to deamon before starting the thread.</t>
+  </si>
+  <si>
+    <t>When stack memory is full, Java runtime throws java.lang.StackOverFlowError whereas if heap memory is full, it throws java.lang.OutOfMemoryError: Java Heap Space error</t>
+  </si>
+  <si>
+    <t>Automatic Garbage collection is a process of looking at the Heap memory, identifying(also known as “marking”) the unreachable objects, and destroying(Sweep) them with compaction. An issue with this approach is that, as the number of objects increases, the Garbage Collection time keeps on increasing, as it needs to go through the entire list of objects, looking for the unreachable object.Since most of the objects are short-lived the Heap space is divided into generations like Young Generation, Old or Tenured Generation, and Permanent Generation.
+In most configurations the OS allocates the heap in advance to be managed by the JVM hence Global synchronization with the operating system is not needed for every single object creation or deletion.
+OutOfMemoryError is thrown after a Major GC and If more than 98% of the total time is spent in garbage collection and less than 2% of the heap is recovered.
+The Explict call to System.gc() is not always guaranteed , may be because GC are configured to run when
+ --&gt; When certain percentage of heap is occupied.
+ --&gt;
+Java avoids memory fragmentation by executing compaction(~ hard-disk defragmentation) at the end of a successful GC cycle.downside--&gt;longer GC cycle.
+Reducing the Impact of Compacting:Compacting is applied only after certain percentage of fragmentation is seen or compacting is stopped when certain percentage of continuous memory is available
+Card Table:
+Measure and trade-off points of GC :
+Throughput is the percentage of total time NOT spent in garbage collection considered over long periods of time. Throughput includes time spent in allocation.
+Latency is the responsiveness of an application. Garbage collection pauses affect the responsiveness of applications.
+Footprint is the size of each generations, which effects the throughput and Latency.
+The heap grows or shrinks(using the available virtual space) to a size that supports the chosen throughput goal by changing the maximum pause time. 
+For web server delay is negligible, when compared to network delays to a interactive graphics delay is high priority so more memory is used to reduce the frequency of GC.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Four different garbage collectors.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serial GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ The first step of this algorithm is to mark the surviving objects in the old generation.
+ Then, it checks the heap from the front and leaves only the surviving ones behind (sweep).
+ In the last step, it fills up the heap from the front with the objects so that the objects are piled up consecutively(compacting), and divides the heap into two parts: one with objects and one without objects (compact).
+This method stops all the current runnng threads.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ same . Only difference is multiple threads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concurrent Mark &amp; Sweep(CMS) GC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+it runs in parallel to the application threads but It uses Stop-The-World(STW) approach in two cases.
+ 1.the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GC root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> objects are marked as alive. During this phase, all threads of the application are suspended.
+ 2.During concurrent marking, the marked root objects are traversed and all reachable objects are marked.
+ 3.In the final marking, all threads are suspended and all remaining newly allocated objects are marked as alive. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Garbage First GC:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+G1 collector partitions the heap into a set of equal-sized heap regions, each a contiguous range of virtual memory. When performing garbage collections, G1 shows a concurrent global marking phase to determine the liveness of objects throughout the heap. After the mark phase is completed, G1 knows which regions are mostly empty. It collects in these areas first, which usually yields a significant amount of free space.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> software architecture is the process of converting software characteristics such as flexibility, scalability, feasibility, reusability, and security into a structured solution that meets the technical and the business expectations. </t>
+  </si>
+  <si>
+    <t>Software Architecture</t>
+  </si>
+  <si>
+    <t>Serverless Architecture</t>
+  </si>
+  <si>
+    <t>Event-Driven Architecture</t>
+  </si>
+  <si>
+    <t>Microservices Architecture</t>
+  </si>
+  <si>
+    <t>Example : Amazon AWS “Lambda.”
+1.Backend as a service (BaaS)
+2.Functions as a Service
+Application solution that depends on third-party services to manage the complexity of the servers and backend management.</t>
+  </si>
+  <si>
+    <t>It depends on developing small, independent modular services where each service solves a specific problem or performs a unique task and these modules communicate with each other through well-defined API to serve the business goal.</t>
+  </si>
+  <si>
+    <t>look for all the reasons a class has to change. If there is more than one reason to change a class then it means this class does not follow the single responsibility principle.
+A class should have only one reason to  change.
+Low coupling and high cohesion.</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>J2SE, J2EE, J2ME
+Collection APIs</t>
+  </si>
+  <si>
+    <t>HotSpot JVM</t>
+  </si>
+  <si>
+    <t>J2SE 6.0 -&gt; Java SE 6</t>
+  </si>
+  <si>
+    <t>Inner Classes
+Java Beans
+RMI, Remote Methods Innovaction
+Just in Time (JIT) Compiler</t>
+  </si>
+  <si>
+    <t>Regular Expression
+Exception Chaining</t>
+  </si>
+  <si>
+    <t>AutoBoxing
+Generics
+Variable  Arguments
+ForEach
+Annotations
+Enumeration</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Software Architecture Patterns</t>
+  </si>
+  <si>
+    <t>Design Priniciples</t>
+  </si>
+  <si>
+    <t>Java Versions</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>6
+Last from Sun</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Namimg convention Changed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Strings in Switch statement 
+Try with rescources, auto close resources
+Multiple Catches, pipe operator</t>
+  </si>
+  <si>
+    <t>Define methods in Interface
+method reference
+Lambda Expression
+Final is removed ?</t>
+  </si>
+  <si>
+    <t>Ahead-of-Time Compilation
+Jshell - Java Shell.
+Jlink - 
+Removed JavaDB from JDK
+Made G1 by default</t>
+  </si>
+  <si>
+    <t>Garbage Collection Interface
+Local Variable type Inference
+Var is introduced</t>
+  </si>
+  <si>
+    <t>Epsilon : GC
+Local Variable syntax for lambda parameter
+Collection.ToArray(intFunction)
+Lazy allocation of compiler Threads
+Removed Thread.destory(), Thread.stop();
+Removed corba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1541,6 +1693,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1642,10 +1802,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1715,6 +1876,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1722,7 +1888,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2001,1117 +2168,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A3:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="29" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>170</v>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="28" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A4" location="Question!A1" display="Question"/>
+    <hyperlink ref="A5" location="Puzzles!A1" display="Puzzle"/>
+    <hyperlink ref="A6" location="Collection!A1" display="Collection"/>
+    <hyperlink ref="A7" location="Concepts!A1" display="Concepts"/>
+    <hyperlink ref="A8" location="Searching!A1" display="Searching"/>
+    <hyperlink ref="A9" location="DS!A1" display="Data Structures"/>
+    <hyperlink ref="A10" location="Sorting!A1" display="Sorting!A1"/>
+    <hyperlink ref="A11" location="Complexity!A1" display="Complexity"/>
+    <hyperlink ref="A12" location="Definition!A1" display="Definition!A1"/>
+    <hyperlink ref="A13" location="Java!A1" display="Java"/>
+    <hyperlink ref="A14" location="'Software Architecture'!A1" display="Software Architecture Patterns"/>
+    <hyperlink ref="A15" location="'Design Pattern'!A1" display="'Design Pattern'!A1"/>
+    <hyperlink ref="A16" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1"/>
+    <hyperlink ref="A17" location="'Java Versions'!A1" display="'Java Versions'"/>
+    <hyperlink ref="A18" location="Thread!A1" display="Thread"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.59765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="146.73046875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="B16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="10"/>
-    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F18:G20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="78.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.06640625" style="11"/>
-    <col min="2" max="2" width="25.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B18" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A9:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -3167,10 +2342,10 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -3178,10 +2353,10 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -3189,7 +2364,7 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
@@ -3204,10 +2379,10 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -3215,7 +2390,7 @@
         <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="26">
         <v>1</v>
@@ -3226,7 +2401,7 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C9" s="26">
         <v>1</v>
@@ -3237,7 +2412,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="26">
         <v>1</v>
@@ -3252,10 +2427,10 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -3263,10 +2438,10 @@
         <v>95</v>
       </c>
       <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -3274,7 +2449,7 @@
         <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14" s="26">
         <v>1</v>
@@ -3285,13 +2460,13 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>192</v>
-      </c>
       <c r="I15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -3299,10 +2474,10 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -3310,10 +2485,10 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3322,12 +2497,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3385,6 +2560,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>74</v>
@@ -3407,17 +2590,1317 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="146.73046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.06640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.19921875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>214</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.3984375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="78.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F18:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="63.796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="2" max="2" width="25.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D3D96-85B0-4A45-B897-C443489FD9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8738" tabRatio="936" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -25,17 +26,23 @@
     <sheet name="Java Versions" sheetId="17" r:id="rId16"/>
     <sheet name="Thread" sheetId="12" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
   <si>
     <t>Topic</t>
   </si>
@@ -425,35 +432,6 @@
   </si>
   <si>
     <t>Abstract class</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An interface provides a means of comunication. Like the Moblie phone provides a interface to meassge and call. It’s the responsible of indiviual brands to define how to interact.
-Interface mobile{  call();  message(); }
-So if Samsung want to call a gadget a "Mobile" then it should define how it will do the call() and message() behaviours.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:all fields are automatically public, static, and final, and all methods that you declare are public.</t>
-    </r>
   </si>
   <si>
     <t>When we want to share code among several closely related classes</t>
@@ -759,33 +737,12 @@
     <t xml:space="preserve">Visitor </t>
   </si>
   <si>
-    <t xml:space="preserve">Adapter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite </t>
-  </si>
-  <si>
     <t xml:space="preserve">Decorator </t>
   </si>
   <si>
-    <t xml:space="preserve">Facade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flyweight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proxy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Factory </t>
   </si>
   <si>
-    <t xml:space="preserve">Abstract Factory </t>
-  </si>
-  <si>
     <t xml:space="preserve">Builder </t>
   </si>
   <si>
@@ -793,15 +750,6 @@
   </si>
   <si>
     <t xml:space="preserve">Singleton </t>
-  </si>
-  <si>
-    <t>Creational</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural </t>
-  </si>
-  <si>
-    <t>Behavioral </t>
   </si>
   <si>
     <t>Java architecture</t>
@@ -983,10 +931,6 @@
   <si>
     <t>Principle states that any method that takes class X as a parameter must be able to work with any subclasses of X.
 The principle makes sure that every class follows the contract defined by its parent class.</t>
-  </si>
-  <si>
-    <t>Lean/tends towards inheritance. 
-Does it ?</t>
   </si>
   <si>
     <t>Dependency Inversion Principle</t>
@@ -1057,15 +1001,9 @@
 *The head of the queue is the least element based on the ordering.</t>
   </si>
   <si>
-    <t>Design Pattern is a template that has to be implemented to handle a problem</t>
-  </si>
-  <si>
     <t>Design Pattern</t>
   </si>
   <si>
-    <t>Behavioral patterns are used in communications between entities and make it easier and more flexible for these entities to communicate.</t>
-  </si>
-  <si>
     <t>Constructs complex objects using step-by-step approach</t>
   </si>
   <si>
@@ -1115,10 +1053,6 @@
   </si>
   <si>
     <t xml:space="preserve"> n^2 or nlogn(randomize)</t>
-  </si>
-  <si>
-    <t>Maintainable &amp; Expandable
-Clean &amp; Readable</t>
   </si>
   <si>
     <t>How randomized pivot reduce the complexity</t>
@@ -1245,15 +1179,6 @@
 Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It provides an alternative for inhertance
-Single Responsibility Principle.
-Open for extension, but closed for modification
-Ex:  FileReader, BufferedReader </t>
-  </si>
-  <si>
-    <t>this pattern allows addition of responsibilities to an object at runtime without affecting other instance of the same class</t>
   </si>
   <si>
     <t>DataStructure</t>
@@ -1629,12 +1554,6 @@
 Multiple Catches, pipe operator</t>
   </si>
   <si>
-    <t>Define methods in Interface
-method reference
-Lambda Expression
-Final is removed ?</t>
-  </si>
-  <si>
     <t>Ahead-of-Time Compilation
 Jshell - Java Shell.
 Jlink - 
@@ -1642,23 +1561,395 @@
 Made G1 by default</t>
   </si>
   <si>
-    <t>Garbage Collection Interface
+    <t xml:space="preserve">communicate via HTTP , hence acheives language independence
+Scaling of Monolithic Apps causes all the modules to be scaled instead of on demand modules.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Define methods in Interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+method reference
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lambda Expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Final is removed ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Garbage Collection Interface
 Local Variable type Inference
-Var is introduced</t>
-  </si>
-  <si>
-    <t>Epsilon : GC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Var is introduced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Epsilon : GC
 Local Variable syntax for lambda parameter
 Collection.ToArray(intFunction)
 Lazy allocation of compiler Threads
-Removed Thread.destory(), Thread.stop();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Removed Thread.destory(), Thread.stop();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Removed corba</t>
+    </r>
+  </si>
+  <si>
+    <t>Catalogue</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>FlyWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavioral patterns are used in communications between entities and make it easier and more flexible for these entities to communicate.
+</t>
+  </si>
+  <si>
+    <t>uses abstract classes or interface with composition to implement.</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>Façade</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Increases the memory footprint: If we inherit a class which has lot of members/variables just to override one method. Then it is overhead.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FilteredServiceListCreator and its decorator
+Label,with scroller,arrow up &amp; down, pic label
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EPG Guide Colouring:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normal, unauthorised and scrambled service.
+Different kinds decorators: 3 different text styles, 3 different colours, 3 different pic label.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Factory </t>
+  </si>
+  <si>
+    <t>Maintainable &amp; Expandable
+Clean &amp; Readable
+https://stackoverflow.com/questions/350404/how-do-the-proxy-decorator-adapter-and-bridge-patterns-differ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An interface provides a means of comunication. Like the Moblie phone provides a interface to meassge and call. It’s the responsible of indiviual brands to define how to interact.
+Interface mobile{  call();  message(); }
+So if Samsung want to call a gadget a "Mobile" then it should define how it will do the call() and message() behaviours.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:all fields are automatically public, static, and final, and all methods that you declare are public.
+1. separate how we use something from how it is implemented.
+2.Interfaces are trying to solve a very specific problem by allowing us to interact with objects based on what they do, not how they do it.
+1.interfaces that completely describe the functionality of a class are usually wrong
+2.Interfaces are always implemented by more than one class</t>
+    </r>
+  </si>
+  <si>
+    <t>Dependency
+Injection</t>
+  </si>
+  <si>
+    <t>Class Diagram / UML</t>
+  </si>
+  <si>
+    <t>Structural 
+7</t>
+  </si>
+  <si>
+    <t>Creational
+5</t>
+  </si>
+  <si>
+    <t>Behavioral 
+11</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>Lean/tends towards inheritance. Does it ?, Yes. It is about inheritance
+https://www.youtube.com/watch?v=ObHQHszbIcE</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Object Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Itdescribes the structure of a system by showing the system's classes, their attributes, operations (or methods), and the relationships among objects.</t>
+  </si>
+  <si>
+    <t>It will show how objects in your system are interacting with each other at some point in time, and what values those objects contain when the program is in this state.</t>
+  </si>
+  <si>
+    <t>It depicts the objects and classes involved in the scenario and the sequence of messages exchanged between the objects needed to carry out the functionality of the scenario.</t>
+  </si>
+  <si>
+    <t>Intended to provide a standard way to visualize the design of a system.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design Pattern is a template that has to be implemented to handle a problem
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://dzone.com/refcardz/design-patterns</t>
+    </r>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>Null Object</t>
+  </si>
+  <si>
+    <t>The adapter is the solution for classes that do similar jobs but don't have a unified interface. Adapter provides the uniform interface and can be implemented using either multiple inheritance or delegation through embedding a member of the adaptee.
+There are two types of Adapter
+1. Objects Adapters(Composition): Adapter Implements the interface. Adapter holds the object of the other class(Adaptee)
+2. Class Adapters (Inheritance): Adapter Implements the interface. Adapter inherits the other class(Adaptee).</t>
+  </si>
+  <si>
+    <t>You should consider using the Adapter Pattern whenever you want to use an existing class’s functionality, but its interface is not the one that you require.
+Interfaces are incompatible, but the inner functionality should be as required.
+Decorator and Adapter does wrap already existing object, and such is typically provided in the constructor.
+dzone.com/articles/adapter-design-pattern-in-java
+Decorator and Adapter wrap existing object, and that is typically provided in the constructor.</t>
+  </si>
+  <si>
+    <t>It provides an alternative for inhertance.
+i.e , you are trading "have to write pass-throughs for every method, not just the ones you're changing &amp; do 2 step object creation", for "have to write a subclass for each concrete class you want to change".
+The decorator pattern-- add behaviour dynamically at runtime. 
+Inheritance adds behaviour at compile time.
+Very Useful DP to extend the functionality of legacy class without disturbing
+ the class.
+The complexity in decorating the objects can be reduced by other means .Like, using decorator-builder
+Single Responsibility Principle.
+Open-Closed Principle
+Dependency Inversion
+Ex:  FileReader, BufferedReader 
+https://dzone.com/articles/is-inheritance-dead
+https://dzone.com/articles/the-decorator-builder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are 3 entites in Decorator pattern.
+1. The basic Interface.
+2. One or many concrete Class that provide the basic functionalities.
+3. Decorator Class/Classes that takes/wraps the concrete class(as a construtor argument) and provides the addition functionalities. 
+   The Decorator class should implement the basic interface too(Why---It wil be easy to Use the basic Interface reference and call the operations)
+Decorators should not be inter dependable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DrawBacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.All methods in the decorated interface must be implemented in the decorator class.Can this drawback be solved by combining the command pattern. i.e the Decorators should implement command pattern. May be possible in specific case.
+Or may be create a abstract base class for all the Decorator classes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Only  good if there are many decorators</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1806,7 +2097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1853,9 +2144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1887,6 +2175,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2167,14 +2477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A3:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2183,115 +2493,115 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28" t="s">
-        <v>255</v>
+      <c r="A3" s="27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28" t="s">
-        <v>256</v>
+      <c r="A4" s="27" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28" t="s">
-        <v>219</v>
+      <c r="A5" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="28" t="s">
-        <v>218</v>
+      <c r="A6" s="27" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28" t="s">
-        <v>257</v>
+      <c r="A7" s="27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
-        <v>145</v>
+      <c r="A8" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="28" t="s">
-        <v>84</v>
+      <c r="A10" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="28" t="s">
-        <v>148</v>
+      <c r="A11" s="27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="28" t="s">
-        <v>258</v>
+      <c r="A12" s="27" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28" t="s">
-        <v>259</v>
+      <c r="A13" s="27" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
-        <v>260</v>
+      <c r="A14" s="27" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
-        <v>174</v>
+      <c r="A15" s="28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
-        <v>261</v>
+      <c r="A16" s="28" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
-        <v>262</v>
+      <c r="A17" s="28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="28" t="s">
-        <v>263</v>
+      <c r="A18" s="27" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" location="Topics!A1" display="Topics"/>
-    <hyperlink ref="A4" location="Question!A1" display="Question"/>
-    <hyperlink ref="A5" location="Puzzles!A1" display="Puzzle"/>
-    <hyperlink ref="A6" location="Collection!A1" display="Collection"/>
-    <hyperlink ref="A7" location="Concepts!A1" display="Concepts"/>
-    <hyperlink ref="A8" location="Searching!A1" display="Searching"/>
-    <hyperlink ref="A9" location="DS!A1" display="Data Structures"/>
-    <hyperlink ref="A10" location="Sorting!A1" display="Sorting!A1"/>
-    <hyperlink ref="A11" location="Complexity!A1" display="Complexity"/>
-    <hyperlink ref="A12" location="Definition!A1" display="Definition!A1"/>
-    <hyperlink ref="A13" location="Java!A1" display="Java"/>
-    <hyperlink ref="A14" location="'Software Architecture'!A1" display="Software Architecture Patterns"/>
-    <hyperlink ref="A15" location="'Design Pattern'!A1" display="'Design Pattern'!A1"/>
-    <hyperlink ref="A16" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1"/>
-    <hyperlink ref="A17" location="'Java Versions'!A1" display="'Java Versions'"/>
-    <hyperlink ref="A18" location="Thread!A1" display="Thread"/>
+    <hyperlink ref="A3" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" location="Concepts!A1" display="Concepts" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" location="DS!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" location="Thread!A1" display="Thread" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2299,196 +2609,201 @@
     <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="37.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
-      <c r="B2" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>102</v>
+      <c r="B2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>102</v>
-      </c>
+      <c r="F2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="24" t="s">
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="B5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="26">
+        <v>170</v>
+      </c>
+      <c r="C5" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
-        <v>86</v>
+      <c r="A7" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>191</v>
+        <v>178</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="26">
+        <v>171</v>
+      </c>
+      <c r="C10" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>188</v>
+        <v>171</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>188</v>
+        <v>171</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="26">
+        <v>169</v>
+      </c>
+      <c r="C14" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>188</v>
+        <v>170</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2498,109 +2813,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="144.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" style="33" customWidth="1"/>
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>211</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2610,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2673,15 +3043,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2691,12 +3061,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2706,25 +3074,28 @@
     <col min="4" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2734,194 +3105,222 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.53125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="17"/>
+    <col min="1" max="1" width="9.796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.06640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.59765625" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>193</v>
+    <row r="1" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="B17" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+      <c r="B18" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="B16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
+      <c r="C29" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="18" t="s">
-        <v>132</v>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="32" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2931,10 +3330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2946,51 +3347,51 @@
   <sheetData>
     <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3000,12 +3401,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3016,10 +3415,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -3027,7 +3426,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3035,7 +3434,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3043,7 +3442,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3051,23 +3450,23 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -3075,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -3083,7 +3482,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -3091,7 +3490,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -3099,7 +3498,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -3107,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -3122,7 +3521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,22 +3536,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3162,11 +3561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3179,98 +3578,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="10">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="10">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>196</v>
-      </c>
-    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>145</v>
+      <c r="B9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3278,10 +3671,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3289,94 +3682,108 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>83</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
       <c r="H18" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+        <v>133</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>182</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>206</v>
+      <c r="A24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F18:G20"/>
+    <mergeCell ref="F19:G21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3387,22 +3794,30 @@
     <col min="3" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>228</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{09120829-11D9-4BDC-859E-3D1F07DF5681}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3416,12 +3831,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3430,12 +3845,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3497,10 +3910,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+    <row r="6" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
@@ -3540,13 +3953,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
@@ -3580,7 +3993,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -3591,7 +4004,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -3601,31 +4014,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3635,12 +4048,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3650,7 +4061,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8"/>
+      <c r="A1"/>
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
@@ -3660,29 +4071,29 @@
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>234</v>
+        <v>212</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>233</v>
+        <v>215</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -3701,10 +4112,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -3712,15 +4123,15 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
-        <v>82</v>
+      <c r="A8" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
@@ -3728,18 +4139,18 @@
         <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
@@ -3747,10 +4158,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +4171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,17 +4186,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B18" s="17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +4206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3810,10 +4221,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -3821,22 +4232,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3845,10 +4256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3858,52 +4271,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>84</v>
+      <c r="A1" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Sorting" xr:uid="{3267D2FA-DC3A-41D3-A13F-612768D8DED2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D3D96-85B0-4A45-B897-C443489FD9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929843E-AC5B-49BD-9BD0-D1A82FC02E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="Puzzles" sheetId="19" r:id="rId4"/>
     <sheet name="Collection" sheetId="1" r:id="rId5"/>
     <sheet name="Concepts" sheetId="2" r:id="rId6"/>
-    <sheet name="Searching" sheetId="9" r:id="rId7"/>
-    <sheet name="Data Structures" sheetId="13" r:id="rId8"/>
+    <sheet name="Data Structures" sheetId="13" r:id="rId7"/>
+    <sheet name="Searching" sheetId="9" r:id="rId8"/>
     <sheet name="Sorting" sheetId="10" r:id="rId9"/>
     <sheet name="Complexity" sheetId="11" r:id="rId10"/>
     <sheet name="Definition" sheetId="6" r:id="rId11"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="321">
   <si>
     <t>Topic</t>
   </si>
@@ -713,12 +713,6 @@
     <t xml:space="preserve">Interpreter </t>
   </si>
   <si>
-    <t xml:space="preserve">Iterator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediator </t>
-  </si>
-  <si>
     <t xml:space="preserve">Momento </t>
   </si>
   <si>
@@ -791,9 +785,6 @@
     </r>
   </si>
   <si>
-    <t>Gives several types algorithms that can be used to perform particular operation or task</t>
-  </si>
-  <si>
     <t>HackerRank</t>
   </si>
   <si>
@@ -828,118 +819,10 @@
     <t>open-closed-principle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design Pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Command Pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This priniciple is more related to the controller class. 
-The class exhibits its extenable functionality by providing a defined protocol(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Interface/Composition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) instead of adding swithCase/if-else or inheriting/modifining .
-If any functionality (method) depends on only primary properties we can declare them in the interface.If a functionality depends on an external entity, always use composition rather than inheritance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Chrome browser. It can take any number of extension. The chrome app does not need any modificaton but can do more things by adding extensions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Design Pattern </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Factory Method and Abstract Factory
-This will make sure old implementation is not disturbed and also avoids wired bugs
-Lean/tends towards Interface</t>
-    </r>
-  </si>
-  <si>
     <t>Liskov Substitution Principle</t>
   </si>
   <si>
-    <t>Principle states that any method that takes class X as a parameter must be able to work with any subclasses of X.
-The principle makes sure that every class follows the contract defined by its parent class.</t>
-  </si>
-  <si>
-    <t>Dependency Inversion Principle</t>
-  </si>
-  <si>
     <t>Interface Segregation Principle</t>
-  </si>
-  <si>
-    <t>Clients should not be forced to depend upon the interfaces that they do not use.</t>
   </si>
   <si>
     <t>Program to an interface, not to an implementation.</t>
@@ -1013,9 +896,6 @@
     <t>Creates objects of several related classes without specifying the exact object to be created</t>
   </si>
   <si>
-    <t>Ensures that at most only one instance of an object exists throughout application</t>
-  </si>
-  <si>
     <t>Class Loader</t>
   </si>
   <si>
@@ -1056,11 +936,6 @@
   </si>
   <si>
     <t>How randomized pivot reduce the complexity</t>
-  </si>
-  <si>
-    <t>difference between each search
-one to one
-complexity</t>
   </si>
   <si>
     <t>Create generic implementaion of a DS</t>
@@ -1222,9 +1097,6 @@
 Root node is at level 0
 Max nodes at level i=2^i
 </t>
-  </si>
-  <si>
-    <t>If the input is reduced by half in every iteration then the complexity is logarathimic</t>
   </si>
   <si>
     <t>Why Strings are Immutable</t>
@@ -1690,9 +1562,6 @@
     <t>Bridge</t>
   </si>
   <si>
-    <t>Increases the memory footprint: If we inherit a class which has lot of members/variables just to override one method. Then it is overhead.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">FilteredServiceListCreator and its decorator
 Label,with scroller,arrow up &amp; down, pic label
@@ -1725,11 +1594,6 @@
   <si>
     <t xml:space="preserve">Abstract
 Factory </t>
-  </si>
-  <si>
-    <t>Maintainable &amp; Expandable
-Clean &amp; Readable
-https://stackoverflow.com/questions/350404/how-do-the-proxy-decorator-adapter-and-bridge-patterns-differ</t>
   </si>
   <si>
     <r>
@@ -1765,10 +1629,6 @@
     </r>
   </si>
   <si>
-    <t>Dependency
-Injection</t>
-  </si>
-  <si>
     <t>Class Diagram / UML</t>
   </si>
   <si>
@@ -1816,26 +1676,6 @@
   </si>
   <si>
     <t>Intended to provide a standard way to visualize the design of a system.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Design Pattern is a template that has to be implemented to handle a problem
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://dzone.com/refcardz/design-patterns</t>
-    </r>
-  </si>
-  <si>
-    <t>replace</t>
   </si>
   <si>
     <t>Null Object</t>
@@ -1943,6 +1783,400 @@
         <scheme val="minor"/>
       </rPr>
       <t>. Only  good if there are many decorators</t>
+    </r>
+  </si>
+  <si>
+    <t>Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
+Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
+--&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
+--&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
+--&gt;Is Handler/View/Resorse  ==== a bridge pattern?</t>
+  </si>
+  <si>
+    <t>The key difference between Bridge and Adapter patterns lies in their intents. Adapter focuses on resolving incompatibilities between two existing interfaces. It doesn't focus on how those interfaces are implemented, nor does it consider how they might evolve independently. It's a way of making two independently designed classes work together without reimplementing one or the other. Bridge, on the other hand, bridges an abstraction and its (potentially numerous) implementations. It provides a stable interface to clients even as it lets you vary the classes that implement it. It also accommodates new implementations as the system evolves.
+As a result of these differences, Adapter and Bridge are often used at different points in the software lifecycle. An adapter often becomes necessary when you discover that two incompatible classes should work together, generally to avoid replicating code. The coupling is unforeseen. In contrast, the user of a bridge understands up-front that an abstraction must have several implementations, and both may evolve independently. The Adapter pattern makes things work after they're designed; Bridge makes them work before they are.</t>
+  </si>
+  <si>
+    <t>Coupling</t>
+  </si>
+  <si>
+    <t>Cohesion</t>
+  </si>
+  <si>
+    <t>Ex: SpeedTestServiceProvider
+ --Using the subsystem of downloading.
+ --Invokes the Generic Action Controller to create a IPEvent,get the catalogueID, AssetInfo,Book the asset, start down.
+--Mantains the timer
+--Calculate the download speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintainable &amp; Expandable
+Clean &amp; Readable
+</t>
+  </si>
+  <si>
+    <t>Provide a unified interface to a set of interfaces in a subsystem. Facade defines a higher-level interface that makes the subsystem hide or easier to use.</t>
+  </si>
+  <si>
+    <t>hello
+https://stackoverflow.com/questions/350404/how-do-the-proxy-decorator-adapter-and-bridge-patterns-differ
+https://www.youtube.com/watch?v=lPsSL6_7NBg</t>
+  </si>
+  <si>
+    <t>Order of Complexity</t>
+  </si>
+  <si>
+    <t>log n</t>
+  </si>
+  <si>
+    <t>Sqrt n</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n log n</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>2^n</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>n^3</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Constant time means the running time is constant</t>
+  </si>
+  <si>
+    <t>Linear - When an algorithm accepts n input size, it would perform n operations as well.</t>
+  </si>
+  <si>
+    <t>Logarithmic -algorithm divides the problem into sub problems with the same size(half)</t>
+  </si>
+  <si>
+    <t>Linearithmic  - which divide the problem into sub problems recursively and then merge them in n time</t>
+  </si>
+  <si>
+    <t>In UML notation, a aggregation is denoted by an empty diamond
+class Company {
+	Employee emp ;
+	Company(Employee e){
+		emp=e;
+	}
+}</t>
+  </si>
+  <si>
+    <t>In UML notation, a composition is denoted by a filled diamond
+class Company {
+	Employee emp = new Employee();
+}</t>
+  </si>
+  <si>
+    <t>Relationship between two objects is referred as an association, and an association is known as composition when one object owns other while an association is known as aggregation when one object uses another object.
+Association is denoted by the simple arrow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Command Pattern.
+this does not imply that each class should have only one method but they should all relate directly to the responsibility of the class.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensures that at most only one instance of an object exists throughout application
+https://code.google.com/archive/p/google-singleton-detector/wikis/WhySingletonsAreControversial.wiki</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Principle states that any method that takes class X as a parameter must be able to work with any subclasses of X.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Derived classes must be substitutable for their base classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The principle makes sure that every class follows the contract defined by its parent class.
+Basically, all the concrete classes of a Inteface should have method defintion. Empty methods are not meaningful</t>
+    </r>
+  </si>
+  <si>
+    <t>Make fine grained interfaces that are client specific.
+Clients should not be forced to depend upon the interfaces that they do not use.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Links to read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+http://wiki.c2.com/?PrematureOptimization</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Simply speaking, a Proxy object is one through which we control access to the actual object on which the functionality lies. 
+</t>
+  </si>
+  <si>
+    <t>The access to an object should be controlled.
+Additional functionality should be provided when accessing an object.</t>
+  </si>
+  <si>
+    <t>…....
+Member Variables should be prviate only. These member should be accessed via member functions.</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle
+Inversion of Control</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You should be able to extend a classes behavior, without modifying it.
+Apply abstraction to those parts of the program that the designer feels are goin to be subject to change.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No matter how “closed” a module is, there will always be some kind of change against which it is NOT closed. So,the designer must choose the kinds of changes against which to close his design.
+This priniciple is more related to the controller class. 
+The class exhibits its extenable functionality by providing a defined protocol(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interface/Composition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) instead of adding swithCase/if-else or inheriting/modifining .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Chrome browser. It can take any number of extension. The chrome app does not need any modificaton but can do more things by adding extensions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Design Pattern </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Factory Method and Abstract Factory.
+Inheritance is just one of techniques used to fulfill OCP. Strategy pattern, decorator pattern, ordinary composition,Generics etc can be used.
+If any functionality (method) depends on only primary properties we can declare them in the interface.If a functionality depends on an external entity, always use composition rather than inheritance
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Mediator</t>
+  </si>
+  <si>
+    <t>Increases the memory footprint: If we inherit a class which has lot of members/variables just to override one method. Then it is overhead.
+Not able to inherit more than one class is not the only problem. We cannot borrow anything from the sibling classes.</t>
+  </si>
+  <si>
+    <t>Understand when each sorting is prefered, i.e input size, time, space, possiblility parallel computing</t>
+  </si>
+  <si>
+    <t>difference between each search type
+complexity</t>
+  </si>
+  <si>
+    <t>When to use a particular searching:input size,time,space,complexity</t>
+  </si>
+  <si>
+    <t>Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.</t>
+  </si>
+  <si>
+    <t>Does singleton breaks open/closed principle?
+Does Reflection break singleton?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Design Pattern is a template that has to be implemented to handle a problem
+2.Some pattern's may be very similar. When confused, focus on the intent of the pattern.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://dzone.com/refcardz/design-patterns</t>
+    </r>
+  </si>
+  <si>
+    <t>dependency
+Injection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unclear about the need of following separation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Runtime Strategy Selection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	1.Conditional Logic:using some token (i.e. a supplied string, integer, etc.) and generating the concrete strategy object that corresponds to the supplied token.
+	2.Reflection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Static Strategy Selection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	1.Reflection
+	2.Dependency Injection</t>
     </r>
   </si>
 </sst>
@@ -2097,7 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2169,12 +2403,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2196,7 +2424,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2484,7 +2725,7 @@
   <dimension ref="A3:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2494,32 +2735,32 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
@@ -2534,42 +2775,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2598,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2609,12 +2850,11 @@
     <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
-    <col min="9" max="9" width="37.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="69.9296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>98</v>
       </c>
@@ -2624,18 +2864,10 @@
       <c r="C1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F1" s="38"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
       <c r="B2" s="22" t="s">
         <v>101</v>
@@ -2643,156 +2875,195 @@
       <c r="C2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E2" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E5" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E6" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E8" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C9" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E9" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E10" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E11" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2800,10 +3071,10 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2814,163 +3085,185 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="144.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" style="31" customWidth="1"/>
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="32" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3043,15 +3336,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3076,26 +3369,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3106,224 +3399,256 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.06640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.59765625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.06640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.59765625" style="31" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="37"/>
-      <c r="B2" s="31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="32" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="C2" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="31" t="s">
+      <c r="E18" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+      <c r="B19" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="B20" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B22" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="B17" s="32" t="s">
+      <c r="C27" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="B18" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="32" t="s">
+      <c r="C30" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B28" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="32" t="s">
-        <v>287</v>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="30" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{D873FC51-F511-4055-8D1C-90D7D78EDBCA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -3331,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3345,53 +3670,58 @@
     <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3415,10 +3745,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -3426,7 +3756,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3434,7 +3764,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3442,7 +3772,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3450,23 +3780,23 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -3474,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -3482,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -3490,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -3498,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -3506,7 +3836,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -3536,22 +3866,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3909,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -3637,12 +3967,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -3652,7 +3982,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -3663,7 +3993,7 @@
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3671,10 +4001,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3682,7 +4012,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -3696,7 +4026,7 @@
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -3704,7 +4034,7 @@
         <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -3712,61 +4042,61 @@
         <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+        <v>130</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+        <v>134</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3795,16 +4125,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
-        <v>255</v>
+      <c r="A1" s="33" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3831,12 +4161,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +4283,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
@@ -3993,7 +4323,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -4004,7 +4334,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -4014,31 +4344,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4051,7 +4381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4071,29 +4401,29 @@
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -4123,10 +4453,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -4139,7 +4469,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
@@ -4147,10 +4477,10 @@
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
@@ -4158,10 +4488,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4171,46 +4501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.06640625" style="11"/>
-    <col min="2" max="2" width="25.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B18" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4221,10 +4516,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -4232,22 +4527,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4255,12 +4550,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="7"/>
+    <col min="2" max="2" width="25.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4271,7 +4609,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="7"/>
@@ -4298,7 +4636,7 @@
         <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -4314,6 +4652,11 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929843E-AC5B-49BD-9BD0-D1A82FC02E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF71C02-CA9D-43FF-8B1E-4FDD28F66F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="331">
   <si>
     <t>Topic</t>
   </si>
@@ -704,9 +704,6 @@
     <t>Binary</t>
   </si>
   <si>
-    <t>Chain of Responsibility</t>
-  </si>
-  <si>
     <t xml:space="preserve">Command </t>
   </si>
   <si>
@@ -823,9 +820,6 @@
   </si>
   <si>
     <t>Interface Segregation Principle</t>
-  </si>
-  <si>
-    <t>Program to an interface, not to an implementation.</t>
   </si>
   <si>
     <t>set</t>
@@ -888,12 +882,6 @@
   </si>
   <si>
     <t>Constructs complex objects using step-by-step approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creates families of related dependent objects</t>
-  </si>
-  <si>
-    <t>Creates objects of several related classes without specifying the exact object to be created</t>
   </si>
   <si>
     <t>Class Loader</t>
@@ -1002,10 +990,6 @@
   </si>
   <si>
     <t>Enum</t>
-  </si>
-  <si>
-    <t>open-closed-principle
-encapsulation ?</t>
   </si>
   <si>
     <t>ConcurentHashMap </t>
@@ -1786,13 +1770,6 @@
     </r>
   </si>
   <si>
-    <t>Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
-Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
---&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
---&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
---&gt;Is Handler/View/Resorse  ==== a bridge pattern?</t>
-  </si>
-  <si>
     <t>The key difference between Bridge and Adapter patterns lies in their intents. Adapter focuses on resolving incompatibilities between two existing interfaces. It doesn't focus on how those interfaces are implemented, nor does it consider how they might evolve independently. It's a way of making two independently designed classes work together without reimplementing one or the other. Bridge, on the other hand, bridges an abstraction and its (potentially numerous) implementations. It provides a stable interface to clients even as it lets you vary the classes that implement it. It also accommodates new implementations as the system evolves.
 As a result of these differences, Adapter and Bridge are often used at different points in the software lifecycle. An adapter often becomes necessary when you discover that two incompatible classes should work together, generally to avoid replicating code. The coupling is unforeseen. In contrast, the user of a bridge understands up-front that an abstraction must have several implementations, and both may evolve independently. The Adapter pattern makes things work after they're designed; Bridge makes them work before they are.</t>
   </si>
@@ -1908,10 +1885,6 @@
     </r>
   </si>
   <si>
-    <t>Ensures that at most only one instance of an object exists throughout application
-https://code.google.com/archive/p/google-singleton-detector/wikis/WhySingletonsAreControversial.wiki</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Principle states that any method that takes class X as a parameter must be able to work with any subclasses of X.
 </t>
@@ -1979,10 +1952,6 @@
   <si>
     <t>…....
 Member Variables should be prviate only. These member should be accessed via member functions.</t>
-  </si>
-  <si>
-    <t>Dependency Inversion Principle
-Inversion of Control</t>
   </si>
   <si>
     <r>
@@ -2098,13 +2067,6 @@
     <t>When to use a particular searching:input size,time,space,complexity</t>
   </si>
   <si>
-    <t>Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.</t>
-  </si>
-  <si>
-    <t>Does singleton breaks open/closed principle?
-Does Reflection break singleton?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.Design Pattern is a template that has to be implemented to handle a problem
 2.Some pattern's may be very similar. When confused, focus on the intent of the pattern.
@@ -2178,13 +2140,272 @@
 	1.Reflection
 	2.Dependency Injection</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Slight Modification to the origin pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+If the observer is created by passing the observable(concrete, so that we can access the methods/getters), we can avoid the notify method's arguments. Observer can fetch the details from the observable object passed during creation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Make sure to deRegsister.Memory loss</t>
+  </si>
+  <si>
+    <t>Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
+Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
+--&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
+--&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
+--&gt;View/Resource is a factory.
+      Is Handler/View/Resorse  ==== a bridge pattern?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 Total  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">More than one factory is available.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ex: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Best is View class and its resource adapters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When to use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+	--Might need a computation before initialization of object(Like in game, creating different types of enemies at random places and random type of enemy)
+	--Creating an object often requires complex processes not appropriate to include within a composing object.
+	--The object's creation may lead to a significant duplication of code, 
+	--may require information not accessible to the composing object, 
+	--may not provide a sufficient level of abstraction,
+	--may otherwise not be part of the composing object's concerns.</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple factory is otherwsie know as static factory.
+If the classes
+Only one factory is available</t>
+  </si>
+  <si>
+    <t>Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.
+https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle
+(Inversion of Control)</t>
+  </si>
+  <si>
+    <t>FrameWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks includes creating objects, destroying them, and invoking certain methods of the object at different stages of its lifecycle. </t>
+  </si>
+  <si>
+    <t>Helps a lot in Unit testing. We can inject mocked object.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Program to an interface, not to an implementation.
+DI/IoC is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>achieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Dependency Injection
+Real-life applications can have hundreds of dependencies scattered all across the codebase whose creation and management would need to be centralized.</t>
+    </r>
+  </si>
+  <si>
+    <t>READ MORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creates families of related dependent objects
+WHY or WHEN do we need this pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need for Singleton:
+1. you don’t want to create more than one heavy resource
+2. controlling access to a resource. To avoid an inconsistent state.like in DataBase/audioManager
+3. Singletons can be stateful or stateless. Stateful can provide services like maintaing a counter.Stateless can provide utility functions that need no more information than their parameters
+Multiple instance is possible because of multiple VM, multiple classLoader
+find these reason in --https://www.oracle.com/technical-resources/articles/java/singleton.html
+1.If you add database connections or use a JDBC driver that allows multithreading, the Singleton can be easily adjusted to allow more connections.
+Understand the Singleton scenarios when:
+1.Reflection -&gt;ENUM.
+JVM handles the creation and invocation of enum constructors internally. But
+Implementing singletons as enums is a clever technical trick, but its misusing the meaning of an enum, isn't it?
+The easiest way to think about this is: Are singletons enumerations?
+We can inhert, implement when using ENUM ?
+class Reflection					
+{
+  private static final Singleton instance = new Singleton();	
+	private Singleton() {
+		if (instance != null)
+			throw new IllegalStateException("Trying to create second instance of this class.No Reflection please");
+	}
+  public static Singleton getInstance() {
+    return instance;
+  }
+}
+With Reflection we can break private moidifier of any class so why worry about singleton !!!
+2.Cloning -&gt;override clone() method and throw an exception from clone method or return the same object.
+3.Serialization:Implement Readresolve(), this is invoked while deserialzation
+protected Object readResolve() {return instance;}
+The readResolve method is called when ObjectInputStream has read an object from the stream and is preparing to return it to the caller. ObjectInputStream checks whether the class of the object defines the readResolve method. If the method is defined, the readResolve method is called to allow the object in the stream to designate the object to be returned
+</t>
+  </si>
+  <si>
+    <t>Eager Initialization vs Lazy Initialization :
+if (instance == null) {
+            synchronized(Singleton.class) {				
+                if (instance == null) {
+                    instance = new Singleton();
+                }
+            }
+The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
+In lazy initialization, Singleton is created only when Object is created. In early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
+In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
+So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
+public class BillPughSingleton {
+    private BillPughSingleton(){}
+    private static class SingletonHelper{
+        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
+    }
+    public static BillPughSingleton getInstance(){
+        return SingletonHelper.INSTANCE;
+    }
+}</t>
+  </si>
+  <si>
+    <t>Static or
+Simple
+Factory</t>
+  </si>
+  <si>
+    <t>Chain of Responsi
+bility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2226,6 +2447,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2331,7 +2558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2424,12 +2651,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2438,6 +2659,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2735,32 +2968,32 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
@@ -2775,42 +3008,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +3097,7 @@
       <c r="C1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2876,9 +3109,9 @@
         <v>101</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="38"/>
+        <v>277</v>
+      </c>
+      <c r="F2" s="36"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2886,16 +3119,16 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>293</v>
+      <c r="E3" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2903,16 +3136,16 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>295</v>
+      <c r="E4" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2920,24 +3153,24 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="40"/>
+      <c r="E5" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="C6" s="25"/>
-      <c r="E6" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>294</v>
+      <c r="E6" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
@@ -2945,16 +3178,16 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>296</v>
+        <v>163</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -2962,63 +3195,63 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" s="40"/>
+      <c r="E8" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="40"/>
+      <c r="E9" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="F10" s="40"/>
+      <c r="E10" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="C11" s="25"/>
-      <c r="E11" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="40"/>
+      <c r="E11" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -3026,10 +3259,10 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -3037,7 +3270,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
@@ -3048,10 +3281,10 @@
         <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -3060,10 +3293,10 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -3071,10 +3304,10 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3085,11 +3318,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3135,7 +3366,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -3148,10 +3379,10 @@
     </row>
     <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3159,7 +3390,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -3172,7 +3403,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -3187,83 +3418,91 @@
     </row>
     <row r="17" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="30" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="30" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="30" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3516,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3336,15 +3575,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3369,26 +3608,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3399,34 +3638,37 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.06640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.265625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="66.59765625" style="31" customWidth="1"/>
     <col min="5" max="5" width="80.59765625" style="31" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>243</v>
+      <c r="A1" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="C2" s="31" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -3434,215 +3676,234 @@
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B5" s="30" t="s">
-        <v>110</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B6" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B7" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="29" t="s">
-        <v>112</v>
+      <c r="B10" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="29" t="s">
-        <v>115</v>
+      <c r="B11" s="30" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="29" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="30" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="B18" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="B19" s="30" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
       <c r="B20" s="30" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B22" s="30" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="29" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="30" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C26" s="34"/>
     </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B27" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B28" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B29" s="30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>154</v>
+        <v>326</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="30" t="s">
-        <v>319</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="30" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3658,13 +3919,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.06640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.06640625" style="1"/>
@@ -3672,56 +3933,62 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>324</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3745,10 +4012,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -3756,7 +4023,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3764,7 +4031,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3772,7 +4039,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -3780,23 +4047,23 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -3804,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -3812,7 +4079,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -3820,7 +4087,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -3828,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -3836,7 +4103,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -3866,22 +4133,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3909,7 +4176,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -3967,12 +4234,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -3982,7 +4249,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -3993,7 +4260,7 @@
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4001,10 +4268,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4012,7 +4279,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -4026,7 +4293,7 @@
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -4034,7 +4301,7 @@
         <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -4042,61 +4309,61 @@
         <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+        <v>129</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+        <v>133</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4126,15 +4393,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4161,12 +4428,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4550,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
@@ -4323,7 +4590,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -4334,7 +4601,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -4344,31 +4611,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4381,7 +4648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4401,29 +4670,29 @@
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>202</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -4453,10 +4722,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -4469,7 +4738,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
@@ -4477,10 +4746,10 @@
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
@@ -4488,10 +4757,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4516,10 +4785,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -4527,22 +4796,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4574,17 +4843,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4905,7 @@
         <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -4656,7 +4925,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF71C02-CA9D-43FF-8B1E-4FDD28F66F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C6342-91CC-4746-945C-E3CAF48CA6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
     <sheet name="Topics" sheetId="7" r:id="rId2"/>
-    <sheet name="Question" sheetId="14" r:id="rId3"/>
-    <sheet name="Puzzles" sheetId="19" r:id="rId4"/>
-    <sheet name="Collection" sheetId="1" r:id="rId5"/>
-    <sheet name="Concepts" sheetId="2" r:id="rId6"/>
-    <sheet name="Data Structures" sheetId="13" r:id="rId7"/>
-    <sheet name="Searching" sheetId="9" r:id="rId8"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId9"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId10"/>
-    <sheet name="Definition" sheetId="6" r:id="rId11"/>
-    <sheet name="Java" sheetId="8" r:id="rId12"/>
-    <sheet name="Software Architecture" sheetId="16" r:id="rId13"/>
-    <sheet name="Design Pattern" sheetId="3" r:id="rId14"/>
-    <sheet name="Design Priniciples" sheetId="5" r:id="rId15"/>
-    <sheet name="Java Versions" sheetId="17" r:id="rId16"/>
-    <sheet name="Thread" sheetId="12" r:id="rId17"/>
+    <sheet name="Git" sheetId="20" r:id="rId3"/>
+    <sheet name="Question" sheetId="14" r:id="rId4"/>
+    <sheet name="Puzzles" sheetId="19" r:id="rId5"/>
+    <sheet name="Collection" sheetId="1" r:id="rId6"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId7"/>
+    <sheet name="Data Structures" sheetId="13" r:id="rId8"/>
+    <sheet name="Searching" sheetId="9" r:id="rId9"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId10"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId11"/>
+    <sheet name="Definition" sheetId="6" r:id="rId12"/>
+    <sheet name="Java" sheetId="8" r:id="rId13"/>
+    <sheet name="Software Architecture" sheetId="16" r:id="rId14"/>
+    <sheet name="Design Pattern" sheetId="3" r:id="rId15"/>
+    <sheet name="Design Priniciples" sheetId="5" r:id="rId16"/>
+    <sheet name="Java Versions" sheetId="17" r:id="rId17"/>
+    <sheet name="Thread" sheetId="12" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="344">
   <si>
     <t>Topic</t>
   </si>
@@ -2399,6 +2400,89 @@
   <si>
     <t>Chain of Responsi
 bility</t>
+  </si>
+  <si>
+    <t>----&gt;&gt;What is the complexity of recursive left shift operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----&gt;&gt;prime number with root n complexity </t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
+ In logarithm graph time curve decelerates as n increases.
+Logarithm is essentially the inverse of exponentiation.
+Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
+ that is no less than some limit, this means that your algorithm is running in O(logN) time.
+O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.
+Then why not log(N/2)</t>
+  </si>
+  <si>
+    <t>1. Sort methodsd in collection
+2. add() addAll() 
+3. remove() removeALL() 
+4. Retain() clear()
+5. For loop in collection
+6. NavigationSet, NavigationMap</t>
+  </si>
+  <si>
+    <t>Iterator vs Iterable ; because iterable classes return Iterator object using the Iterator().</t>
+  </si>
+  <si>
+    <t>Collection col = new HashSet()	is better than	HashSet set = new Hashset() because we should code to the interface.
+But what if, i want to use the methods that are declared and defined in HashSet
+Answer : Type Cast works.</t>
+  </si>
+  <si>
+    <t>Branch
+***********
+$ git branch -d branch_name
+$ git branch -D branch_name
+$ git push origin --delete &lt;branch_name&gt;
+deletes the remote branch</t>
+  </si>
+  <si>
+    <t>First, you need to create your branch locally
+git checkout -b your_branch
+After that, you can work locally in your branch, when you are ready to share the branch, push it. 
+The next command pushes the branch to the remote repository origin and tracks it.
+git push -origin your_branch
+Your Teammates/colleagues can push to your branch by doing commits and then push explicitly
+... work ...
+git commit
+... work ...
+git commit
+git push origin HEAD:refs/heads/warRoom</t>
+  </si>
+  <si>
+    <t>If we push the changes to a &lt;branch&gt; using "-u" , then all your future pushes will be done to that &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Revisit
+https://git-scm.com/book/en/v2/Git-Basics-Working-with-Remotes
+	:Showing Your Remotes
+$ git remote
+origin
+To see which remote servers you have configured, you can run the git remote command.It lists the shortnames of each remote handle you’ve specified.
+If you’ve cloned your repository, you should at least see origin,that is the default name Git gives to the server you cloned from.
+$ git remote -v
+origin  https://github.com/JamesTharakan/cognitiveLearning.git (fetch)
+origin  https://github.com/JamesTharakan/cognitiveLearning.git (push)
+shows you the URLs that Git has stored for the shortname(origin) to be used when reading and writing to that remote</t>
+  </si>
+  <si>
+    <t>git reset HEAD &lt;filePath&gt;
+git log --branches --not --remotes=origin
+Shows all commits that are in any of local branches but not in any of remote-tracking branches for origin
+ (what you have that origin doesn’t).
+git checkout -b branchname origin/branchname
+Here, by default we are setting the upstream branch, so you will not be facing the mentioned issue.</t>
+  </si>
+  <si>
+    <t>GC
+continued</t>
+  </si>
+  <si>
+    <t>Automatic Garbage collection is a process of looking at the Heap memory, identifying(also known as “marking”) the unreachable objects, and destroying(Sweep) them with compaction. An issue with this approach is that, as the number of objects increases, the Garbage Collection time keeps on increasing, as it needs to go through the entire list of objects, looking for the unreachable object.Since most of the objects are short-lived the Heap space is divided into generations like Young Generation, Old or Tenured Generation, and Permanent Generation.</t>
   </si>
 </sst>
 </file>
@@ -2642,9 +2726,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2659,17 +2740,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2958,7 +3042,7 @@
   <dimension ref="A3:A18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3071,6 +3155,81 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Sorting" xr:uid="{3267D2FA-DC3A-41D3-A13F-612768D8DED2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -3097,7 +3256,7 @@
       <c r="C1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="36"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -3111,7 +3270,7 @@
       <c r="E2" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3124,10 +3283,10 @@
       <c r="C3" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3141,10 +3300,10 @@
       <c r="C4" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3158,18 +3317,18 @@
       <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="C6" s="25"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3183,10 +3342,10 @@
       <c r="C7" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3200,10 +3359,10 @@
       <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
@@ -3215,10 +3374,10 @@
       <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
@@ -3230,18 +3389,18 @@
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="C11" s="25"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -3316,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -3511,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -3592,7 +3751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3636,11 +3795,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -3655,7 +3814,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>238</v>
       </c>
       <c r="C1" s="31" t="s">
@@ -3672,13 +3831,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="35"/>
+      <c r="A3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>242</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -3756,7 +3915,7 @@
       <c r="A17" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>153</v>
       </c>
       <c r="D17" s="31" t="s">
@@ -3777,7 +3936,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B19" s="30" t="s">
         <v>244</v>
       </c>
@@ -3835,13 +3994,13 @@
       <c r="A26" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3915,7 +4074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3976,7 +4135,7 @@
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3987,7 +4146,7 @@
       <c r="B6" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3997,7 +4156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4117,7 +4276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4313,8 +4472,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
       <c r="H19" t="s">
         <v>185</v>
       </c>
@@ -4323,8 +4482,8 @@
       <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" t="s">
         <v>186</v>
       </c>
@@ -4333,8 +4492,8 @@
       <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -4379,29 +4538,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E12AB-E4A5-4E7D-8358-B6EFAAEDEE14}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="77.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="77.3984375" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B16:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="63.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="63.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4409,11 +4639,11 @@
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{09120829-11D9-4BDC-859E-3D1F07DF5681}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -4441,7 +4671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -4644,12 +4874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4763,13 +4993,21 @@
         <v>204</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4819,7 +5057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -4860,79 +5098,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Catalogue!A1" display="Sorting" xr:uid="{3267D2FA-DC3A-41D3-A13F-612768D8DED2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C6342-91CC-4746-945C-E3CAF48CA6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1394BE-A423-44AD-B97D-FF15D6C62667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -15,17 +15,18 @@
     <sheet name="Puzzles" sheetId="19" r:id="rId5"/>
     <sheet name="Collection" sheetId="1" r:id="rId6"/>
     <sheet name="Concepts" sheetId="2" r:id="rId7"/>
-    <sheet name="Data Structures" sheetId="13" r:id="rId8"/>
-    <sheet name="Searching" sheetId="9" r:id="rId9"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId10"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId11"/>
-    <sheet name="Definition" sheetId="6" r:id="rId12"/>
-    <sheet name="Java" sheetId="8" r:id="rId13"/>
-    <sheet name="Software Architecture" sheetId="16" r:id="rId14"/>
-    <sheet name="Design Pattern" sheetId="3" r:id="rId15"/>
-    <sheet name="Design Priniciples" sheetId="5" r:id="rId16"/>
-    <sheet name="Java Versions" sheetId="17" r:id="rId17"/>
-    <sheet name="Thread" sheetId="12" r:id="rId18"/>
+    <sheet name="GC" sheetId="21" r:id="rId8"/>
+    <sheet name="Data Structures" sheetId="13" r:id="rId9"/>
+    <sheet name="Searching" sheetId="9" r:id="rId10"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId11"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId12"/>
+    <sheet name="Definition" sheetId="6" r:id="rId13"/>
+    <sheet name="Java" sheetId="8" r:id="rId14"/>
+    <sheet name="Software Architecture" sheetId="16" r:id="rId15"/>
+    <sheet name="Design Pattern" sheetId="3" r:id="rId16"/>
+    <sheet name="Design Priniciples" sheetId="5" r:id="rId17"/>
+    <sheet name="Java Versions" sheetId="17" r:id="rId18"/>
+    <sheet name="Thread" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="364">
   <si>
     <t>Topic</t>
   </si>
@@ -63,12 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">Immutable  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe to use in cache.
-Thread Safe,state of object will remain same as nobody can change it. 
-******
-Immutable classes do promote object proliferation but mutable classes create many defency copies too. </t>
   </si>
   <si>
     <t>*Creates a arraylist of size 10 by default otherwise of the specified size.
@@ -362,9 +357,6 @@
   </si>
   <si>
     <t>Build Management ANT/Maven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Patterns </t>
   </si>
   <si>
     <r>
@@ -792,9 +784,6 @@
     <t>Threads</t>
   </si>
   <si>
-    <t>Design Principles</t>
-  </si>
-  <si>
     <t>Complexity</t>
   </si>
   <si>
@@ -805,16 +794,10 @@
 The distinction is necessary here as some languages support introspection, but do not support reflection. One such example is C++</t>
   </si>
   <si>
-    <t>The ability to inspect the code in the system and see object types is not reflection, but rather Type Introspection.</t>
-  </si>
-  <si>
     <t>Single responsibility</t>
   </si>
   <si>
     <t>Open-Closed Principle</t>
-  </si>
-  <si>
-    <t>open-closed-principle</t>
   </si>
   <si>
     <t>Liskov Substitution Principle</t>
@@ -880,9 +863,6 @@
   </si>
   <si>
     <t>Design Pattern</t>
-  </si>
-  <si>
-    <t>Constructs complex objects using step-by-step approach</t>
   </si>
   <si>
     <t>Class Loader</t>
@@ -1679,21 +1659,6 @@
 Decorator and Adapter wrap existing object, and that is typically provided in the constructor.</t>
   </si>
   <si>
-    <t>It provides an alternative for inhertance.
-i.e , you are trading "have to write pass-throughs for every method, not just the ones you're changing &amp; do 2 step object creation", for "have to write a subclass for each concrete class you want to change".
-The decorator pattern-- add behaviour dynamically at runtime. 
-Inheritance adds behaviour at compile time.
-Very Useful DP to extend the functionality of legacy class without disturbing
- the class.
-The complexity in decorating the objects can be reduced by other means .Like, using decorator-builder
-Single Responsibility Principle.
-Open-Closed Principle
-Dependency Inversion
-Ex:  FileReader, BufferedReader 
-https://dzone.com/articles/is-inheritance-dead
-https://dzone.com/articles/the-decorator-builder</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">There are 3 entites in Decorator pattern.
 1. The basic Interface.
@@ -1771,10 +1736,6 @@
     </r>
   </si>
   <si>
-    <t>The key difference between Bridge and Adapter patterns lies in their intents. Adapter focuses on resolving incompatibilities between two existing interfaces. It doesn't focus on how those interfaces are implemented, nor does it consider how they might evolve independently. It's a way of making two independently designed classes work together without reimplementing one or the other. Bridge, on the other hand, bridges an abstraction and its (potentially numerous) implementations. It provides a stable interface to clients even as it lets you vary the classes that implement it. It also accommodates new implementations as the system evolves.
-As a result of these differences, Adapter and Bridge are often used at different points in the software lifecycle. An adapter often becomes necessary when you discover that two incompatible classes should work together, generally to avoid replicating code. The coupling is unforeseen. In contrast, the user of a bridge understands up-front that an abstraction must have several implementations, and both may evolve independently. The Adapter pattern makes things work after they're designed; Bridge makes them work before they are.</t>
-  </si>
-  <si>
     <t>Coupling</t>
   </si>
   <si>
@@ -1788,11 +1749,6 @@
 --Calculate the download speed</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintainable &amp; Expandable
-Clean &amp; Readable
-</t>
-  </si>
-  <si>
     <t>Provide a unified interface to a set of interfaces in a subsystem. Facade defines a higher-level interface that makes the subsystem hide or easier to use.</t>
   </si>
   <si>
@@ -1835,9 +1791,6 @@
   </si>
   <si>
     <t>Linear - When an algorithm accepts n input size, it would perform n operations as well.</t>
-  </si>
-  <si>
-    <t>Logarithmic -algorithm divides the problem into sub problems with the same size(half)</t>
   </si>
   <si>
     <t>Linearithmic  - which divide the problem into sub problems recursively and then merge them in n time</t>
@@ -1858,10 +1811,6 @@
 }</t>
   </si>
   <si>
-    <t>Relationship between two objects is referred as an association, and an association is known as composition when one object owns other while an association is known as aggregation when one object uses another object.
-Association is denoted by the simple arrow</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2068,24 +2017,6 @@
     <t>When to use a particular searching:input size,time,space,complexity</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.Design Pattern is a template that has to be implemented to handle a problem
-2.Some pattern's may be very similar. When confused, focus on the intent of the pattern.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://dzone.com/refcardz/design-patterns</t>
-    </r>
-  </si>
-  <si>
     <t>dependency
 Injection</t>
   </si>
@@ -2170,42 +2101,229 @@
     <t>Make sure to deRegsister.Memory loss</t>
   </si>
   <si>
-    <t>Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle
+(Inversion of Control)</t>
+  </si>
+  <si>
+    <t>FrameWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks includes creating objects, destroying them, and invoking certain methods of the object at different stages of its lifecycle. </t>
+  </si>
+  <si>
+    <t>Helps a lot in Unit testing. We can inject mocked object.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Program to an interface, not to an implementation.
+DI/IoC is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>achieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Dependency Injection
+Real-life applications can have hundreds of dependencies scattered all across the codebase whose creation and management would need to be centralized.</t>
+    </r>
+  </si>
+  <si>
+    <t>READ MORE</t>
+  </si>
+  <si>
+    <t>Static or
+Simple
+Factory</t>
+  </si>
+  <si>
+    <t>Chain of Responsi
+bility</t>
+  </si>
+  <si>
+    <t>1. Sort methodsd in collection
+2. add() addAll() 
+3. remove() removeALL() 
+4. Retain() clear()
+5. For loop in collection
+6. NavigationSet, NavigationMap</t>
+  </si>
+  <si>
+    <t>Iterator vs Iterable ; because iterable classes return Iterator object using the Iterator().</t>
+  </si>
+  <si>
+    <t>Collection col = new HashSet()	is better than	HashSet set = new Hashset() because we should code to the interface.
+But what if, i want to use the methods that are declared and defined in HashSet
+Answer : Type Cast works.</t>
+  </si>
+  <si>
+    <t>Branch
+***********
+$ git branch -d branch_name
+$ git branch -D branch_name
+$ git push origin --delete &lt;branch_name&gt;
+deletes the remote branch</t>
+  </si>
+  <si>
+    <t>First, you need to create your branch locally
+git checkout -b your_branch
+After that, you can work locally in your branch, when you are ready to share the branch, push it. 
+The next command pushes the branch to the remote repository origin and tracks it.
+git push -origin your_branch
+Your Teammates/colleagues can push to your branch by doing commits and then push explicitly
+... work ...
+git commit
+... work ...
+git commit
+git push origin HEAD:refs/heads/warRoom</t>
+  </si>
+  <si>
+    <t>If we push the changes to a &lt;branch&gt; using "-u" , then all your future pushes will be done to that &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>Revisit
+https://git-scm.com/book/en/v2/Git-Basics-Working-with-Remotes
+	:Showing Your Remotes
+$ git remote
+origin
+To see which remote servers you have configured, you can run the git remote command.It lists the shortnames of each remote handle you’ve specified.
+If you’ve cloned your repository, you should at least see origin,that is the default name Git gives to the server you cloned from.
+$ git remote -v
+origin  https://github.com/JamesTharakan/cognitiveLearning.git (fetch)
+origin  https://github.com/JamesTharakan/cognitiveLearning.git (push)
+shows you the URLs that Git has stored for the shortname(origin) to be used when reading and writing to that remote</t>
+  </si>
+  <si>
+    <t>git reset HEAD &lt;filePath&gt;
+git log --branches --not --remotes=origin
+Shows all commits that are in any of local branches but not in any of remote-tracking branches for origin
+ (what you have that origin doesn’t).
+git checkout -b branchname origin/branchname
+Here, by default we are setting the upstream branch, so you will not be facing the mentioned issue.</t>
+  </si>
+  <si>
+    <t>Automatic Garbage collection is a process of looking at the Heap memory, identifying(also known as “marking”) the unreachable objects, and destroying(Sweep) them with compaction. An issue with this approach is that, as the number of objects increases, the Garbage Collection time keeps on increasing, as it needs to go through the entire list of objects, looking for the unreachable object.Since most of the objects are short-lived the Heap space is divided into generations like Young Generation, Old or Tenured Generation, and Permanent Generation.</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>What is the complexity of recursive left shift operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prime number with root n complexity </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why is null check bad ?  
+Cost of null check ismore ?
+Is there a difference between null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">someThing   and someThing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> null</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> In logarithm graph time curve decelerates as n increases.
+https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
+Logarithm is essentially the inverse of exponentiation.
+Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
+ that is no less than some limit, this means that your algorithm is running in O(logN) time.
+O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.
+Then why not log(N/2)</t>
+  </si>
+  <si>
+    <t>Logarithmic -algorithm divides the problem into sub problems with the same size(half).
+In programming context, the base of log is 2 (not 10), so O(log n) scales like 1 sec for 10 elements, 2 sec for 20, 3 for 40 etc</t>
+  </si>
+  <si>
+    <t>Simple factory is otherwsie know as static factory.
+Only one factory is available.
+That one factory is mostly class</t>
+  </si>
+  <si>
+    <t>With abstraction, we declare what operations can be done on a object but how it is done will not be known.
+One way of achieving abstraction is by using interfaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
 Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
+allows loose coupling between algorithm and platform
 --&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
 --&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
 --&gt;View/Resource is a factory.
-      Is Handler/View/Resorse  ==== a bridge pattern?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 Total  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">More than one factory is available.
+      Is Handler/View/Resorse  ==== a bridge pattern?
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bridge and Adaptor pattern holds a reference of an abstraction. That does mean both patterns are same. To understand the difference:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -2213,18 +2331,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
-</t>
+The key difference between Bridge and Adapter patterns lies in their intents. Adapter focuses on resolving incompatibilities between two existing interfaces. It doesn't focus on how those interfaces are implemented, nor does it consider how they might evolve independently. It's a way of making two independently designed classes work together without reimplementing one or the other. Bridge, on the other hand, bridges an abstraction and its (potentially numerous) implementations. It provides a stable interface to clients even as it lets you vary the classes that implement it. It also accommodates new implementations as the system evolves.
+As a result of these differences, Adapter and Bridge are often used at different points in the software lifecycle. An adapter often becomes necessary when you discover that two incompatible classes should work together, generally to avoid replicating code. The coupling is unforeseen. In contrast, the user of a bridge understands up-front that an abstraction must have several implementations, and both may evolve independently. The Adapter pattern makes things work after they're designed; Bridge makes them work before they are.</t>
     </r>
   </si>
   <si>
@@ -2247,7 +2355,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Best is View class and its resource adapters.
+      <t xml:space="preserve">Best is View class and its resource adapters of EPG.
+Cafe ,TataSky and Airtel
 </t>
     </r>
     <r>
@@ -2279,107 +2388,233 @@
     </r>
   </si>
   <si>
-    <t>Simple factory is otherwsie know as static factory.
-If the classes
-Only one factory is available</t>
+    <t>GenericActionController:
+	Chain of Responsibilty
+	Factory pattern
+	Observer Pattern
+	Facade Pattern</t>
   </si>
   <si>
     <t>Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.
-https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns</t>
-  </si>
-  <si>
-    <t>MVC</t>
-  </si>
-  <si>
-    <t>Dependency Inversion Principle
-(Inversion of Control)</t>
-  </si>
-  <si>
-    <t>FrameWork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks includes creating objects, destroying them, and invoking certain methods of the object at different stages of its lifecycle. </t>
-  </si>
-  <si>
-    <t>Helps a lot in Unit testing. We can inject mocked object.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Program to an interface, not to an implementation.
-DI/IoC is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>achieved</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by Dependency Injection
-Real-life applications can have hundreds of dependencies scattered all across the codebase whose creation and management would need to be centralized.</t>
-    </r>
-  </si>
-  <si>
-    <t>READ MORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creates families of related dependent objects
-WHY or WHEN do we need this pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need for Singleton:
-1. you don’t want to create more than one heavy resource
-2. controlling access to a resource. To avoid an inconsistent state.like in DataBase/audioManager
-3. Singletons can be stateful or stateless. Stateful can provide services like maintaing a counter.Stateless can provide utility functions that need no more information than their parameters
-Multiple instance is possible because of multiple VM, multiple classLoader
-find these reason in --https://www.oracle.com/technical-resources/articles/java/singleton.html
-1.If you add database connections or use a JDBC driver that allows multithreading, the Singleton can be easily adjusted to allow more connections.
-Understand the Singleton scenarios when:
-1.Reflection -&gt;ENUM.
-JVM handles the creation and invocation of enum constructors internally. But
-Implementing singletons as enums is a clever technical trick, but its misusing the meaning of an enum, isn't it?
-The easiest way to think about this is: Are singletons enumerations?
-We can inhert, implement when using ENUM ?
-class Reflection					
-{
-  private static final Singleton instance = new Singleton();	
-	private Singleton() {
-		if (instance != null)
-			throw new IllegalStateException("Trying to create second instance of this class.No Reflection please");
-	}
-  public static Singleton getInstance() {
-    return instance;
-  }
-}
-With Reflection we can break private moidifier of any class so why worry about singleton !!!
-2.Cloning -&gt;override clone() method and throw an exception from clone method or return the same object.
-3.Serialization:Implement Readresolve(), this is invoked while deserialzation
-protected Object readResolve() {return instance;}
-The readResolve method is called when ObjectInputStream has read an object from the stream and is preparing to return it to the caller. ObjectInputStream checks whether the class of the object defines the readResolve method. If the method is defined, the readResolve method is called to allow the object in the stream to designate the object to be returned
+https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns
+A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">More than one factory is available. Abstracted by an interface
 </t>
-  </si>
-  <si>
-    <t>Eager Initialization vs Lazy Initialization :
-if (instance == null) {
-            synchronized(Singleton.class) {				
-                if (instance == null) {
-                    instance = new Singleton();
-                }
-            }
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
+A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>voodoo . Magic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The ability to inspect the code in the system and see object types is not reflection, but rather Type Introspection.</t>
+    </r>
+  </si>
+  <si>
+    <t>Always try to be clear on the difference between Factory and AbstractFactory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand the design prinicple properly with would lead to these kind of soutions.
+Maintainable &amp; Expandable
+Clean &amp; Readable
+</t>
+  </si>
+  <si>
+    <t>Types of DP : 3 , Behavioral, Structural, Creational
+Number of DP : 11 + 7 + 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Design Pattern is a template that has to be implemented to handle a problem
+2.Some pattern's may be very similar. When confused,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first focus on the intent of the pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+By intent,Type of Design Pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Factory of Factories 
+The abstract factory pattern provides a way to encapsulate a group of individual factories
+Provide an interface for creating families of related or dependent objects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examples of AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:https://stackoverflow.com/questions/2280170/why-do-we-need-abstract-factory-design-pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>It provides an alternative for inhertance.
+i.e , you are trading "have to write pass-throughs for every method, not just the ones you're changing &amp; do 2 step object creation", for "have to write a subclass for each concrete class you want to change".
+The decorator pattern-- add behaviour dynamically at runtime. 
+Inheritance adds behaviour at compile time.
+Very Useful DP to extend the functionality of legacy class without disturbing
+ the class.
+The complexity in decorating the objects can be reduced by other means .Like, using decorator-builder?
+Single Responsibility Principle.
+Open-Closed Principle
+Dependency Inversion
+Ex:  FileReader, BufferedReader 
+https://dzone.com/articles/is-inheritance-dead
+https://dzone.com/articles/the-decorator-builder</t>
+  </si>
+  <si>
+    <t>When trying to solve a puzzle, check which design pattern can be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Amazon filters  </t>
+  </si>
+  <si>
+    <t>builder pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe to use in cache.
+Thread Safe,state of object will remain same as nobody can change it. 
+******
+Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
+  </si>
+  <si>
+    <t>JavaBean  and similarities with the Builder Design pattern</t>
+  </si>
+  <si>
+    <t>Amazon.com : filters could be impolement by Builder pattern
+Should the builder be a static inner class ?
+	better, Inner Class because Builder needs to have access to the private properties
+In my opinion try avoiding this pattern, look for all possible option to reduce the arguments.
+Like, Combine arguments and seperate it. Create a separete ContactDetails class instead of storing all details in the Employee class a memberVariables.
+Defining the Calling Protocol on the Builder Object
+http://www.codinghelmet.com/articles/advances-in-applying-the-builder-design-pattern</t>
+  </si>
+  <si>
+    <t>Constructs complex objects using step-by-step approach
+The builder pattern is a good choice when designing classes whose constructors or static factories would have more than a handful of parameters, especially if many of the parameters are optional or of identical type.
+Create a basic object with the required fields. Later, add-on the optional fields as necessary.
+We directly call the static inner class constructor and the chain .Finally we call build() of the static inner class which returns the actual object.
+Perform argument validy check as early as possible, may be when creating the actual object(build()) from the builder object and throw IllegalArgumentException if any state issues. which is also needed in regular constructors.
+Buiding the object with builder pattern is better than using setters of the class. If setters are used we cannot make sure that the all the required variables are set. Since build method is mandatory we are sure that checks are done.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eager Initialization vs Lazy Initialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
 The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
-In lazy initialization, Singleton is created only when Object is created. In early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
+In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
 In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
 So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
 public class BillPughSingleton {
@@ -2391,105 +2626,298 @@
         return SingletonHelper.INSTANCE;
     }
 }</t>
-  </si>
-  <si>
-    <t>Static or
-Simple
-Factory</t>
-  </si>
-  <si>
-    <t>Chain of Responsi
-bility</t>
-  </si>
-  <si>
-    <t>----&gt;&gt;What is the complexity of recursive left shift operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">----&gt;&gt;prime number with root n complexity </t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
- In logarithm graph time curve decelerates as n increases.
-Logarithm is essentially the inverse of exponentiation.
-Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
- that is no less than some limit, this means that your algorithm is running in O(logN) time.
-O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.
-Then why not log(N/2)</t>
-  </si>
-  <si>
-    <t>1. Sort methodsd in collection
-2. add() addAll() 
-3. remove() removeALL() 
-4. Retain() clear()
-5. For loop in collection
-6. NavigationSet, NavigationMap</t>
-  </si>
-  <si>
-    <t>Iterator vs Iterable ; because iterable classes return Iterator object using the Iterator().</t>
-  </si>
-  <si>
-    <t>Collection col = new HashSet()	is better than	HashSet set = new Hashset() because we should code to the interface.
-But what if, i want to use the methods that are declared and defined in HashSet
-Answer : Type Cast works.</t>
-  </si>
-  <si>
-    <t>Branch
-***********
-$ git branch -d branch_name
-$ git branch -D branch_name
-$ git push origin --delete &lt;branch_name&gt;
-deletes the remote branch</t>
-  </si>
-  <si>
-    <t>First, you need to create your branch locally
-git checkout -b your_branch
-After that, you can work locally in your branch, when you are ready to share the branch, push it. 
-The next command pushes the branch to the remote repository origin and tracks it.
-git push -origin your_branch
-Your Teammates/colleagues can push to your branch by doing commits and then push explicitly
-... work ...
-git commit
-... work ...
-git commit
-git push origin HEAD:refs/heads/warRoom</t>
-  </si>
-  <si>
-    <t>If we push the changes to a &lt;branch&gt; using "-u" , then all your future pushes will be done to that &lt;branch&gt;</t>
-  </si>
-  <si>
-    <t>Revisit
-https://git-scm.com/book/en/v2/Git-Basics-Working-with-Remotes
-	:Showing Your Remotes
-$ git remote
-origin
-To see which remote servers you have configured, you can run the git remote command.It lists the shortnames of each remote handle you’ve specified.
-If you’ve cloned your repository, you should at least see origin,that is the default name Git gives to the server you cloned from.
-$ git remote -v
-origin  https://github.com/JamesTharakan/cognitiveLearning.git (fetch)
-origin  https://github.com/JamesTharakan/cognitiveLearning.git (push)
-shows you the URLs that Git has stored for the shortname(origin) to be used when reading and writing to that remote</t>
-  </si>
-  <si>
-    <t>git reset HEAD &lt;filePath&gt;
-git log --branches --not --remotes=origin
-Shows all commits that are in any of local branches but not in any of remote-tracking branches for origin
- (what you have that origin doesn’t).
-git checkout -b branchname origin/branchname
-Here, by default we are setting the upstream branch, so you will not be facing the mentioned issue.</t>
-  </si>
-  <si>
-    <t>GC
-continued</t>
-  </si>
-  <si>
-    <t>Automatic Garbage collection is a process of looking at the Heap memory, identifying(also known as “marking”) the unreachable objects, and destroying(Sweep) them with compaction. An issue with this approach is that, as the number of objects increases, the Garbage Collection time keeps on increasing, as it needs to go through the entire list of objects, looking for the unreachable object.Since most of the objects are short-lived the Heap space is divided into generations like Young Generation, Old or Tenured Generation, and Permanent Generation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need for Singleton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. you don’t want to create more than one heavy resource
+2. controlling access to a resource. To avoid an inconsistent state.like in DataBase/audioManager
+3. Singletons can be stateful or stateless. Stateful can provide services like maintaing a counter.Stateless can provide utility functions that need no more information than their parameters
+Multiple instance is possible because of multiple VM, multiple classLoader
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volatile case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find these reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in --https://www.oracle.com/technical-resources/articles/java/singleton.html
+1.If you add database connections or use a JDBC driver that allows multithreading, the Singleton can be easily adjusted to allow more connections.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Understand the Singleton scenarios when:
+1.Reflection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;ENUM.
+JVM handles the creation and invocation of enum constructors internally. But
+Implementing singletons as enums is a clever technical trick, but its misusing the meaning of an enum, isn't it?
+The easiest way to think about this is: Are singletons enumerations?
+We can inhert, implement when using ENUM ?
+class Reflection{
+//we can throw exception because ,it is immpossible that the static final instance is null after class loading.
+  private static final Singleton instance = new Singleton();	
+	private Singleton() {
+		if (instance != null)
+			throw new IllegalStateException("Trying to create second instance of this class.No Reflection please");
+	}
+  public static Singleton getInstance() {
+    return instance;
+  }
+}
+With Reflection we can break private moidifier of any class so why worry about singleton !!!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Cloning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt;override clone() method and throw an exception from clone method or return the same object.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.Serialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Implement Readresolve(), this is invoked while deserialzation
+protected Object readResolve() {return instance;}
+The readResolve method is called when ObjectInputStream has read an object from the stream and is preparing to return it to the caller. ObjectInputStream checks whether the class of the object defines the readResolve method. If the method is defined, the readResolve method is called to allow the object in the stream to designate the object to be returned.</t>
+    </r>
+  </si>
+  <si>
+    <t>How to navigate trees which have more than 2 child</t>
+  </si>
+  <si>
+    <t>Lamda and method reference</t>
+  </si>
+  <si>
+    <t>undo / redo</t>
+  </si>
+  <si>
+    <t>Relationship between two objects is referred as an association.
+- an association is known as composition when one object owns other 
+- an association is known as aggregation when one object uses another object.
+Association is denoted by the simple arrow</t>
+  </si>
+  <si>
+    <t>When asked about a designing a application , they are checking :
+1.Decomposing larger problems into smaller ones;
+2.Creating a structured hierarchy, or graph, or parts, defining components;
+3.Analyzing functional requirements per component;
+4.Mapping components and inter-component relationship to objects and services;</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Command Pattern intends to encapsulate in an object all the data required for performing a given action (command), including what method to call, the method's arguments, and the object to which the method belongs.
+The pattern encapsulates everything required to take an action and allows the execution of the action to occur completely independently of any of that context. If that is not a requirement for you then the pattern is probably not helpful for your problem space
+They can have parameterised constructor but is it possible to know the parameters at the time of command creation ?
+Returning the result : 
+The command or the receiver can return the result in 2 ways. 
+1. Either by observer pattern 
+2. the invoker object passing a Result object as a argument to the method call so that command or Receiver object loading the result.
+Even though it is possible to pass arguments and return value from command, it is not recommanded because they are supposed to work independently.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Members</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Invoker,command,receiver
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UseCases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In some cases, the invoker also stores and queues commands, besides executing them. This is useful for implementing some additional features, undo/redo functionality.
+Are the commands supposed to do some preProcessing/PostProcessing before/after invoking the Receiver? If not, why is the invoker calling the command.Cant it directly call receiver. Yes, pre and post work may be someting like dataBase open and close
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undo/Redo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+Use 2 stacks, undo and redo stack. If you undo an action, it pops from the undo stack and pushes onto the redo stack. Adding a new action is pushing a new one onto the undo stack and clearing the redo stack
+https://stackoverflow.com/questions/1154935/command-pattern-returning-status
+...................understan: Command pattern using generic parameters</t>
+    </r>
+  </si>
+  <si>
+    <t>Chain of Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbstractFactory </t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Factory Method</t>
+  </si>
+  <si>
+    <t>Static or SimpleFactory</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Momento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2537,6 +2965,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2642,7 +3085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2735,10 +3178,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2746,7 +3185,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3039,10 +3478,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A3:A18"/>
+  <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3050,104 +3489,113 @@
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27" t="s">
-        <v>222</v>
-      </c>
+      <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="27" t="s">
-        <v>226</v>
+      <c r="A14" s="28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="28" t="s">
-        <v>228</v>
+      <c r="A17" s="27" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
-        <v>229</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A5" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A6" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A7" location="Concepts!A1" display="Concepts" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A8" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A9" location="DS!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A10" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A11" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A12" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A13" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A14" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A15" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A16" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A17" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A18" location="Thread!A1" display="Thread" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A19" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" location="Concepts!A1" display="Concepts" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" location="DS!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" location="Thread!A1" display="Thread" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" location="GC!A1" display="GC!A1" xr:uid="{56A21D68-E81A-4057-A4F4-160754E9D190}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3155,6 +3603,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="7"/>
+    <col min="2" max="2" width="25.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3171,53 +3662,53 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3229,12 +3720,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3248,13 +3739,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="7"/>
@@ -3262,174 +3753,126 @@
     <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
       <c r="B2" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="35"/>
+        <v>99</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>287</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="C6" s="25"/>
-      <c r="E6" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="C11" s="25"/>
-      <c r="E11" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
@@ -3437,37 +3880,103 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>160</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E18" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E19" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E20" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E21" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E22" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E23" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E24" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E25" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E26" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3475,11 +3984,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3488,194 +3999,205 @@
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="30" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30" t="s">
         <v>73</v>
       </c>
+      <c r="B12" s="31" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>293</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="30" t="s">
-        <v>178</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="30" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>264</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="30" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="30" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="30" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="30" t="s">
-        <v>271</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>322</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{BEF077DC-74F0-4996-8BCA-AE4E82D604E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3687,62 +4209,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3751,11 +4273,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3767,26 +4291,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3795,13 +4319,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3813,72 +4335,87 @@
     <col min="6" max="16384" width="9.06640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>238</v>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>232</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="C2" s="31" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
+      <c r="B3" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B7" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="270.75" x14ac:dyDescent="0.45">
       <c r="B8" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3888,181 +4425,187 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="29" t="s">
-        <v>111</v>
+      <c r="B12" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="29" t="s">
-        <v>116</v>
+      <c r="B14" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="B18" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B19" s="30" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B22" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="29" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B28" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B29" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B30" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="B31" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>151</v>
+        <v>346</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="30" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="30" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4074,12 +4617,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4092,62 +4635,62 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>325</v>
+        <v>285</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>323</v>
+        <v>306</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4156,11 +4699,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4171,10 +4716,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -4182,7 +4727,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4190,7 +4735,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -4198,7 +4743,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4206,23 +4751,23 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -4230,7 +4775,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -4238,7 +4783,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -4246,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -4254,7 +4799,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -4262,7 +4807,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -4276,13 +4821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4292,22 +4835,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4318,216 +4861,372 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="10"/>
-    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.06640625" style="10"/>
+    <col min="5" max="5" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E13" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>362</v>
+      </c>
+      <c r="I16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D21" s="10">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="10">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="10">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E29" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E33" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E34" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E35" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E36" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="G19:H21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
@@ -4552,23 +5251,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="31" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4578,65 +5277,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B16:B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="63.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.06640625" style="31"/>
+    <col min="2" max="2" width="90.73046875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="65.06640625" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>336</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="39"/>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B13" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="31" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{09120829-11D9-4BDC-859E-3D1F07DF5681}"/>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{2BF336BC-3936-4ADF-A7EB-0EA7F3407F64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4645,28 +5359,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{C124FFE1-DAE0-4413-9127-3DD8FA730249}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4675,7 +5413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4693,48 +5431,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
@@ -4744,13 +5482,13 @@
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -4758,29 +5496,29 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
@@ -4790,26 +5528,26 @@
     </row>
     <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
@@ -4817,55 +5555,55 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4876,10 +5614,127 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{1CC2B143-FF70-4DCC-B3CA-66DD66AE5A39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04F02-2454-4675-B01F-32A13AF6C1ED}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4890,129 +5745,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1"/>
+      <c r="A1" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>343</v>
+    </row>
+    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{D60D1030-691F-43B6-84B5-A20194186FEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5023,79 +5795,38 @@
   <sheetData>
     <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.06640625" style="7"/>
-    <col min="2" max="2" width="25.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D18" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D20" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1394BE-A423-44AD-B97D-FF15D6C62667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CEAA8-5079-413A-B087-272196DAAEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -36,18 +36,42 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{911C226A-FEFF-4C95-A06B-9B06CB248F88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="364">
-  <si>
-    <t>Topic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="365">
   <si>
     <t>Pros vs Cons</t>
   </si>
@@ -2912,12 +2936,47 @@
   <si>
     <t>Momento</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. The Template is similar to Abstract class
+Java has the concept of Abstract class but other languages might does not have.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. Tax computing website, they ask if we have any investment,HRA...And then calculate
+2. WebPage template</t>
+    </r>
+  </si>
+  <si>
+    <t>Members: Abstract class and it concrete class !!
+The Template Method Pattern defines the skeleton of an algorithm in a method, deferring some steps to subclasses. Template Method lets subclasses redefine certain steps of an algorithm without changing the algorithm’s structure.
+The template method is declared final to prevent subclasses from reworking the sequence of steps in the algorithm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2983,6 +3042,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3085,7 +3151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3094,9 +3160,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3187,6 +3250,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3478,124 +3553,126 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:A19"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+      <c r="H5" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D7" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D8" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
-        <v>215</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A19" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A2" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" location="Concepts!A1" display="Concepts" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" location="DS!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" location="Thread!A1" display="Thread" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" location="GC!A1" display="GC!A1" xr:uid="{56A21D68-E81A-4057-A4F4-160754E9D190}"/>
+    <hyperlink ref="A2" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C5" location="DS!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H7" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H5" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B4" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B3" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D9" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D8" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B2" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F6" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
+    <hyperlink ref="F7" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
+    <hyperlink ref="F5" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3604,15 +3681,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="7"/>
+    <col min="1" max="1" width="9.06640625" style="6"/>
     <col min="2" max="2" width="25.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" style="1"/>
     <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
@@ -3620,26 +3695,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D18" s="1" t="s">
+      <c r="A1" s="40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D20" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{0F907D06-A1B5-4F16-AAD0-FD84039E6BDF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -3649,66 +3732,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.53125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
+      <c r="C5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3722,263 +3803,269 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.9296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.9296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15"/>
+      <c r="C3" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16"/>
-      <c r="B2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="D3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D18" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="F18" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F19" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="F20" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E18" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="G20" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="E19" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E20" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E21" s="31" t="s">
+    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F23" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E22" s="31" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F24" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E23" s="31" t="s">
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F25" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F26" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E24" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E25" s="31" t="s">
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F27" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E26" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="F26" s="31"/>
+      <c r="G27" s="30"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{EB9015F6-0201-40AC-B1C6-2E57BFE01D0C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -3988,199 +4075,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="144.6640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" style="30" customWidth="1"/>
     <col min="3" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
-        <v>232</v>
+      <c r="A1" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>50</v>
+      <c r="A2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>52</v>
+      <c r="A3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="31" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
+      <c r="B7" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="30" t="s">
+      <c r="B8" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="31" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
+      <c r="B13" s="30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="30" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A18" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>352</v>
+      <c r="A18" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>281</v>
+      <c r="B20" s="30" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="30" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="30" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>257</v>
-      </c>
-    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="29" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4194,80 +4279,87 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="145.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="146.73046875" style="1"/>
+    <col min="1" max="1" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="145.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="146.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>146</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{F25989A7-B1B4-49CF-A89B-B856E4FE7D7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4275,45 +4367,54 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.06640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.19921875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="21.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.06640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.19921875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>228</v>
+      <c r="D4" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{6560341F-FF2F-464A-B4C5-E97E6B196F81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4323,289 +4424,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.265625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="66.59765625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="80.59765625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="17"/>
+    <col min="1" max="1" width="9.796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.265625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="66.59765625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="80.59765625" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="16"/>
+      <c r="C2" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="B7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="B20" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B22" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="C2" s="31" t="s">
+      <c r="C22" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B27" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B28" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B29" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="34"/>
-      <c r="B3" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B5" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.45">
-      <c r="B6" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="B7" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="D29" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B31" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="B8" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="B18" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="B20" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B22" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B27" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B28" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="B29" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="30" t="s">
-        <v>259</v>
+      <c r="A39" s="29" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A40" s="30" t="s">
-        <v>297</v>
+      <c r="A40" s="29" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4621,9 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4634,66 +4741,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>231</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>307</v>
+        <v>284</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="38" t="s">
         <v>305</v>
       </c>
+      <c r="C6" s="37" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{437DF9FF-6ADB-4E0F-9FD6-7CC51A32D6E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4701,121 +4814,126 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.3984375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="19.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.3984375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{84CEA4F6-A09E-49A0-AFD3-C0B88ABBED20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4823,37 +4941,45 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="78.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="78.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>195</v>
+    <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{1D871D9B-B38F-4FE9-9226-E6F0F82103DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4863,121 +4989,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="10"/>
+    <col min="3" max="4" width="9.06640625" style="9"/>
     <col min="5" max="5" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>232</v>
+      <c r="A1" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="10">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E13" s="11" t="s">
-        <v>357</v>
+      <c r="E13" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E14" s="11" t="s">
-        <v>113</v>
+      <c r="E14" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4985,16 +5109,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -5002,226 +5126,237 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>108</v>
+        <v>50</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="I18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+        <v>126</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="10">
-        <v>18</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="10">
+        <v>163</v>
+      </c>
+      <c r="C23" s="9">
         <v>11</v>
       </c>
-      <c r="D23" s="10">
-        <v>3</v>
+      <c r="D23" s="42">
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="10">
+        <v>166</v>
+      </c>
+      <c r="C24" s="9">
         <v>7</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+      <c r="D25" s="42">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C25" s="10">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10">
-        <v>4</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="C26" s="3">
         <v>23</v>
       </c>
       <c r="D26" s="3">
+        <f>SUM(D23:D25)</f>
+        <v>18</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D30" s="9">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D31" s="3">
+        <f>SUM(D28:D30)</f>
         <v>12</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E29" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E31" t="s">
-        <v>235</v>
-      </c>
-    </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F33" t="s">
         <v>361</v>
       </c>
-      <c r="F33" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E34" s="11" t="s">
-        <v>360</v>
+      <c r="E34" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="F34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E35" s="11" t="s">
-        <v>358</v>
+      <c r="E35" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="F35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E36" s="11" t="s">
-        <v>120</v>
+      <c r="E36" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="F36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E37" s="11" t="s">
-        <v>118</v>
+      <c r="E37" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5237,41 +5372,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E12AB-E4A5-4E7D-8358-B6EFAAEDEE14}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E12AB-E4A5-4E7D-8358-B6EFAAEDEE14}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="77.3984375" style="31"/>
+    <col min="1" max="1" width="11.46484375" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="77.3984375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="31" t="s">
-        <v>315</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{3A7EC299-B995-4160-9DB3-3AC4D957A3F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5279,73 +5422,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="31"/>
-    <col min="2" max="2" width="90.73046875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="65.06640625" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="31"/>
+    <col min="1" max="1" width="9.06640625" style="30"/>
+    <col min="2" max="2" width="90.73046875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="65.06640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>323</v>
+      <c r="B3" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="30" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="31" t="s">
+    <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B12" s="30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B13" s="30" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B13" s="31" t="s">
-        <v>322</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="31" t="s">
-        <v>344</v>
+      <c r="B15" s="30" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5361,9 +5502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5373,32 +5512,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>232</v>
+      <c r="A1" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
         <v>341</v>
-      </c>
-      <c r="B7" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5413,200 +5552,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{CB0663F5-4CEA-4788-BEEA-4932B0943E5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -5620,104 +5762,104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
     <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>124</v>
+      <c r="A10" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5733,42 +5875,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04F02-2454-4675-B01F-32A13AF6C1ED}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
     <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>49</v>
+      <c r="A2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5781,52 +5921,58 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.265625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>184</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{705C6216-1152-4403-910E-DE8A29C82E28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,30 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CEAA8-5079-413A-B087-272196DAAEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C394C7-63E3-4442-B577-48DD5F7B2F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
     <sheet name="Topics" sheetId="7" r:id="rId2"/>
-    <sheet name="Git" sheetId="20" r:id="rId3"/>
-    <sheet name="Question" sheetId="14" r:id="rId4"/>
-    <sheet name="Puzzles" sheetId="19" r:id="rId5"/>
-    <sheet name="Collection" sheetId="1" r:id="rId6"/>
-    <sheet name="Concepts" sheetId="2" r:id="rId7"/>
-    <sheet name="GC" sheetId="21" r:id="rId8"/>
-    <sheet name="Data Structures" sheetId="13" r:id="rId9"/>
-    <sheet name="Searching" sheetId="9" r:id="rId10"/>
-    <sheet name="Sorting" sheetId="10" r:id="rId11"/>
-    <sheet name="Complexity" sheetId="11" r:id="rId12"/>
-    <sheet name="Definition" sheetId="6" r:id="rId13"/>
-    <sheet name="Java" sheetId="8" r:id="rId14"/>
-    <sheet name="Software Architecture" sheetId="16" r:id="rId15"/>
-    <sheet name="Design Pattern" sheetId="3" r:id="rId16"/>
-    <sheet name="Design Priniciples" sheetId="5" r:id="rId17"/>
-    <sheet name="Java Versions" sheetId="17" r:id="rId18"/>
-    <sheet name="Thread" sheetId="12" r:id="rId19"/>
+    <sheet name="CoolConcepts" sheetId="22" r:id="rId3"/>
+    <sheet name="Git" sheetId="20" r:id="rId4"/>
+    <sheet name="Question" sheetId="14" r:id="rId5"/>
+    <sheet name="Puzzles" sheetId="19" r:id="rId6"/>
+    <sheet name="Collection" sheetId="1" r:id="rId7"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId8"/>
+    <sheet name="GC" sheetId="21" r:id="rId9"/>
+    <sheet name="Data Structures" sheetId="13" r:id="rId10"/>
+    <sheet name="Searching" sheetId="9" r:id="rId11"/>
+    <sheet name="Sorting" sheetId="10" r:id="rId12"/>
+    <sheet name="Complexity" sheetId="11" r:id="rId13"/>
+    <sheet name="Definition" sheetId="6" r:id="rId14"/>
+    <sheet name="Java" sheetId="8" r:id="rId15"/>
+    <sheet name="Software Architecture" sheetId="16" r:id="rId16"/>
+    <sheet name="Design Pattern" sheetId="3" r:id="rId17"/>
+    <sheet name="Design Priniciples" sheetId="5" r:id="rId18"/>
+    <sheet name="Java Versions" sheetId="17" r:id="rId19"/>
+    <sheet name="Thread" sheetId="12" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="373">
   <si>
     <t>Pros vs Cons</t>
   </si>
@@ -115,9 +116,6 @@
   </si>
   <si>
     <t>Iterator</t>
-  </si>
-  <si>
-    <t>It has only one method Iterator(), which return an Iterator.Which will have the definition of hasNext(), next(), remove()</t>
   </si>
   <si>
     <t xml:space="preserve">*Internally uses Array.
@@ -153,38 +151,7 @@
     <t>NavigableMap</t>
   </si>
   <si>
-    <t>It has 3 methods.hasNext(), next(), remove().
-By default remove() throws UnsupportedOperationException.</t>
-  </si>
-  <si>
     <t>*Has more methods for locating the entries of map.</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thess object gets support for for:each loop syntax.(Cross check the use of for loop in map)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-*Map interface does not implement Iterable</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2138,9 +2105,6 @@
     <t xml:space="preserve">Tasks includes creating objects, destroying them, and invoking certain methods of the object at different stages of its lifecycle. </t>
   </si>
   <si>
-    <t>Helps a lot in Unit testing. We can inject mocked object.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Program to an interface, not to an implementation.
 DI/IoC is </t>
@@ -2583,12 +2547,6 @@
   </si>
   <si>
     <t>When trying to solve a puzzle, check which design pattern can be used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Amazon filters  </t>
-  </si>
-  <si>
-    <t>builder pattern</t>
   </si>
   <si>
     <t xml:space="preserve">Safe to use in cache.
@@ -2931,14 +2889,19 @@
     <t>Static or SimpleFactory</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Momento</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. The Template is similar to Abstract class
+    <t>Helps a lot in Unit testing. We can inject mocked object.
+https://martinfowler.com/articles/injection.html</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. 
+The UML of Template is similar to Abstract class
 Java has the concept of Abstract class but other languages might does not have.
 </t>
     </r>
@@ -2967,9 +2930,91 @@
     </r>
   </si>
   <si>
-    <t>Members: Abstract class and it concrete class !!
+    <r>
+      <t xml:space="preserve">Members: Abstract class and it concrete class !!
 The Template Method Pattern defines the skeleton of an algorithm in a method, deferring some steps to subclasses. Template Method lets subclasses redefine certain steps of an algorithm without changing the algorithm’s structure.
-The template method is declared final to prevent subclasses from reworking the sequence of steps in the algorithm</t>
+The template method is declared </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to prevent subclasses Changing the sequence of steps in the algorithm.Hence the flow/control on the algorithm is stronger in Template than in Strategy</t>
+    </r>
+  </si>
+  <si>
+    <t>Map is not Iterable and it is not a collection.</t>
+  </si>
+  <si>
+    <t>Create a Iterator  to iterate custom objects</t>
+  </si>
+  <si>
+    <t>Build Amazon filters  ,builder pattern</t>
+  </si>
+  <si>
+    <t>Branch Prediction</t>
+  </si>
+  <si>
+    <t>Cool Cocepts</t>
+  </si>
+  <si>
+    <t>forEachRemaining()</t>
+  </si>
+  <si>
+    <t>Processing a sorted array id faster than unSorted.
+https://stackoverflow.com/questions/11227809/why-is-processing-a-sorted-array-faster-than-processing-an-unsorted-array/11227902#11227902</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>people.stream().filter(person -&gt; person.getBirthYear() == 1980).forEach(person -&gt; System.out.println(person.getName() + " was born in 1980"));
+people.stream().filter(person -&gt; person.getBirthYear() == 1980).filter(person -&gt; "New York".equals(person.getAddress().getCity())).collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iterating on Maps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
+    </r>
+  </si>
+  <si>
+    <t>An interface which tells that the collection is iterable. And to Iterate that collection we can get the Iterator using the methods Iterator().
+The forEach() provides each way to iterate.
+It provides a commom inteface .</t>
+  </si>
+  <si>
+    <t>Map interface does not implement Iterable</t>
+  </si>
+  <si>
+    <t>It has 3 methods.hasNext(), next(), remove().
+By default remove() throws UnsupportedOperationException.
+We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
   </si>
 </sst>
 </file>
@@ -3556,7 +3601,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3564,76 +3609,81 @@
     <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C6" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -3673,6 +3723,7 @@
     <hyperlink ref="F6" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
     <hyperlink ref="F7" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
     <hyperlink ref="F5" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
+    <hyperlink ref="E5" location="CoolConcepts!A1" display="Cool Cocepts" xr:uid="{6E8DB0B6-BC9A-4EAE-AEE6-032454075114}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3680,10 +3731,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{705C6216-1152-4403-910E-DE8A29C82E28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3696,27 +3805,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3728,11 +3837,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3743,53 +3854,53 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3801,7 +3912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3818,18 +3929,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="6"/>
@@ -3837,41 +3948,41 @@
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15"/>
       <c r="C3" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
@@ -3883,21 +3994,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -3905,10 +4016,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
@@ -3916,10 +4027,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -3931,32 +4042,32 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -3964,101 +4075,101 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="F20" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F23" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G27" s="30"/>
     </row>
@@ -4071,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -4086,186 +4197,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>252</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>253</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4277,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -4293,67 +4404,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4384,31 +4495,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4420,12 +4531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4440,80 +4551,80 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
       <c r="C2" s="30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="33"/>
       <c r="B3" s="28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="270.75" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4521,200 +4632,200 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="B18" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B19" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B22" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B28" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B29" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B30" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="B31" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4726,11 +4837,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4742,65 +4855,65 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C6" s="37" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4812,7 +4925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4828,13 +4941,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -4842,7 +4955,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -4850,7 +4963,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4858,7 +4971,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -4866,23 +4979,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -4890,7 +5003,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -4898,7 +5011,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -4906,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -4914,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -4922,7 +5035,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -4939,7 +5052,406 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.06640625" style="9"/>
+    <col min="5" max="5" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E13" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>357</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="9">
+        <v>11</v>
+      </c>
+      <c r="D23" s="42">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7</v>
+      </c>
+      <c r="D24" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+      <c r="D25" s="42">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM(D23:D25)</f>
+        <v>18</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="9">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D30" s="9">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D31" s="3">
+        <f>SUM(D28:D30)</f>
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E33" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E34" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E35" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G19:H21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4953,27 +5465,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4985,393 +5497,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J38"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F66607-039A-465D-B909-F4EE79BA7A6F}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="9"/>
-    <col min="5" max="5" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.53125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E13" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="I13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E14" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" t="s">
-        <v>361</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>361</v>
-      </c>
-      <c r="I16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="9">
-        <v>11</v>
-      </c>
-      <c r="D23" s="42">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="9">
-        <v>7</v>
-      </c>
-      <c r="D24" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="9">
-        <v>5</v>
-      </c>
-      <c r="D25" s="42">
-        <v>4</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3">
-        <f>SUM(D23:D25)</f>
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D29" s="9">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D30" s="9">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="3">
-        <f>SUM(D28:D30)</f>
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E33" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E34" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F34" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E35" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E37" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E38" t="s">
-        <v>358</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G19:H21"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
+    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{4F10E69F-5AAD-4251-AEC1-AF394E2D26F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E12AB-E4A5-4E7D-8358-B6EFAAEDEE14}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5385,28 +5549,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5418,7 +5582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5434,59 +5598,59 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B9" s="30" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B12" s="30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B13" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5498,9 +5662,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5513,7 +5677,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5521,23 +5685,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" t="s">
-        <v>341</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5548,11 +5714,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5564,7 +5732,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5573,176 +5741,191 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="39"/>
+      <c r="B2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>138</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5769,7 +5952,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -5780,29 +5963,29 @@
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5810,7 +5993,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -5818,13 +6001,13 @@
     </row>
     <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5832,34 +6015,34 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5871,7 +6054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04F02-2454-4675-B01F-32A13AF6C1ED}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5886,7 +6069,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -5897,18 +6080,18 @@
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5917,62 +6100,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" s="16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{705C6216-1152-4403-910E-DE8A29C82E28}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C394C7-63E3-4442-B577-48DD5F7B2F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A197EAE-2979-47B1-AF4A-22BFE97D5E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="375">
   <si>
     <t>Pros vs Cons</t>
   </si>
@@ -3015,6 +3015,21 @@
     <t>It has 3 methods.hasNext(), next(), remove().
 By default remove() throws UnsupportedOperationException.
 We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
+  </si>
+  <si>
+    <t>Iterator Pattern provides a way to access the elements(seguentially ?) of an aggregate object without exposing the underlying structure.
+with Iterator pattern, we should be able to Iterator in any aggregation of Objects. Ex: List Employee objects
+What is the need of Iterable intertace,Why cant we directly get the iterator? 
+Imagine Iterable inteface is not there. so to get the iterator of (say) Employee::getEmployeeIterator(), Student::getStudentlterator(), getTeacherlterator(). So Iterable provides a unified API. 
+Use factory pattern to return one of many different types of Iterators based on some condition.</t>
+  </si>
+  <si>
+    <t>Use factory pattern to return one of many different types of Iterators based on some condition.
+Iterators can be implemented in 2 ways:
+1.Works on the original copy of the collection. This could case runtime exception(CurrentModification) when the someone modifies the collection while Iterating.
+2. Works on a copy of collection to avoid the above problem.But may have stale data.
+3. Or work on original collection and listen to the modification of the collection and update accordingly 
+javapapers.com/design-patterns/iterator-design-pattern/</t>
   </si>
 </sst>
 </file>
@@ -3601,7 +3616,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3841,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4535,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4627,9 +4642,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="171" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="114" x14ac:dyDescent="0.45">

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A197EAE-2979-47B1-AF4A-22BFE97D5E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A3DA58-FDCC-4F2B-8C01-A0C7EC95F33E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Java Versions" sheetId="17" r:id="rId19"/>
     <sheet name="Thread" sheetId="12" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -72,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="378">
   <si>
     <t>Pros vs Cons</t>
   </si>
@@ -3030,6 +3027,33 @@
 2. Works on a copy of collection to avoid the above problem.But may have stale data.
 3. Or work on original collection and listen to the modification of the collection and update accordingly 
 javapapers.com/design-patterns/iterator-design-pattern/</t>
+  </si>
+  <si>
+    <t>wqeqw</t>
+  </si>
+  <si>
+    <t>Code an example of State Pattern:
+Game. Make the character to walk,talk,run,fight. Pass command and change the state. Change state A-&gt; B, A-&gt;A</t>
+  </si>
+  <si>
+    <r>
+      <t>The State Pattern allows an object to alter its behavior when its internal state changes.
+Instead of seetting the next state by the current state object. Its better for each state to use a factory or some other means to set the next state.
+Ex: to set the nextstate : getProcessingState() 
+Stratergy and state have similar UML.
+State Machine is different from state design pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -3619,17 +3643,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>211</v>
       </c>
@@ -3637,7 +3661,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>212</v>
       </c>
@@ -3645,7 +3669,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>176</v>
       </c>
@@ -3653,7 +3677,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="C5" s="26" t="s">
         <v>37</v>
@@ -3668,7 +3692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
         <v>175</v>
       </c>
@@ -3679,7 +3703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="27" t="s">
         <v>141</v>
       </c>
@@ -3690,33 +3714,33 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="D9" s="26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
   </sheetData>
@@ -3751,18 +3775,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>181</v>
       </c>
@@ -3770,27 +3794,27 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>180</v>
       </c>
@@ -3809,36 +3833,36 @@
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="6"/>
-    <col min="2" max="2" width="25.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>292</v>
       </c>
@@ -3860,21 +3884,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>78</v>
       </c>
@@ -3885,12 +3909,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
@@ -3898,22 +3922,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>290</v>
       </c>
@@ -3933,21 +3957,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.9296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
@@ -3960,7 +3984,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="21" t="s">
         <v>95</v>
@@ -3970,7 +3994,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>80</v>
       </c>
@@ -3981,7 +4005,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>81</v>
       </c>
@@ -3992,7 +4016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>82</v>
       </c>
@@ -4003,11 +4027,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>79</v>
       </c>
@@ -4018,7 +4042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>83</v>
       </c>
@@ -4029,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>84</v>
       </c>
@@ -4040,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>85</v>
       </c>
@@ -4051,11 +4075,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -4066,7 +4090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -4077,7 +4101,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>87</v>
       </c>
@@ -4088,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -4100,7 +4124,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>90</v>
       </c>
@@ -4111,7 +4135,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -4126,7 +4150,7 @@
       </c>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F19" s="30" t="s">
         <v>273</v>
       </c>
@@ -4134,7 +4158,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="F20" s="30" t="s">
         <v>265</v>
       </c>
@@ -4142,13 +4166,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F21" s="30" t="s">
         <v>266</v>
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F22" s="30" t="s">
         <v>267</v>
       </c>
@@ -4156,7 +4180,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F23" s="30" t="s">
         <v>268</v>
       </c>
@@ -4164,25 +4188,25 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F24" s="30" t="s">
         <v>269</v>
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F25" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F26" s="30" t="s">
         <v>270</v>
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F27" s="30" t="s">
         <v>271</v>
       </c>
@@ -4203,19 +4227,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="144.6640625" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>35</v>
       </c>
@@ -4223,7 +4247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>14</v>
       </c>
@@ -4231,7 +4255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>62</v>
       </c>
@@ -4239,7 +4263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>61</v>
       </c>
@@ -4247,7 +4271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>64</v>
       </c>
@@ -4255,7 +4279,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>65</v>
       </c>
@@ -4263,7 +4287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>196</v>
       </c>
@@ -4271,7 +4295,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>67</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>68</v>
       </c>
@@ -4295,17 +4319,17 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>246</v>
       </c>
@@ -4313,7 +4337,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>244</v>
       </c>
@@ -4321,7 +4345,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>245</v>
       </c>
@@ -4329,22 +4353,22 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>248</v>
       </c>
@@ -4352,7 +4376,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>144</v>
       </c>
@@ -4360,7 +4384,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>249</v>
       </c>
@@ -4368,7 +4392,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>250</v>
       </c>
@@ -4376,17 +4400,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>299</v>
       </c>
@@ -4409,20 +4433,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="146.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="145.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="146.73046875" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="145.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="146.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>49</v>
       </c>
@@ -4430,7 +4454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
@@ -4438,7 +4462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>54</v>
       </c>
@@ -4446,12 +4470,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
@@ -4459,17 +4483,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>117</v>
       </c>
@@ -4477,7 +4501,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>142</v>
       </c>
@@ -4499,21 +4523,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="21.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.06640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.19921875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>197</v>
       </c>
@@ -4521,12 +4545,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>199</v>
       </c>
@@ -4548,23 +4572,23 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.265625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="66.59765625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="80.59765625" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="16"/>
+    <col min="1" max="1" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>228</v>
       </c>
@@ -4572,7 +4596,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="C2" s="30" t="s">
         <v>332</v>
@@ -4581,7 +4605,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="28" t="s">
         <v>347</v>
@@ -4590,7 +4614,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>243</v>
       </c>
@@ -4601,7 +4625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>304</v>
       </c>
@@ -4609,7 +4633,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>109</v>
       </c>
@@ -4620,7 +4644,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>107</v>
       </c>
@@ -4631,7 +4655,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>104</v>
       </c>
@@ -4642,7 +4666,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="171" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
@@ -4652,8 +4676,11 @@
       <c r="D9" s="30" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="G9" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>110</v>
       </c>
@@ -4664,22 +4691,28 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C11" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>106</v>
       </c>
@@ -4687,12 +4720,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>241</v>
       </c>
@@ -4703,7 +4736,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>112</v>
       </c>
@@ -4717,7 +4750,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>234</v>
       </c>
@@ -4728,7 +4761,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>236</v>
       </c>
@@ -4739,7 +4772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>235</v>
       </c>
@@ -4750,7 +4783,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>229</v>
       </c>
@@ -4761,23 +4794,23 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>242</v>
       </c>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>303</v>
       </c>
@@ -4785,7 +4818,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>113</v>
       </c>
@@ -4796,7 +4829,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>238</v>
       </c>
@@ -4807,7 +4840,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>116</v>
       </c>
@@ -4818,7 +4851,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>114</v>
       </c>
@@ -4829,22 +4862,22 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>293</v>
       </c>
@@ -4862,19 +4895,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.46484375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>228</v>
       </c>
@@ -4882,7 +4913,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -4893,7 +4924,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -4904,7 +4935,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -4915,7 +4946,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -4926,7 +4957,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>298</v>
       </c>
@@ -4952,15 +4983,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="19.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.3984375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>228</v>
       </c>
@@ -4971,7 +5002,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -4979,7 +5010,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1.2</v>
       </c>
@@ -4987,7 +5018,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1.3</v>
       </c>
@@ -4995,7 +5026,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1.4</v>
       </c>
@@ -5003,7 +5034,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>221</v>
       </c>
@@ -5011,7 +5042,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>220</v>
       </c>
@@ -5019,7 +5050,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -5027,7 +5058,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -5035,7 +5066,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -5043,7 +5074,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -5051,7 +5082,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -5059,7 +5090,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -5081,22 +5112,22 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="9"/>
-    <col min="5" max="5" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5104,7 +5135,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -5112,7 +5143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -5120,7 +5151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -5128,12 +5159,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5144,27 +5175,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -5172,7 +5203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="10" t="s">
         <v>350</v>
       </c>
@@ -5183,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="10" t="s">
         <v>109</v>
       </c>
@@ -5197,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -5214,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -5228,7 +5259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -5239,7 +5270,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5253,7 +5284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19" s="10" t="s">
         <v>108</v>
       </c>
@@ -5263,7 +5294,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -5276,7 +5307,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5286,7 +5317,7 @@
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -5294,7 +5325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -5308,7 +5339,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -5319,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>165</v>
       </c>
@@ -5336,7 +5367,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>166</v>
       </c>
@@ -5354,7 +5385,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>167</v>
       </c>
@@ -5365,7 +5396,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>343</v>
       </c>
@@ -5379,7 +5410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="9">
         <v>5</v>
       </c>
@@ -5390,7 +5421,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="9">
         <v>4</v>
       </c>
@@ -5398,7 +5429,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D28:D30)</f>
         <v>14</v>
@@ -5407,7 +5438,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E33" s="10" t="s">
         <v>354</v>
       </c>
@@ -5415,7 +5446,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E34" s="10" t="s">
         <v>353</v>
       </c>
@@ -5423,7 +5454,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" s="10" t="s">
         <v>351</v>
       </c>
@@ -5431,7 +5462,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E36" s="10" t="s">
         <v>116</v>
       </c>
@@ -5439,7 +5470,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E37" s="10" t="s">
         <v>114</v>
       </c>
@@ -5447,12 +5478,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>367</v>
       </c>
@@ -5478,33 +5509,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="78.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>191</v>
       </c>
@@ -5526,20 +5557,20 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.53125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>363</v>
       </c>
@@ -5562,18 +5593,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="77.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="77.3984375" style="30"/>
+    <col min="1" max="1" width="11.42578125" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="77.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>308</v>
       </c>
@@ -5581,7 +5612,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>309</v>
       </c>
@@ -5589,7 +5620,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>310</v>
       </c>
@@ -5609,21 +5640,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="30"/>
-    <col min="2" max="2" width="90.73046875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="65.06640625" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="30"/>
+    <col min="1" max="1" width="9" style="30"/>
+    <col min="2" max="2" width="90.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="65" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>228</v>
       </c>
       <c r="B1" s="38"/>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>183</v>
       </c>
@@ -5631,7 +5662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>318</v>
       </c>
@@ -5639,37 +5670,37 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>337</v>
       </c>
@@ -5689,22 +5720,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -5712,17 +5743,17 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>361</v>
       </c>
@@ -5743,15 +5774,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>228</v>
       </c>
@@ -5762,14 +5793,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -5777,7 +5808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -5788,7 +5819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -5799,7 +5830,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -5810,12 +5841,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5826,7 +5857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -5837,7 +5868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5848,7 +5879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -5856,12 +5887,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -5872,7 +5903,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -5880,7 +5911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -5888,7 +5919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="375" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -5899,7 +5930,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -5910,17 +5941,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>133</v>
       </c>
@@ -5928,7 +5959,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>137</v>
       </c>
@@ -5936,7 +5967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
@@ -5944,7 +5975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>365</v>
       </c>
@@ -5964,14 +5995,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="74.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
@@ -5982,7 +6013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>186</v>
       </c>
@@ -5993,7 +6024,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>185</v>
       </c>
@@ -6001,7 +6032,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>188</v>
       </c>
@@ -6009,7 +6040,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -6020,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -6031,7 +6062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -6042,12 +6073,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -6058,7 +6089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>120</v>
       </c>
@@ -6081,14 +6112,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="74.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>228</v>
       </c>
@@ -6099,7 +6130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
@@ -6110,7 +6141,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>313</v>
       </c>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A3DA58-FDCC-4F2B-8C01-A0C7EC95F33E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303E45D-77DA-4C3E-906C-CDDF66B3BA3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,14 +69,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="372">
   <si>
     <t>Pros vs Cons</t>
-  </si>
-  <si>
-    <t>Class and instance variable should be final.
-Constructors should perform deep copy.
-No setters, Getters should return a depy copy of instance variable.</t>
   </si>
   <si>
     <t>ArrayList</t>
@@ -736,9 +731,6 @@
     <t>Pass by value or reference</t>
   </si>
   <si>
-    <t>A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time. Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read in from main memory, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -980,42 +972,6 @@
   </si>
   <si>
     <t>Multi-Threading</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Volatile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> variables are always read/written from/to the main memory.
-More time consuming becuase cache memory cant be used.
-If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
-Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>DataStructure</t>
-  </si>
-  <si>
-    <t>Priniciple</t>
-  </si>
-  <si>
-    <t>Concept</t>
   </si>
   <si>
     <t>Collection</t>
@@ -1337,9 +1293,6 @@
   </si>
   <si>
     <t>Java Versions</t>
-  </si>
-  <si>
-    <t>Thread</t>
   </si>
   <si>
     <t>6
@@ -2871,29 +2824,8 @@
     </r>
   </si>
   <si>
-    <t>Chain of Responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractFactory </t>
-  </si>
-  <si>
-    <t>Prototype</t>
-  </si>
-  <si>
-    <t>Factory Method</t>
-  </si>
-  <si>
-    <t>Static or SimpleFactory</t>
-  </si>
-  <si>
-    <t>Momento</t>
-  </si>
-  <si>
     <t>Helps a lot in Unit testing. We can inject mocked object.
 https://martinfowler.com/articles/injection.html</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <r>
@@ -2965,9 +2897,6 @@
   </si>
   <si>
     <t>Branch Prediction</t>
-  </si>
-  <si>
-    <t>Cool Cocepts</t>
   </si>
   <si>
     <t>forEachRemaining()</t>
@@ -3054,6 +2983,170 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>Class and instance variable should be final.
+Constructors should perform deep copy.
+No setters, Getters should return a depy copy of instance variable.
+Primitives,String,Integer etc are immutable</t>
+  </si>
+  <si>
+    <t>Cool Concepts</t>
+  </si>
+  <si>
+    <t>Thread in General</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
+More time consuming becuase cache memory cant be used.
+If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multitasking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ability to execute more than one task at the same time is known as multitasking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multithreading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: We already discussed about it. It is a process of executing multiple threads simultaneously. Multithreading is also known as Thread-based Multitasking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved. On the other hand one CPU is involved in multitasking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It refers to the utilization of multiple CPUs in a single computer system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time.
+Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in from main memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
+    </r>
+  </si>
+  <si>
+    <t>stack/heap/Ram/CPU Cache/CPU registers</t>
+  </si>
+  <si>
+    <t>Stream class and APIs</t>
+  </si>
+  <si>
+    <t>Git</t>
   </si>
 </sst>
 </file>
@@ -3235,7 +3328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3343,15 +3436,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3637,98 +3721,105 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>209</v>
+      </c>
       <c r="D7" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="D9" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3748,21 +3839,22 @@
     <hyperlink ref="A2" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C6" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C5" location="DS!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H7" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H5" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B4" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B3" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D9" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C8" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C5" location="'Data Structures'!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I7" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I2" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B6" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A7" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D12" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="D7" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D8" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B2" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F6" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
+    <hyperlink ref="D10" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A6" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G9" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
     <hyperlink ref="F7" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
-    <hyperlink ref="F5" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
+    <hyperlink ref="E6" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
     <hyperlink ref="E5" location="CoolConcepts!A1" display="Cool Cocepts" xr:uid="{6E8DB0B6-BC9A-4EAE-AEE6-032454075114}"/>
+    <hyperlink ref="D4" location="Git!A1" display="Git" xr:uid="{91DF4B62-E29B-4D4A-B7B7-520401E69F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3783,40 +3875,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3844,27 +3936,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3880,9 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3893,53 +3983,53 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3968,18 +4058,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="6"/>
@@ -3987,41 +4077,41 @@
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
@@ -4033,21 +4123,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -4055,10 +4145,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
@@ -4066,10 +4156,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -4081,32 +4171,32 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -4114,101 +4204,101 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F19" s="30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="F20" s="30" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F21" s="30" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F22" s="30" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F23" s="30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F24" s="30" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F25" s="30" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F26" s="30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F27" s="30" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G27" s="30"/>
     </row>
@@ -4236,186 +4326,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4443,67 +4533,67 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4534,31 +4624,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4574,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,296 +4680,296 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="C2" s="30" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="28" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +4985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4907,65 +4999,65 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4993,13 +5085,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5007,7 +5099,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5015,7 +5107,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5023,7 +5115,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5031,23 +5123,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5055,7 +5147,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5063,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5071,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5079,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -5087,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5106,395 +5198,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="9"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E18" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="I13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>357</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>357</v>
-      </c>
-      <c r="I16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="9">
-        <v>11</v>
-      </c>
-      <c r="D23" s="42">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="9">
-        <v>7</v>
-      </c>
-      <c r="D24" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="9">
-        <v>5</v>
-      </c>
-      <c r="D25" s="42">
-        <v>4</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3">
-        <f>SUM(D23:D25)</f>
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D28" s="9">
-        <v>5</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="9">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="9">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="3">
-        <f>SUM(D28:D30)</f>
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F33" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="10" t="s">
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="F34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>368</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G19:H21"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
   </hyperlinks>
@@ -5512,32 +5374,35 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="78.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="3" max="3" width="77.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5567,15 +5432,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5601,28 +5466,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5650,59 +5515,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5729,7 +5594,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5737,25 +5602,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5770,9 +5635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5784,61 +5647,61 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5848,43 +5711,43 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5894,90 +5757,90 @@
     </row>
     <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="375" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5993,7 +5856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6004,97 +5869,97 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6121,29 +5986,29 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303E45D-77DA-4C3E-906C-CDDF66B3BA3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FE8098-E68A-47B5-B333-C7E435C9101E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="378">
   <si>
     <t>Pros vs Cons</t>
   </si>
@@ -2101,9 +2101,6 @@
 4. Retain() clear()
 5. For loop in collection
 6. NavigationSet, NavigationMap</t>
-  </si>
-  <si>
-    <t>Iterator vs Iterable ; because iterable classes return Iterator object using the Iterator().</t>
   </si>
   <si>
     <t>Collection col = new HashSet()	is better than	HashSet set = new Hashset() because we should code to the interface.
@@ -3147,6 +3144,32 @@
   </si>
   <si>
     <t>Git</t>
+  </si>
+  <si>
+    <t>Boot Strap</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Interface with method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memory areas allocated by JVM:Classloader, Class area, Heap, Stack, Program Counter Register and Native Method Stack</t>
+  </si>
+  <si>
+    <t>Why Type Casting is bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In logarithm graph time curve decelerates as n increases.
+https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
+Logarithm is essentially the inverse of exponentiation.
+Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
+ that is no less than some limit, this means that your algorithm is running in O(logN) time.
+O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3746,8 @@
   </sheetPr>
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3780,7 @@
         <v>170</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,7 +3789,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,7 +3814,7 @@
         <v>139</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>76</v>
@@ -3805,7 +3828,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,7 +3911,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,16 +4066,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.85546875" style="16" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4253,7 +4278,7 @@
         <v>258</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -4301,6 +4326,16 @@
         <v>264</v>
       </c>
       <c r="G27" s="30"/>
+    </row>
+    <row r="29" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="G29" s="30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="G30" s="30" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4398,7 +4433,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4424,7 +4459,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4519,13 +4554,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="145.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="146.7109375" style="1"/>
@@ -4594,6 +4631,14 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4664,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,25 +4728,25 @@
         <v>221</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="C2" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4720,7 +4765,7 @@
         <v>297</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -4728,7 +4773,7 @@
         <v>108</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>287</v>
@@ -4750,10 +4795,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -4761,13 +4806,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="G9" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -4775,10 +4820,10 @@
         <v>109</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -4786,10 +4831,10 @@
         <v>107</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,7 +4852,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,7 +4879,7 @@
         <v>251</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>230</v>
@@ -4856,10 +4901,10 @@
         <v>229</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>315</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4905,7 +4950,7 @@
         <v>296</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -4913,10 +4958,10 @@
         <v>112</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4924,10 +4969,10 @@
         <v>231</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -4935,10 +4980,10 @@
         <v>115</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -4946,10 +4991,10 @@
         <v>113</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5057,7 +5102,7 @@
         <v>294</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5253,23 +5298,32 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>154</v>
       </c>
+      <c r="E10" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
+      <c r="E11" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5329,7 +5383,7 @@
         <v>121</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,12 +5391,12 @@
         <v>124</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5350,10 +5404,10 @@
     </row>
     <row r="40" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>352</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5384,10 +5438,10 @@
     </row>
     <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5397,7 +5451,7 @@
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5437,10 +5491,10 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5471,23 +5525,23 @@
     </row>
     <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5503,7 +5557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5527,47 +5583,39 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +5653,7 @@
         <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5615,12 +5663,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5707,7 @@
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -5687,10 +5735,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5698,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -5763,7 +5811,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5840,7 +5888,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5910,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -5932,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>126</v>
@@ -6008,7 +6056,7 @@
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FE8098-E68A-47B5-B333-C7E435C9101E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730EA4C-CFC2-43FC-8404-F511EA9561FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5558,7 +5558,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0AEC6-4CE9-45F7-948B-D956025378EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6F650-0A76-4713-953C-7156455112AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1587,94 +1587,11 @@
     <t>Null Object</t>
   </si>
   <si>
-    <t>The adapter is the solution for classes that do similar jobs but don't have a unified interface. Adapter provides the uniform interface and can be implemented using either multiple inheritance or delegation through embedding a member of the adaptee.
-There are two types of Adapter
-1. Objects Adapters(Composition): Adapter Implements the interface. Adapter holds the object of the other class(Adaptee)
-2. Class Adapters (Inheritance): Adapter Implements the interface. Adapter inherits the other class(Adaptee).</t>
-  </si>
-  <si>
     <t>You should consider using the Adapter Pattern whenever you want to use an existing class’s functionality, but its interface is not the one that you require.
 Interfaces are incompatible, but the inner functionality should be as required.
 Decorator and Adapter does wrap already existing object, and such is typically provided in the constructor.
 dzone.com/articles/adapter-design-pattern-in-java
 Decorator and Adapter wrap existing object, and that is typically provided in the constructor.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are 3 entites in Decorator pattern.
-1. The basic Interface.
-2. One or many concrete Class that provide the basic functionalities.
-3. Decorator Class/Classes that takes/wraps the concrete class(as a construtor argument) and provides the addition functionalities. 
-   The Decorator class should implement the basic interface too(Why---It wil be easy to Use the basic Interface reference and call the operations)
-Decorators should not be inter dependable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DrawBacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.All methods in the decorated interface must be implemented in the decorator class.Can this drawback be solved by combining the command pattern. i.e the Decorators should implement command pattern. May be possible in specific case.
-Or may be create a abstract base class for all the Decorator classes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Only  good if there are many decorators</t>
-    </r>
   </si>
   <si>
     <t>Coupling</t>
@@ -1833,10 +1750,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Simply speaking, a Proxy object is one through which we control access to the actual object on which the functionality lies. 
-</t>
-  </si>
-  <si>
     <t>The access to an object should be controlled.
 Additional functionality should be provided when accessing an object.</t>
   </si>
@@ -2013,33 +1926,6 @@
 	1.Reflection
 	2.Dependency Injection</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Slight Modification to the origin pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-If the observer is created by passing the observable(concrete, so that we can access the methods/getters), we can avoid the notify method's arguments. Observer can fetch the details from the observable object passed during creation.</t>
-    </r>
-  </si>
-  <si>
-    <t>Make sure to deRegsister.Memory loss</t>
   </si>
   <si>
     <t>MVC</t>
@@ -2236,16 +2122,6 @@
 One way of achieving abstraction is by using interfaces.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
-Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
-allows loose coupling between algorithm and platform
---&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
---&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
---&gt;View/Resource is a factory.
-      Is Handler/View/Resorse  ==== a bridge pattern?
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2330,59 +2206,6 @@
 	Facade Pattern</t>
   </si>
   <si>
-    <t>Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.
-https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns
-A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">More than one factory is available. Abstracted by an interface
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
-A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2446,35 +2269,6 @@
       </rPr>
       <t>.
 By intent,Type of Design Pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Factory of Factories 
-The abstract factory pattern provides a way to encapsulate a group of individual factories
-Provide an interface for creating families of related or dependent objects
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Examples of AF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:https://stackoverflow.com/questions/2280170/why-do-we-need-abstract-factory-design-pattern</t>
     </r>
   </si>
   <si>
@@ -2520,42 +2314,6 @@
 We directly call the static inner class constructor and the chain .Finally we call build() of the static inner class which returns the actual object.
 Perform argument validy check as early as possible, may be when creating the actual object(build()) from the builder object and throw IllegalArgumentException if any state issues. which is also needed in regular constructors.
 Buiding the object with builder pattern is better than using setters of the class. If setters are used we cannot make sure that the all the required variables are set. Since build method is mandatory we are sure that checks are done.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eager Initialization vs Lazy Initialization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
-In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
-In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
-So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
-public class BillPughSingleton {
-    private BillPughSingleton(){}
-    private static class SingletonHelper{
-        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
-    }
-    public static BillPughSingleton getInstance(){
-        return SingletonHelper.INSTANCE;
-    }
-}</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2739,7 +2497,611 @@
     <t>Interview</t>
   </si>
   <si>
-    <t>Command Pattern intends to encapsulate in an object all the data required for performing a given action (command), including what method to call, the method's arguments, and the object to which the method belongs.
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Members</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Invoker,command,receiver
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UseCases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In some cases, the invoker also stores and queues commands, besides executing them. This is useful for implementing some additional features, undo/redo functionality.
+Are the commands supposed to do some preProcessing/PostProcessing before/after invoking the Receiver? If not, why is the invoker calling the command.Cant it directly call receiver. Yes, pre and post work may be someting like dataBase open and close
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undo/Redo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+Use 2 stacks, undo and redo stack. If you undo an action, it pops from the undo stack and pushes onto the redo stack. Adding a new action is pushing a new one onto the undo stack and clearing the redo stack
+https://stackoverflow.com/questions/1154935/command-pattern-returning-status
+...................understan: Command pattern using generic parameters</t>
+    </r>
+  </si>
+  <si>
+    <t>Helps a lot in Unit testing. We can inject mocked object.
+https://martinfowler.com/articles/injection.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. 
+The UML of Template is similar to Abstract class
+Java has the concept of Abstract class but other languages might does not have.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. Tax computing website, they ask if we have any investment,HRA...And then calculate
+2. WebPage template</t>
+    </r>
+  </si>
+  <si>
+    <t>Map is not Iterable and it is not a collection.</t>
+  </si>
+  <si>
+    <t>Create a Iterator  to iterate custom objects</t>
+  </si>
+  <si>
+    <t>Build Amazon filters  ,builder pattern</t>
+  </si>
+  <si>
+    <t>Branch Prediction</t>
+  </si>
+  <si>
+    <t>forEachRemaining()</t>
+  </si>
+  <si>
+    <t>Processing a sorted array id faster than unSorted.
+https://stackoverflow.com/questions/11227809/why-is-processing-a-sorted-array-faster-than-processing-an-unsorted-array/11227902#11227902</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>people.stream().filter(person -&gt; person.getBirthYear() == 1980).forEach(person -&gt; System.out.println(person.getName() + " was born in 1980"));
+people.stream().filter(person -&gt; person.getBirthYear() == 1980).filter(person -&gt; "New York".equals(person.getAddress().getCity())).collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iterating on Maps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
+    </r>
+  </si>
+  <si>
+    <t>An interface which tells that the collection is iterable. And to Iterate that collection we can get the Iterator using the methods Iterator().
+The forEach() provides each way to iterate.
+It provides a commom inteface .</t>
+  </si>
+  <si>
+    <t>Map interface does not implement Iterable</t>
+  </si>
+  <si>
+    <t>It has 3 methods.hasNext(), next(), remove().
+By default remove() throws UnsupportedOperationException.
+We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
+  </si>
+  <si>
+    <t>wqeqw</t>
+  </si>
+  <si>
+    <t>Code an example of State Pattern:
+Game. Make the character to walk,talk,run,fight. Pass command and change the state. Change state A-&gt; B, A-&gt;A</t>
+  </si>
+  <si>
+    <t>Class and instance variable should be final.
+Constructors should perform deep copy.
+No setters, Getters should return a depy copy of instance variable.
+Primitives,String,Integer etc are immutable</t>
+  </si>
+  <si>
+    <t>Cool Concepts</t>
+  </si>
+  <si>
+    <t>Thread in General</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
+More time consuming becuase cache memory cant be used.
+If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multitasking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ability to execute more than one task at the same time is known as multitasking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multithreading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: We already discussed about it. It is a process of executing multiple threads simultaneously. Multithreading is also known as Thread-based Multitasking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved. On the other hand one CPU is involved in multitasking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It refers to the utilization of multiple CPUs in a single computer system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time.
+Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in from main memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
+    </r>
+  </si>
+  <si>
+    <t>stack/heap/Ram/CPU Cache/CPU registers</t>
+  </si>
+  <si>
+    <t>Stream class and APIs</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Boot Strap</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Interface with method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memory areas allocated by JVM:Classloader, Class area, Heap, Stack, Program Counter Register and Native Method Stack</t>
+  </si>
+  <si>
+    <t>Why Type Casting is bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In logarithm graph time curve decelerates as n increases.
+https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
+Logarithm is essentially the inverse of exponentiation.
+Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
+ that is no less than some limit, this means that your algorithm is running in O(logN) time.
+O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use factory pattern to return one of many different types of Iterators based on some condition.
+Iterators can be implemented in 2 ways:
+1.Works on the original copy of the collection. This could case runtime exception(CurrentModification) when the someone modifies the collection while Iterating.
+2. Works on a copy of collection to avoid the above problem.But may have stale data.
+3. Or work on original collection and listen to the modification of the collection and update accordingly 
+javapapers.com/design-patterns/iterator-design-pattern/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STB example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+	Program banner and complete Event list. At a given point in time the program banner needs to know only one event data. It needs to know if the next and previous event exists . So iterator is the best .
+Code this banner Iterator to understand better.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Observer Pattern defines a one-to-many dependency between objects so that when one object changes state, all of its dependents are notified and updated automatically.</t>
+  </si>
+  <si>
+    <t>Make sure to deRegsister.Memory loss.
+Slight Modification to the origin pattern:
+If the observer is created by passing the observable(concrete, so that we can access the methods/getters), we can avoid the notify method's arguments. Observer can fetch the details from the observable object passed during creation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Decorator Pattern attaches additional responsibilities to an object dynamically. Decorators provide a flexible alternative to subclassing for extending functionality.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There are 3 entites in Decorator pattern.
+1. The basic Interface.
+2. One or many concrete Class that provide the basic functionalities.
+3. Decorator Class/Classes that takes/wraps the concrete class(as a construtor argument) and provides the addition functionalities. 
+   The Decorator class should implement the basic interface too(Why---It wil be easy to Use the basic Interface reference and call the operations)
+Decorators should not be inter dependable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DrawBacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.All methods in the decorated interface must be implemented in the decorator class.Can this drawback be solved by combining the command pattern. i.e the Decorators should implement command pattern. May be possible in specific case.
+Or may be create a abstract base class for all the Decorator classes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Only  good if there are many decorators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
+More than one factory is available. Abstracted by an interface
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
+A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Singleton Pattern ensures a class has only one instance, and provides a global point of access to it.
+Eager Initialization vs Lazy Initialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
+In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
+In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
+So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
+public class BillPughSingleton {
+    private BillPughSingleton(){}
+    private static class SingletonHelper{
+        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
+    }
+    public static BillPughSingleton getInstance(){
+        return SingletonHelper.INSTANCE;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Command Pattern encapsulates a request as an object, thereby letting you parameterize other objects with different requests, queue or log requests, and support undoable operations.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Command Pattern intends to encapsulate in an object all the data required for performing a given action (command), including what method to call, the method's arguments, and the object to which the method belongs.
 The pattern encapsulates everything required to take an action and allows the execution of the action to occur completely independently of any of that context. If that is not a requirement for you then the pattern is probably not helpful for your problem space
 They can have parameterised constructor but is it possible to know the parameters at the time of command creation ?
 Returning the result : 
@@ -2747,40 +3109,19 @@
 1. Either by observer pattern 
 2. the invoker object passing a Result object as a argument to the method call so that command or Receiver object loading the result.
 Even though it is possible to pass arguments and return value from command, it is not recommanded because they are supposed to work independently.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Members</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:Invoker,command,receiver
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UseCases:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Adapter Pattern converts the interface of a class into another interface the clients expect. Adapter lets classes work together that couldn’t otherwise because of incompatible interfaces.</t>
     </r>
     <r>
       <rPr>
@@ -2791,73 +3132,34 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-In some cases, the invoker also stores and queues commands, besides executing them. This is useful for implementing some additional features, undo/redo functionality.
-Are the commands supposed to do some preProcessing/PostProcessing before/after invoking the Receiver? If not, why is the invoker calling the command.Cant it directly call receiver. Yes, pre and post work may be someting like dataBase open and close
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>undo/Redo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-Use 2 stacks, undo and redo stack. If you undo an action, it pops from the undo stack and pushes onto the redo stack. Adding a new action is pushing a new one onto the undo stack and clearing the redo stack
-https://stackoverflow.com/questions/1154935/command-pattern-returning-status
-...................understan: Command pattern using generic parameters</t>
-    </r>
-  </si>
-  <si>
-    <t>Helps a lot in Unit testing. We can inject mocked object.
-https://martinfowler.com/articles/injection.html</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. 
-The UML of Template is similar to Abstract class
-Java has the concept of Abstract class but other languages might does not have.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-1. Tax computing website, they ask if we have any investment,HRA...And then calculate
-2. WebPage template</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Members: Abstract class and it concrete class !!
+The adapter is the solution for classes that do similar jobs but don't have a unified interface. Adapter provides the uniform interface and can be implemented using either multiple inheritance or delegation through embedding a member of the adaptee.
+There are two types of Adapter
+1. Objects Adapters(Composition): Adapter Implements the interface. Adapter holds the object of the other class(Adaptee)
+2. Class Adapters (Inheritance): Adapter Implements the interface. Adapter inherits the other class(Adaptee).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Template Method Pattern defines the skeleton of an algorithm in a method, deferring some steps to subclasses. Template Method lets subclasses redefine certain steps of an algorithm without changing the algorithm’s structure.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Members: Abstract class and it concrete class !!
 The Template Method Pattern defines the skeleton of an algorithm in a method, deferring some steps to subclasses. Template Method lets subclasses redefine certain steps of an algorithm without changing the algorithm’s structure.
 The template method is declared </t>
     </r>
@@ -2884,261 +3186,27 @@
     </r>
   </si>
   <si>
-    <t>Map is not Iterable and it is not a collection.</t>
-  </si>
-  <si>
-    <t>Create a Iterator  to iterate custom objects</t>
-  </si>
-  <si>
-    <t>Build Amazon filters  ,builder pattern</t>
-  </si>
-  <si>
-    <t>Branch Prediction</t>
-  </si>
-  <si>
-    <t>forEachRemaining()</t>
-  </si>
-  <si>
-    <t>Processing a sorted array id faster than unSorted.
-https://stackoverflow.com/questions/11227809/why-is-processing-a-sorted-array-faster-than-processing-an-unsorted-array/11227902#11227902</t>
-  </si>
-  <si>
-    <t>Stream API</t>
-  </si>
-  <si>
-    <t>people.stream().filter(person -&gt; person.getBirthYear() == 1980).forEach(person -&gt; System.out.println(person.getName() + " was born in 1980"));
-people.stream().filter(person -&gt; person.getBirthYear() == 1980).filter(person -&gt; "New York".equals(person.getAddress().getCity())).collect(Collectors.toSet());</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Iterating on Maps:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
-    </r>
-  </si>
-  <si>
-    <t>An interface which tells that the collection is iterable. And to Iterate that collection we can get the Iterator using the methods Iterator().
-The forEach() provides each way to iterate.
-It provides a commom inteface .</t>
-  </si>
-  <si>
-    <t>Map interface does not implement Iterable</t>
-  </si>
-  <si>
-    <t>It has 3 methods.hasNext(), next(), remove().
-By default remove() throws UnsupportedOperationException.
-We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
-  </si>
-  <si>
-    <t>wqeqw</t>
-  </si>
-  <si>
-    <t>Code an example of State Pattern:
-Game. Make the character to walk,talk,run,fight. Pass command and change the state. Change state A-&gt; B, A-&gt;A</t>
-  </si>
-  <si>
-    <t>Class and instance variable should be final.
-Constructors should perform deep copy.
-No setters, Getters should return a depy copy of instance variable.
-Primitives,String,Integer etc are immutable</t>
-  </si>
-  <si>
-    <t>Cool Concepts</t>
-  </si>
-  <si>
-    <t>Thread in General</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Volatile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
-More time consuming becuase cache memory cant be used.
-If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
-Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multitasking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Ability to execute more than one task at the same time is known as multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multithreading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: We already discussed about it. It is a process of executing multiple threads simultaneously. Multithreading is also known as Thread-based Multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multiprocessing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved. On the other hand one CPU is involved in multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parallel Processing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It refers to the utilization of multiple CPUs in a single computer system.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time.
-Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in from main memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
-    </r>
-  </si>
-  <si>
-    <t>stack/heap/Ram/CPU Cache/CPU registers</t>
-  </si>
-  <si>
-    <t>Stream class and APIs</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Boot Strap</t>
-  </si>
-  <si>
-    <t>JVM</t>
-  </si>
-  <si>
-    <t>Interface with method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> memory areas allocated by JVM:Classloader, Class area, Heap, Stack, Program Counter Register and Native Method Stack</t>
-  </si>
-  <si>
-    <t>Why Type Casting is bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In logarithm graph time curve decelerates as n increases.
-https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
-Logarithm is essentially the inverse of exponentiation.
-Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
- that is no less than some limit, this means that your algorithm is running in O(logN) time.
-O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Iterator Pattern provides a way to access the elements(seguentially ?) of an aggregate object without exposing the underlying structure.
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Iterator Pattern provides a way to access the elements of an aggregate object sequentially without exposing its underlying representation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Iterator Pattern provides a way to access the elements(seguentially ?) of an aggregate object without exposing the underlying structure.
 with Iterator pattern, we should be able to Iterator in any aggregation of Objects. Ex: List Employee objects
 What is the need of Iterable intertace,Why cant we directly get the iterator? 
 Imagine Iterable inteface is not there. so to get the iterator of (say) Employee::getEmployeeIterator(), Student::getStudentlterator(), getTeacherlterator(). So Iterable provides a unified API. 
@@ -3175,44 +3243,161 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Use factory pattern to return one of many different types of Iterators based on some condition.
-Iterators can be implemented in 2 ways:
-1.Works on the original copy of the collection. This could case runtime exception(CurrentModification) when the someone modifies the collection while Iterating.
-2. Works on a copy of collection to avoid the above problem.But may have stale data.
-3. Or work on original collection and listen to the modification of the collection and update accordingly 
-javapapers.com/design-patterns/iterator-design-pattern/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STB example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 
-	Program banner and complete Event list. At a given point in time the program banner needs to know only one event data. It needs to know if the next and previous event exists . So iterator is the best .
-Code this banner Iterator to understand better.</t>
-    </r>
-  </si>
-  <si>
-    <t>The State Pattern allows an object to alter its behavior when its internal state changes.
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The State Pattern allows an object to alter its behavior when its internal state changes. The object will appear to change its class.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The State Pattern allows an object to alter its behavior when its internal state changes.
 When the concrete state object about to set the next state , it is better NOT to set the state(constant or new StateObject() directly . Instead use the help of factory or some kind of dependence injection to avoid class coupling
 Ex: to set the nextstate : getProcessingState() 
 Stratergy and state have similar UML.
 State Machine is different from state design pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Proxy Pattern provides a surrogate or placeholder for another object to control access to it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simply speaking, a Proxy object is one through which we control access to the actual object on which the functionality lies. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Strategy Pattern defines a family of algorithms, encapsulates each one, and makes them interchangeable. Strategy lets the algorithm vary independently from clients that use it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.
+https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns
+A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Decouple an abstraction from its implementation so that the two can vary independently.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
+Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
+allows loose coupling between algorithm and platform
+--&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
+--&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
+--&gt;View/Resource is a factory.
+      Is Handler/View/Resorse  ==== a bridge pattern?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Abstract Factory Pattern provides an interface for creating families of related or dependent objects without specifying their concrete classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Factory of Factories 
+The abstract factory pattern provides a way to encapsulate a group of individual factories
+Provide an interface for creating families of related or dependent objects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examples of AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:https://stackoverflow.com/questions/2280170/why-do-we-need-abstract-factory-design-pattern</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3823,7 +4008,7 @@
         <v>170</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -3832,7 +4017,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -3857,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>76</v>
@@ -3871,7 +4056,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -3954,7 +4139,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" s="16" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4017,12 +4202,12 @@
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4095,7 +4280,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4304,80 +4489,80 @@
         <v>148</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F20" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F23" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G27" s="30"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="30" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="30" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4653,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4476,7 +4661,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4484,7 +4669,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -4502,7 +4687,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -4510,7 +4695,7 @@
         <v>237</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
@@ -4518,7 +4703,7 @@
         <v>238</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -4570,20 +4755,20 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4678,10 +4863,10 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4752,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4771,25 +4956,25 @@
         <v>221</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
       <c r="C2" s="30" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="33"/>
       <c r="B3" s="28" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -4805,79 +4990,79 @@
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>288</v>
+      <c r="C7" s="32" t="s">
+        <v>364</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="270.75" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="285" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -4895,12 +5080,12 @@
         <v>105</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
@@ -4911,7 +5096,7 @@
         <v>141</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
@@ -4919,24 +5104,24 @@
         <v>111</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B19" s="29" t="s">
         <v>227</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>249</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
@@ -4944,10 +5129,10 @@
         <v>229</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
@@ -4955,21 +5140,21 @@
         <v>228</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B22" s="29" t="s">
         <v>222</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -4990,32 +5175,32 @@
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="28" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="B28" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B29" s="29" t="s">
         <v>231</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -5023,10 +5208,10 @@
         <v>115</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
@@ -5034,10 +5219,10 @@
         <v>113</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -5047,7 +5232,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
@@ -5057,7 +5242,7 @@
     </row>
     <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5275,7 @@
         <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5101,7 +5286,7 @@
         <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
@@ -5109,10 +5294,10 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -5120,7 +5305,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>240</v>
@@ -5131,21 +5316,21 @@
         <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5341,7 +5526,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5357,7 +5542,7 @@
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -5365,7 +5550,7 @@
         <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5426,7 +5611,7 @@
         <v>121</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -5434,12 +5619,12 @@
         <v>124</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E23" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -5447,10 +5632,10 @@
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5481,10 +5666,10 @@
     </row>
     <row r="2" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5494,7 +5679,7 @@
     </row>
     <row r="4" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5534,10 +5719,10 @@
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5568,23 +5753,23 @@
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5628,37 +5813,37 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="30" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="30" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="30" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="30" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="30" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="30" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5881,7 @@
         <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5706,12 +5891,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5750,7 +5935,7 @@
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
       <c r="B2" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -5778,10 +5963,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5789,7 +5974,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -5854,7 +6039,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -5931,7 +6116,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6001,10 +6186,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
@@ -6023,7 +6208,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>126</v>
@@ -6099,7 +6284,7 @@
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6F650-0A76-4713-953C-7156455112AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610A09F-AA21-4B2D-A2FE-B6EA49D2B4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -1584,9 +1584,6 @@
     <t>Intended to provide a standard way to visualize the design of a system.</t>
   </si>
   <si>
-    <t>Null Object</t>
-  </si>
-  <si>
     <t>You should consider using the Adapter Pattern whenever you want to use an existing class’s functionality, but its interface is not the one that you require.
 Interfaces are incompatible, but the inner functionality should be as required.
 Decorator and Adapter does wrap already existing object, and such is typically provided in the constructor.
@@ -2288,12 +2285,6 @@
   </si>
   <si>
     <t>When trying to solve a puzzle, check which design pattern can be used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe to use in cache.
-Thread Safe,state of object will remain same as nobody can change it. 
-******
-Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
   </si>
   <si>
     <t>JavaBean  and similarities with the Builder Design pattern</t>
@@ -2667,132 +2658,10 @@
 Game. Make the character to walk,talk,run,fight. Pass command and change the state. Change state A-&gt; B, A-&gt;A</t>
   </si>
   <si>
-    <t>Class and instance variable should be final.
-Constructors should perform deep copy.
-No setters, Getters should return a depy copy of instance variable.
-Primitives,String,Integer etc are immutable</t>
-  </si>
-  <si>
     <t>Cool Concepts</t>
   </si>
   <si>
     <t>Thread in General</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Volatile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
-More time consuming becuase cache memory cant be used.
-If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
-Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multitasking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Ability to execute more than one task at the same time is known as multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multithreading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: We already discussed about it. It is a process of executing multiple threads simultaneously. Multithreading is also known as Thread-based Multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multiprocessing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved. On the other hand one CPU is involved in multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parallel Processing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It refers to the utilization of multiple CPUs in a single computer system.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3397,6 +3266,160 @@
         <scheme val="minor"/>
       </rPr>
       <t>:https://stackoverflow.com/questions/2280170/why-do-we-need-abstract-factory-design-pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/tools/findingclasses.html#bootclass</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safe to use in cache.
+Thread Safe,state of object will remain same as nobody can change it. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When to use immutable classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Notifier events,to avoid method from changing the state,Cache,HashMap.  
+Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
+    </r>
+  </si>
+  <si>
+    <t>Class and instance variable should be final.
+Constructors should perform deep copy.
+No setters, Getters should return a depy copy of instance variable.
+Primitives,String,Integer etc are immutable
+Refer:concepts.immutable.thread.problems</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
+More time consuming becuase cache memory cant be used.
+If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multitasking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ability to execute more than one task at the same time by a single processor. It is often done by some algorithms by OS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multithreading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is a way of executing multiple threads simultaneously in a process. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: processing of program instructions by dividing them among multiple processors with the objective of running a program in less time.</t>
     </r>
   </si>
 </sst>
@@ -3579,7 +3602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3604,9 +3627,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3972,140 +3992,138 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="B2" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="25" t="s">
         <v>170</v>
       </c>
+      <c r="C4" s="25" t="s">
+        <v>169</v>
+      </c>
       <c r="D4" s="26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="26"/>
-      <c r="C5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" s="26" t="s">
+      <c r="D6" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="26"/>
-      <c r="G9" s="26" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D10" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="26"/>
-      <c r="D12" s="26" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D8" s="25" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="26"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="25"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C8" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C5" location="'Data Structures'!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I7" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I2" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B6" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C4" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C2" location="'Data Structures'!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H4" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H2" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B2" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A7" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D12" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D7" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D10" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D4" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D6" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A6" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G9" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
-    <hyperlink ref="F7" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
-    <hyperlink ref="E6" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
-    <hyperlink ref="E5" location="CoolConcepts!A1" display="Cool Cocepts" xr:uid="{6E8DB0B6-BC9A-4EAE-AEE6-032454075114}"/>
-    <hyperlink ref="D4" location="Git!A1" display="Git" xr:uid="{91DF4B62-E29B-4D4A-B7B7-520401E69F81}"/>
+    <hyperlink ref="G2" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
+    <hyperlink ref="F2" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
+    <hyperlink ref="E4" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
+    <hyperlink ref="E2" location="CoolConcepts!A1" display="Cool Cocepts" xr:uid="{6E8DB0B6-BC9A-4EAE-AEE6-032454075114}"/>
+    <hyperlink ref="D2" location="Git!A1" display="Git" xr:uid="{91DF4B62-E29B-4D4A-B7B7-520401E69F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4116,7 +4134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4125,7 +4145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4133,13 +4153,13 @@
       <c r="B2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" s="16" t="s">
-        <v>324</v>
+      <c r="C3" s="15" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4186,7 +4206,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4202,12 +4222,12 @@
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4227,20 +4247,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4251,12 +4271,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4264,23 +4284,23 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4296,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4305,122 +4325,122 @@
     <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.86328125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="91.86328125" style="15" customWidth="1"/>
     <col min="8" max="8" width="37.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="15"/>
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="14"/>
+      <c r="C3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>94</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="9"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="9"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
@@ -4429,7 +4449,7 @@
       <c r="C13" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4440,7 +4460,7 @@
       <c r="C14" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4451,7 +4471,7 @@
       <c r="C15" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>1</v>
       </c>
     </row>
@@ -4462,7 +4482,7 @@
       <c r="C16" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>149</v>
       </c>
       <c r="G16" s="1"/>
@@ -4474,7 +4494,7 @@
       <c r="C17" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4485,84 +4505,84 @@
       <c r="C18" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F19" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F20" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F19" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="30" t="s">
+      <c r="G20" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="F20" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F21" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F22" s="30" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F23" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G23" s="29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F23" s="30" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F24" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F24" s="30" t="s">
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F25" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F26" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F25" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F26" s="30" t="s">
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F27" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F27" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="G29" s="30" t="s">
-        <v>362</v>
+      <c r="G29" s="29" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="G30" s="30" t="s">
-        <v>305</v>
+      <c r="G30" s="29" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4582,193 +4602,193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.265625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="144.73046875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="18.265625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="144.73046875" style="29" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>279</v>
+      <c r="B12" s="29" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>308</v>
+      <c r="B13" s="29" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>275</v>
+      <c r="B14" s="29" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>327</v>
+      <c r="B18" s="29" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>269</v>
+      <c r="B19" s="29" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>268</v>
+      <c r="B20" s="29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="29" t="s">
-        <v>251</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>287</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4805,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4797,7 +4817,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4863,10 +4883,10 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4935,314 +4955,309 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.265625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="66.59765625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="80.59765625" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9.86328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.265625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="66.59765625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="80.59765625" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="15"/>
+      <c r="C2" s="29" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="16"/>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="32"/>
+      <c r="B3" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="33"/>
-      <c r="B3" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B5" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="E18" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B19" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="B20" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B22" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B27" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+      <c r="B28" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B29" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B7" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B10" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="B18" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B19" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="B20" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B22" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B27" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
-      <c r="B28" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="B29" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="B31" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A40" s="29" t="s">
-        <v>283</v>
+    <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5271,11 +5286,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5286,7 +5301,7 @@
         <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
@@ -5294,10 +5309,10 @@
         <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -5305,7 +5320,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>240</v>
@@ -5316,21 +5331,21 @@
         <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>290</v>
+        <v>271</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>331</v>
+        <v>288</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5372,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -5473,18 +5488,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9"/>
-    <col min="5" max="5" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5526,31 +5542,34 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>140</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>154</v>
       </c>
-      <c r="E10" t="s">
-        <v>356</v>
+      <c r="D10" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>122</v>
       </c>
-      <c r="E11" t="s">
-        <v>357</v>
+      <c r="D11" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5570,80 +5589,78 @@
       <c r="A16" t="s">
         <v>125</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D21" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E23" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C27" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="7" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
+    <hyperlink ref="E9" r:id="rId1" location="bootclass" xr:uid="{B88FB0E2-8F53-49A8-BB08-1C320DBC39AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5651,7 +5668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5660,16 +5679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5677,9 +5696,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5713,16 +5732,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5742,34 +5761,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="77.3984375" style="30"/>
+    <col min="1" max="1" width="11.3984375" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="77.3984375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
         <v>296</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="30" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5791,59 +5810,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="30"/>
-    <col min="2" max="2" width="90.73046875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="65" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="90.73046875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="65" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="30" t="s">
+    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B11" s="29" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="B10" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B11" s="30" t="s">
-        <v>304</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="30" t="s">
-        <v>320</v>
+      <c r="B13" s="29" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="30" t="s">
-        <v>361</v>
+      <c r="B15" s="29" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5857,46 +5876,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>160</v>
       </c>
-      <c r="G3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="H3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>334</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5911,7 +5930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5922,7 +5943,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5933,9 +5954,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -5963,10 +5984,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5974,16 +5995,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
@@ -6026,10 +6047,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
@@ -6039,7 +6060,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6116,7 +6137,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6132,9 +6153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6144,7 +6163,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6158,10 +6177,10 @@
       <c r="A2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6169,7 +6188,7 @@
       <c r="A3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6177,19 +6196,19 @@
       <c r="A4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
@@ -6208,14 +6227,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6261,7 +6280,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6284,7 +6303,7 @@
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610A09F-AA21-4B2D-A2FE-B6EA49D2B4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24289B55-5887-45BE-B0EA-D034F68463F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,10 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="378">
-  <si>
-    <t>Pros vs Cons</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="381">
   <si>
     <t>ArrayList</t>
   </si>
@@ -110,12 +107,6 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t xml:space="preserve">*Internally uses Array.
-*Not synchronized but can get a sync list with the help of collection util.
-*Best when read operation are more because of index based.
-</t>
-  </si>
-  <si>
     <t>Exception</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
   </si>
   <si>
     <t>Priority Queue</t>
-  </si>
-  <si>
-    <t>*the capacity increment(2nd argument) is less than or equal to zero, the capacity of the vector is doubled each time it needs to grow.</t>
   </si>
   <si>
     <t>fail fast</t>
@@ -189,9 +177,6 @@
       </rPr>
       <t>: Iterator makes copy of the internal data structure (object array) and iterates over the copied(may get stale in multi-thread environment) data structure.</t>
     </r>
-  </si>
-  <si>
-    <t>*Internally uses Array.</t>
   </si>
   <si>
     <t>Map</t>
@@ -731,30 +716,6 @@
     <t>Pass by value or reference</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Good Read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-http://tutorials.jenkov.com/java-concurrency/java-memory-model.html</t>
-    </r>
-  </si>
-  <si>
     <t>HackerRank</t>
   </si>
   <si>
@@ -827,9 +788,6 @@
   </si>
   <si>
     <t>HashSet</t>
-  </si>
-  <si>
-    <t>LinkedHasHashMap</t>
   </si>
   <si>
     <t xml:space="preserve">Set returns true to indicate that the object is added into the map.
@@ -951,9 +909,6 @@
   </si>
   <si>
     <t>Enum</t>
-  </si>
-  <si>
-    <t>ConcurentHashMap </t>
   </si>
   <si>
     <t>Inner Class</t>
@@ -2595,9 +2550,6 @@
     </r>
   </si>
   <si>
-    <t>Map is not Iterable and it is not a collection.</t>
-  </si>
-  <si>
     <t>Create a Iterator  to iterate custom objects</t>
   </si>
   <si>
@@ -2619,23 +2571,6 @@
   <si>
     <t>people.stream().filter(person -&gt; person.getBirthYear() == 1980).forEach(person -&gt; System.out.println(person.getName() + " was born in 1980"));
 people.stream().filter(person -&gt; person.getBirthYear() == 1980).filter(person -&gt; "New York".equals(person.getAddress().getCity())).collect(Collectors.toSet());</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Iterating on Maps:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
-    </r>
   </si>
   <si>
     <t>An interface which tells that the collection is iterable. And to Iterate that collection we can get the Iterator using the methods Iterator().
@@ -2644,11 +2579,6 @@
   </si>
   <si>
     <t>Map interface does not implement Iterable</t>
-  </si>
-  <si>
-    <t>It has 3 methods.hasNext(), next(), remove().
-By default remove() throws UnsupportedOperationException.
-We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
   </si>
   <si>
     <t>wqeqw</t>
@@ -3273,8 +3203,90 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Safe to use in cache.
-Thread Safe,state of object will remain same as nobody can change it. 
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
+More time consuming becuase cache memory cant be used.
+If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hashtable  ht = new Hashtable ();
+		 ht.put(null, null);</t>
+  </si>
+  <si>
+    <t>Concurent
+HashMap </t>
+  </si>
+  <si>
+    <t>Linked
+HasHashMap</t>
+  </si>
+  <si>
+    <t>It has 3 methods.hasNext(), next(), remove().
+By default remove() throws UnsupportedOperationException. As it is not a good idea for a iterator to perform any operation other than reading.
+We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
+  </si>
+  <si>
+    <t>*the capacityIncrement(2nd argument) is less than or equal to zero, the capacity of the vector is doubled each time it needs to grow.</t>
+  </si>
+  <si>
+    <t>*Internally uses Array.
+*Best when read operation are more because of index based.
+*Not synchronized but can get a sync list with the help of collection util. This sync list is slow as other threads have to wait while one is writing.</t>
+  </si>
+  <si>
+    <t>*Thread Safe, *Internally uses Array.
+Most of the methods are synchronized,causing delay and not really attomic level sync</t>
+  </si>
+  <si>
+    <t>Collections.synchronizedList(list) .</t>
+  </si>
+  <si>
+    <t>Why to Sync a synchronized lis?
+https://docs.oracle.com/javase/7/docs/api/java/util/Collections.html#synchronizedList(java.util.List)</t>
+  </si>
+  <si>
+    <t>Unfortunately linked lists don't perform very well. Each element in the list is a separate object, and these objects can be spread out all over the computer's memory. CPUs are much faster at accessing data sequentially, so you will get a lot higher performance out of a list implemented on top of an array. An array stores data sequentially. The CPU caches can load bigger chunks of the array into the cache at a time, and have the CPU access the data directly in the CPU cache once loaded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multitasking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ability to execute more than one task at the same time by a single processor. It is often done by some algorithms by OS.Concurrency.
 </t>
     </r>
     <r>
@@ -3286,74 +3298,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>When to use immutable classes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Notifier events,to avoid method from changing the state,Cache,HashMap.  
-Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
-    </r>
+      <t>Multithreading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is a way of executing multiple threads simultaneously in a process. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: processing of program instructions by dividing them among multiple processors with the objective of running a program in less time.</t>
+    </r>
+  </si>
+  <si>
+    <t>A program in execution is often referred as process.
+A process consists of multiple threads. 
+A process has its own address space. A thread uses the process’s address space and share it with the other threads of that process.
+A thread can communicate with other thread (of the same process) directly by using methods like wait(), notify(), notifyAll().
+A process can communicate with other process by using inter-process communication.</t>
+  </si>
+  <si>
+    <t>Good Read:
+http://tutorials.jenkov.com/java-concurrency/java-memory-model.html</t>
   </si>
   <si>
     <t>Class and instance variable should be final.
 Constructors should perform deep copy.
 No setters, Getters should return a depy copy of instance variable.
 Primitives,String,Integer etc are immutable
-Refer:concepts.immutable.thread.problems</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Volatile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
-More time consuming becuase cache memory cant be used.
-If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
-Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multitasking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Ability to execute more than one task at the same time by a single processor. It is often done by some algorithms by OS.
+Refer the class concepts.immutable.thread.problems.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safe to use in cache.
+Thread Safe,state of object will remain same as nobody can change it. 
+The Reference is not Thread Safe
 </t>
     </r>
     <r>
@@ -3365,17 +3389,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Multithreading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It is a way of executing multiple threads simultaneously in a process. 
+      <t>When to use immutable classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Notifier events,to avoid method from changing the state,Cache,HashMap. 
+Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iterating on Maps:
 </t>
     </r>
     <r>
@@ -3387,17 +3417,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Multiprocessing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved.
+      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Map is not Iterable and it is not a collection.
+Not synchronized but can get a sync list with the help of collection util. This sync list is slow as other threads have to wait while one is writing.
 </t>
     </r>
     <r>
@@ -3409,17 +3441,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Parallel Processing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: processing of program instructions by dividing them among multiple processors with the objective of running a program in less time.</t>
+      <t xml:space="preserve">But Sync list is prefered(May be ) over concurrentHashMap if there are less reads and more write.
+ConcurrentHashMap does not allow null keys or values. So they are NOT equal alternatives of a synchronized map.
+</t>
     </r>
   </si>
 </sst>
@@ -3602,7 +3626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3708,6 +3732,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4012,50 +4038,50 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -4063,23 +4089,23 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4132,54 +4158,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.265625" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="29"/>
+    <col min="2" max="2" width="20.73046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.265625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="58.796875" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>174</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C3" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4207,27 +4239,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4254,53 +4286,53 @@
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4316,9 +4348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4331,18 +4361,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="6"/>
@@ -4350,41 +4380,41 @@
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
       <c r="C3" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D6" s="23">
         <v>1</v>
@@ -4396,21 +4426,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -4418,10 +4448,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -4429,10 +4459,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -4444,32 +4474,32 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -4477,112 +4507,112 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="29" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F20" s="29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="29" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="29" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F23" s="29" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="29" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="29" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="29" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G27" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="29" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="29" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4609,186 +4639,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A7" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="28" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4818,75 +4848,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4917,31 +4947,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4973,291 +5003,291 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
       <c r="B8" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B11" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="27" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="27" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="B28" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B30" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="B31" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5287,65 +5317,65 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5373,13 +5403,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5387,7 +5417,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5395,7 +5425,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5403,7 +5433,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5411,23 +5441,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5435,7 +5465,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5443,7 +5473,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5451,7 +5481,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5459,7 +5489,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -5467,7 +5497,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -5488,9 +5518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5501,157 +5529,159 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D15" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>323</v>
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D23" s="7" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5666,44 +5696,50 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="78.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="42"/>
+    <col min="2" max="2" width="78.59765625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="77.59765625" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A1" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="41"/>
+      <c r="B2" s="29" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>120</v>
+    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>185</v>
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5733,15 +5769,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5767,28 +5803,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5802,10 +5838,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5818,51 +5854,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>356</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="29" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +5919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5889,7 +5932,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5897,25 +5940,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5930,13 +5973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="4" customWidth="1"/>
     <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
@@ -5944,107 +5985,105 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38"/>
-      <c r="B2" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>372</v>
+      </c>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -6052,92 +6091,95 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
-    <row r="13" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>162</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6164,97 +6206,97 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6281,29 +6323,29 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24289B55-5887-45BE-B0EA-D034F68463F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC81F423-B25A-476B-A905-901ADD70EE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="391">
   <si>
     <t>ArrayList</t>
   </si>
@@ -1013,10 +1013,6 @@
 So that they can be used in hashtable.
 So that we can use the string pool safely, because no one can change reference of string once it gets created.
 Threads funda … still no clue</t>
-  </si>
-  <si>
-    <t>The JVM exits the program when all the user threads are completed. It does not wait for the deamon thread for completion.
-A thread should be set to deamon before starting the thread.</t>
   </si>
   <si>
     <t>When stack memory is full, Java runtime throws java.lang.StackOverFlowError whereas if heap memory is full, it throws java.lang.OutOfMemoryError: Java Heap Space error</t>
@@ -2594,33 +2590,6 @@
     <t>Thread in General</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time.
-Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in from main memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
-    </r>
-  </si>
-  <si>
     <t>stack/heap/Ram/CPU Cache/CPU registers</t>
   </si>
   <si>
@@ -3202,32 +3171,6 @@
     <t>https://docs.oracle.com/javase/8/docs/technotes/tools/findingclasses.html#bootclass</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Volatile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
-More time consuming becuase cache memory cant be used.
-If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
-Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.</t>
-    </r>
-  </si>
-  <si>
     <t>Hashtable  ht = new Hashtable ();
 		 ht.put(null, null);</t>
   </si>
@@ -3363,10 +3306,6 @@
 A process can communicate with other process by using inter-process communication.</t>
   </si>
   <si>
-    <t>Good Read:
-http://tutorials.jenkov.com/java-concurrency/java-memory-model.html</t>
-  </si>
-  <si>
     <t>Class and instance variable should be final.
 Constructors should perform deep copy.
 No setters, Getters should return a depy copy of instance variable.
@@ -3445,6 +3384,184 @@
 ConcurrentHashMap does not allow null keys or values. So they are NOT equal alternatives of a synchronized map.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Class Loader and Class</t>
+  </si>
+  <si>
+    <t>Good Read:
+http://tutorials.jenkov.com/java-util-concurrent/index.html
+http://tutorials.jenkov.com/java-concurrency/index.html
+http://tutorials.jenkov.com/java-multithreaded-servers/index.html</t>
+  </si>
+  <si>
+    <t>Java threads are objects like any other Java objects. Threads are instances of class java.lang.Thread, or instances of subclasses of this class. In addition to being objects, java threads can also execute code. ,like a virtual CPU that can execute your Java code - inside your Java application.
+A race condition is a special condition that may occur inside a critical section.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers)IMMEDIATELY.
+More time consuming because cache memory cant be used.
+Volatile variable may be helpful when doing operation which are atomic.32 bit
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A synchronized block guarantees that only one thread can enter a given critical section of the code at any given time.
+Synchronized blocks also guarantee that all variables accessed inside the synchronized block will be read </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in from main memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not
+If we have more than one critical section, check if it is possible to locking using different locks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thread synchronization can be achieved by :
+**synchronized block of Java code
+**locks
+**atomic variables like AtomicInteger</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THREAD SAFETY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+A class is thread-safe if it behaves correctly when accessed from multiple threads, regardless of the scheduling or interleaving of the execution of those threads by the runtime environment, and with no additional synchronization or other coordination on the part of the calling code.
+;</t>
+    </r>
+  </si>
+  <si>
+    <t>The Reference is not Thread Safe.
+Locking data so that it can only be accessed by one thread at a time is just one possible technique for creating thread safety</t>
+  </si>
+  <si>
+    <t>The synchronized keyword can be used to mark four different types of blocks:
+ Instance methods
+ Static methods: synchronized on the Class object of the class
+ Code blocks inside instance methods
+ Code blocks inside static methods:synchronized(MyClass.class)</t>
+  </si>
+  <si>
+    <t>synchronized keyword places some restrictions on reordering of instructions before, inside and after synchronized blocks. 
+Do not synchronize on String objects, or any primitive type wrapper objects. These might be cached or reused internally by the Java compiler, Java VM or Java libraries.
+May it is not a good idea to sync on immutable ojects too. Beacuse we might loose the original object's reference after it is used to sync.</t>
+  </si>
+  <si>
+    <t>The JVM exits the program when all the user threads are completed. It does not wait for the deamon thread for completion.
+A thread should be set to deamon before starting the thread.
+Java memory model specifies how the JVM works with the computer's memory (RAM).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Synchronized Block drawBacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ Does not allow any other thread , not even for safe reading. Alternative:Read/Write locks
+ No ordering of threads waiting in the queue.
+ Slight delay
+ These block synchronization holds good only in one instance of JVM.
+Concurrency utility classes are advanced than synchronized key word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When a volatile instance variable is read/written from/into main memory , other instancce variables of that class is also read/written.
+And Java makes sure that read/write on other instance variable happens after the read/write of the volatile variable.This is called "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Happens-Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" Guarantee. 
+There are still situations where declare a variable as volatile is not enough. A race condition could happen between the time a thread decides to write and the actual write time. So Synchronization is needed!!!.</t>
+    </r>
+  </si>
+  <si>
+    <t>ThreadLocal a hack to avoid sync issues.?</t>
   </si>
 </sst>
 </file>
@@ -4038,25 +4155,25 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>119</v>
@@ -4064,7 +4181,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -4078,7 +4195,7 @@
         <v>133</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>72</v>
@@ -4089,10 +4206,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>117</v>
@@ -4100,12 +4217,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4175,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
@@ -4188,7 +4305,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
@@ -4196,7 +4313,7 @@
         <v>164</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -4239,7 +4356,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -4254,12 +4371,12 @@
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4332,7 +4449,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4478,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -4539,80 +4656,80 @@
         <v>142</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F20" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F23" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G27" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4756,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4679,7 +4796,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -4692,10 +4809,10 @@
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4703,7 +4820,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4711,7 +4828,7 @@
         <v>62</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4719,7 +4836,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -4734,26 +4851,26 @@
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -4773,10 +4890,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -4784,41 +4901,41 @@
         <v>136</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>279</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4848,7 +4965,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4913,10 +5030,10 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4947,31 +5064,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5003,47 +5120,47 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
@@ -5051,10 +5168,10 @@
         <v>104</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
@@ -5062,10 +5179,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5073,10 +5190,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5084,13 +5201,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
@@ -5098,10 +5215,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
@@ -5109,10 +5226,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5130,23 +5247,23 @@
         <v>101</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
@@ -5154,81 +5271,81 @@
         <v>107</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
@@ -5236,21 +5353,21 @@
         <v>108</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -5258,10 +5375,10 @@
         <v>111</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
@@ -5269,10 +5386,10 @@
         <v>109</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -5282,12 +5399,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5317,10 +5434,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5328,10 +5445,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
@@ -5339,10 +5456,10 @@
         <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -5350,10 +5467,10 @@
         <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5361,21 +5478,21 @@
         <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5403,13 +5520,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5417,7 +5534,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5425,7 +5542,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5433,7 +5550,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5441,23 +5558,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5465,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5473,7 +5590,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5481,7 +5598,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5489,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -5497,7 +5614,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -5529,7 +5646,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5570,7 +5687,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5578,10 +5695,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>134</v>
+        <v>377</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -5589,7 +5706,7 @@
         <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -5597,7 +5714,7 @@
         <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5613,17 +5730,17 @@
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -5657,7 +5774,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>158</v>
@@ -5678,10 +5795,10 @@
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5696,10 +5813,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5712,34 +5829,71 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B5" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>178</v>
+        <v>380</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="B7" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5769,15 +5923,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5803,28 +5957,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +6008,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="37"/>
     </row>
@@ -5868,42 +6022,42 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5932,7 +6086,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5943,7 +6097,7 @@
         <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -5953,12 +6107,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5985,7 +6139,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6019,10 +6173,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -6030,7 +6184,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6041,7 +6195,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -6050,10 +6204,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -6061,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -6099,7 +6253,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6145,12 +6299,12 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -6171,7 +6325,7 @@
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>128</v>
@@ -6179,7 +6333,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6206,7 +6360,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6223,7 +6377,7 @@
         <v>174</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
@@ -6247,10 +6401,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
@@ -6269,7 +6423,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>121</v>
@@ -6323,7 +6477,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6337,15 +6491,15 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC81F423-B25A-476B-A905-901ADD70EE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9956F74-5F8A-4B93-BEC6-462F8CD58A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="397">
   <si>
     <t>ArrayList</t>
   </si>
@@ -1007,12 +1007,6 @@
       </rPr>
       <t xml:space="preserve"> can be defined as a combination of both shallow copy and deep copy. The mechanism follows a simple approach – at the initial state, shallow copy approach is used. A counter is also used to keep a track on how many objects share the data. When the program wants to modify the original object, it checks whether the object is shared or not. If the object is shared, then the deep copy mechanism is initiated.</t>
     </r>
-  </si>
-  <si>
-    <t>Strings are immutable :
-So that they can be used in hashtable.
-So that we can use the string pool safely, because no one can change reference of string once it gets created.
-Threads funda … still no clue</t>
   </si>
   <si>
     <t>When stack memory is full, Java runtime throws java.lang.StackOverFlowError whereas if heap memory is full, it throws java.lang.OutOfMemoryError: Java Heap Space error</t>
@@ -3453,12 +3447,6 @@
     </r>
   </si>
   <si>
-    <t>Thread synchronization can be achieved by :
-**synchronized block of Java code
-**locks
-**atomic variables like AtomicInteger</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3562,6 +3550,56 @@
   </si>
   <si>
     <t>ThreadLocal a hack to avoid sync issues.?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread synchronization can be achieved by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+**synchronized block of Java code
+**locks
+**atomic variables like AtomicInteger</t>
+    </r>
+  </si>
+  <si>
+    <t>Java is pass-by-value. For primitives, you pass a copy of the actual value. For references to objects, you pass a copy of the reference (the remote control).
+https://javaranch.com/campfire/StoryPassBy.jsp</t>
+  </si>
+  <si>
+    <t>It is a way of executing multiple threads simultaneously in a process</t>
+  </si>
+  <si>
+    <t>It is same as multitasking, however in multiprocessing more than one CPUs are involved.</t>
+  </si>
+  <si>
+    <t>processing of a single program instructions by dividing them among multiple processors with the objective of running a program in less time.</t>
+  </si>
+  <si>
+    <t>Parallel Processing</t>
+  </si>
+  <si>
+    <t>Ability to execute more than one task at the same time by a single processor. It is often done by some algorithms by OS.Concurrency.</t>
+  </si>
+  <si>
+    <t>Strings are immutable :
+So that they can be used in hashtable.
+So that we can use the string pool safely, because no one can change the object of string once it gets created.</t>
   </si>
 </sst>
 </file>
@@ -4155,25 +4193,25 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>335</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>119</v>
@@ -4181,7 +4219,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -4195,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>72</v>
@@ -4206,10 +4244,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>117</v>
@@ -4217,12 +4255,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4292,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
@@ -4305,7 +4343,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
@@ -4313,7 +4351,7 @@
         <v>164</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -4356,7 +4394,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -4371,12 +4409,12 @@
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4487,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4516,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -4656,80 +4694,80 @@
         <v>142</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F20" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F23" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G27" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4743,9 +4781,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4756,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4796,7 +4836,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -4809,10 +4849,10 @@
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4820,7 +4860,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4828,7 +4868,7 @@
         <v>62</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4836,7 +4876,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -4851,91 +4891,108 @@
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="28" t="s">
         <v>159</v>
       </c>
+      <c r="B22" s="29" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
         <v>160</v>
       </c>
+      <c r="B23" s="29" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="28" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>239</v>
+      <c r="B24" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="28" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="28" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4951,9 +5008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4965,7 +5020,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5030,10 +5085,10 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5064,31 +5119,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5120,47 +5175,47 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
@@ -5168,10 +5223,10 @@
         <v>104</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
@@ -5179,10 +5234,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>347</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5190,10 +5245,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5201,13 +5256,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
@@ -5215,10 +5270,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
@@ -5226,10 +5281,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5247,23 +5302,23 @@
         <v>101</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
@@ -5271,81 +5326,81 @@
         <v>107</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
@@ -5353,21 +5408,21 @@
         <v>108</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -5375,10 +5430,10 @@
         <v>111</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
@@ -5386,10 +5441,10 @@
         <v>109</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -5399,12 +5454,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5434,10 +5489,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5445,10 +5500,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
@@ -5456,10 +5511,10 @@
         <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -5467,10 +5522,10 @@
         <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5478,21 +5533,21 @@
         <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5520,13 +5575,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5534,7 +5589,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5542,7 +5597,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5550,7 +5605,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5558,23 +5613,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5582,7 +5637,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5590,7 +5645,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5598,7 +5653,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5606,7 +5661,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -5614,7 +5669,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -5646,7 +5701,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5687,7 +5742,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5695,10 +5750,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -5706,7 +5761,7 @@
         <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -5714,7 +5769,7 @@
         <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5730,17 +5785,17 @@
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -5774,7 +5829,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>158</v>
@@ -5795,10 +5850,10 @@
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5815,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5829,71 +5884,71 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5923,15 +5978,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5957,28 +6012,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +6063,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="37"/>
     </row>
@@ -6022,42 +6077,42 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6086,7 +6141,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -6097,7 +6152,7 @@
         <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -6107,12 +6162,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +6194,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6173,10 +6228,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -6184,7 +6239,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6195,7 +6250,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -6204,10 +6259,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -6215,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -6253,7 +6308,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6299,12 +6354,12 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -6325,7 +6380,7 @@
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>128</v>
@@ -6333,7 +6388,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6347,9 +6402,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6360,7 +6417,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6369,87 +6426,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="C6" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6477,7 +6540,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6491,15 +6554,15 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9956F74-5F8A-4B93-BEC6-462F8CD58A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CF8BF-1E50-4BCD-87B2-BCF0E192E55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="399">
   <si>
     <t>ArrayList</t>
   </si>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>Explaination</t>
-  </si>
-  <si>
-    <t>Java passes everything by value. With primitives, you get a copy of the contents. With references you get a copy of the contents.</t>
   </si>
   <si>
     <t>Pass by value or reference</t>
@@ -3600,6 +3597,15 @@
     <t>Strings are immutable :
 So that they can be used in hashtable.
 So that we can use the string pool safely, because no one can change the object of string once it gets created.</t>
+  </si>
+  <si>
+    <t>Java passes everything by value. With primitives, you get a copy of the contents. With references you get a copy of the contents/Handle/pointer.</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Weak reference,</t>
   </si>
 </sst>
 </file>
@@ -4193,47 +4199,47 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>334</v>
-      </c>
       <c r="H2" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>72</v>
@@ -4244,23 +4250,23 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4315,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4330,43 +4336,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4400,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -4404,17 +4410,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4473,7 @@
         <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -4487,7 +4493,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4516,7 +4522,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
@@ -4547,10 +4553,10 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -4558,10 +4564,10 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -4569,7 +4575,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="23">
         <v>1</v>
@@ -4584,10 +4590,10 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4595,7 +4601,7 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -4606,7 +4612,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -4617,7 +4623,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -4632,10 +4638,10 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -4643,10 +4649,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -4654,7 +4660,7 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -4665,10 +4671,10 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4677,10 +4683,10 @@
         <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
@@ -4688,86 +4694,86 @@
         <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>254</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F20" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F23" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G27" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4783,9 +4789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4796,7 +4800,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4836,7 +4840,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -4849,10 +4853,10 @@
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4860,7 +4864,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4868,7 +4872,7 @@
         <v>62</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4876,7 +4880,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -4891,108 +4895,108 @@
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5024,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5080,15 +5084,15 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5109,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5119,31 +5123,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5175,47 +5179,47 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>216</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
@@ -5223,10 +5227,10 @@
         <v>104</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
@@ -5234,10 +5238,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>346</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5245,10 +5249,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5256,13 +5260,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
@@ -5270,10 +5274,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
@@ -5281,10 +5285,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5302,23 +5306,23 @@
         <v>101</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
@@ -5326,81 +5330,81 @@
         <v>107</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
@@ -5408,21 +5412,21 @@
         <v>108</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -5430,10 +5434,10 @@
         <v>111</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
@@ -5441,10 +5445,10 @@
         <v>109</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -5454,12 +5458,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5489,65 +5493,65 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5575,13 +5579,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5589,7 +5593,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5597,7 +5601,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5605,7 +5609,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5613,23 +5617,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5637,7 +5641,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5645,7 +5649,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5653,7 +5657,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5661,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -5669,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -5701,7 +5705,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5742,7 +5746,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5750,26 +5754,26 @@
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5779,28 +5783,28 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -5808,7 +5812,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -5816,7 +5820,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -5824,36 +5828,36 @@
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5870,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5884,71 +5888,71 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>381</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5978,15 +5982,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6012,28 +6016,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6063,56 +6067,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -6141,7 +6145,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -6149,25 +6153,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6194,7 +6198,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6228,10 +6232,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -6239,7 +6243,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6250,7 +6254,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -6259,10 +6263,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -6270,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -6292,7 +6296,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -6308,7 +6312,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6335,7 +6339,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -6346,7 +6350,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -6354,41 +6358,41 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6402,10 +6406,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6417,7 +6421,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6429,34 +6433,34 @@
     <row r="2" spans="1:3" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="25"/>
       <c r="B2" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>174</v>
-      </c>
       <c r="C3" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -6464,10 +6468,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
@@ -6486,10 +6490,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -6502,7 +6506,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -6510,10 +6514,18 @@
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6540,7 +6552,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6554,15 +6566,15 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CF8BF-1E50-4BCD-87B2-BCF0E192E55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2B4A5-8F21-435E-A739-90166E580E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="412">
   <si>
     <t>ArrayList</t>
   </si>
@@ -1691,10 +1691,6 @@
   <si>
     <t>The access to an object should be controlled.
 Additional functionality should be provided when accessing an object.</t>
-  </si>
-  <si>
-    <t>…....
-Member Variables should be prviate only. These member should be accessed via member functions.</t>
   </si>
   <si>
     <r>
@@ -2812,43 +2808,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Singleton Pattern ensures a class has only one instance, and provides a global point of access to it.
-Eager Initialization vs Lazy Initialization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
-In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
-In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
-So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
-public class BillPughSingleton {
-    private BillPughSingleton(){}
-    private static class SingletonHelper{
-        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
-    }
-    public static BillPughSingleton getInstance(){
-        return SingletonHelper.INSTANCE;
-    }
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>The Command Pattern encapsulates a request as an object, thereby letting you parameterize other objects with different requests, queue or log requests, and support undoable operations.</t>
     </r>
     <r>
@@ -3444,31 +3403,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>THREAD SAFETY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-A class is thread-safe if it behaves correctly when accessed from multiple threads, regardless of the scheduling or interleaving of the execution of those threads by the runtime environment, and with no additional synchronization or other coordination on the part of the calling code.
-;</t>
-    </r>
-  </si>
-  <si>
     <t>The Reference is not Thread Safe.
 Locking data so that it can only be accessed by one thread at a time is just one possible technique for creating thread safety</t>
   </si>
@@ -3478,16 +3412,6 @@
  Static methods: synchronized on the Class object of the class
  Code blocks inside instance methods
  Code blocks inside static methods:synchronized(MyClass.class)</t>
-  </si>
-  <si>
-    <t>synchronized keyword places some restrictions on reordering of instructions before, inside and after synchronized blocks. 
-Do not synchronize on String objects, or any primitive type wrapper objects. These might be cached or reused internally by the Java compiler, Java VM or Java libraries.
-May it is not a good idea to sync on immutable ojects too. Beacuse we might loose the original object's reference after it is used to sync.</t>
-  </si>
-  <si>
-    <t>The JVM exits the program when all the user threads are completed. It does not wait for the deamon thread for completion.
-A thread should be set to deamon before starting the thread.
-Java memory model specifies how the JVM works with the computer's memory (RAM).</t>
   </si>
   <si>
     <r>
@@ -3606,6 +3530,414 @@
   </si>
   <si>
     <t>Weak reference,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The JVM exits the program when all the user threads are completed.
+It does not wait for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deamon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thread for completion. JVM simply abandons all remaining daemon threads. 
+A thread should be set to deamon before starting the thread.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THREAD SAFETY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+A class is thread-safe if it behaves correctly when accessed from multiple threads, regardless of the scheduling or interleaving of the execution of those threads by the runtime environment, and with no additional synchronization or other coordination on the part of the calling code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">…....
+Member Variables should be prviate only. These member should be accessed via member functions.
+we can make a field as read-only or write-only depending upon the requirements.
+We not exactly preventing access to the fields, we are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controlling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> how others can access certain fields
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Private instance and public Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. Do basic Validation.
+2. Take actions when the field is modified (trigger event).
+3. Provide thread safety by synchronizing the method.
+4. Debugging: accessors/properties you can just add a trace inside the function you want or a breakpoint </t>
+    </r>
+  </si>
+  <si>
+    <t>Java memory model specifies how the JVM works with the computer's memory (RAM).
+NEW, RUNNABLE, BLOCKED, WAITING, TIMED_WAITING, TERMINATED</t>
+  </si>
+  <si>
+    <t>To handle UncaughtExceptionHandler in threads
+thread.setDefaultUncaughtExceptionHandler(new Thread.UncaughtExceptionHandler()   
+        {  
+            public void uncaughtException(Thread thread, Throwable e)   
+            {  
+                System.out.println("Exception caught: " + e);  
+            }  
+        });</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Causes of STARVATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+high priority , indefinitely waiting to enter synchronized block, indefinitely waiting for the notify()
+Isnt thread waiting for lock synchronized block FIFO?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ways to avoid DeadLock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+Lock order:If you make sure that all locks are always taken in the same order by any thread
+Lock Timeout</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+With a simple Lock,While isLocked is true, the thread calling lock() is parked waiting in the wait() call. In case the thread should return unexpectedly from the wait() call without having received a notify() call (AKA a Spurious Wakeup) the thread re-checks the isLocked condition to see if it is safe to proceed or not, rather than just assume that being awakened means it is safe to proceed.
+Google about Lock Class</t>
+  </si>
+  <si>
+    <t>Read Access : If no threads are writing, and no threads have requested write access.
+Write Access : If no threads are reading or writing.</t>
+  </si>
+  <si>
+    <t>writeAccesses, writeRequests, writingThread, Map&lt;Thread, Integer&gt; readingThreads = new HashMap&lt;Thread, Integer&gt;();
+http://tutorials.jenkov.com/java-concurrency/read-write-locks.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLOCKING QUEUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Threads will wait() until the enqueue or dequeue operation is performable. That is until queue has lessThanLimit or atLeastOne.
+The waiting thread will get notifyAll() to perform there operation.
+notifyAll() will be called on only one conditon in each enqueue and dequeue </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread Pools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+There is a performance overhead associated with starting a new thread and allocating some memory for its stack. So the number of threads running in your application at a time can be handled by thread pool.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NON-BLOCKING ALGORITHMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+An algorithm is said to be non-blocking if the suspension of one thread cannot lead to the suspension of other threads involved in the algorithm.
+Blocking algorithms block the thread until the requested action can be performed. Non-blocking algorithms notify the thread requesting the action that the action cannot be performed.
+If the algorithm guarding a concurrent data structure is non-blocking, it is said to be a non-blocking algorithm. The data structure is thus said to be a non-blocking, concurrent data structure.</t>
+    </r>
+  </si>
+  <si>
+    <t>ExecutorService executorService1 = Executors.newSingleThreadExecutor();
+ExecutorService executorService2 = Executors.newFixedThreadPool(10);
+ExecutorService executorService3 = Executors.newScheduledThreadPool(10);
+execute(Runnable) :
+submit(Runnable) :future.get();
+submit(Callable) :future.get(); Object call() throws Exception
+invokeAny(...) :If one of the tasks complete (or throws an exception), the rest of the Callable's are cancelled.
+invokeAll(...) : Returns a collection of Future objects. Future.get()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FUTURE OBJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+Future object functions as a handle to the result of the asynchronous task. Once the asynchronous task completes, the result can be accessed via the Future object returned when the task was STARTED.
+public interface Future&lt;V&gt; {
+    boolean cancel(boolean mayInterruptIfRunning)
+    V       get();  //get() method will block until the result is ready.
+    V       get(long timeout, TimeUnit unit);
+    boolean isCancelled();
+    boolean isDone();
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>public class Lock{
+  boolean isLocked = false;  Thread  lockedBy = null;  int  lockedCount = 0;
+  public synchronized void lock()  throws InterruptedException{
+    Thread callingThread = Thread.currentThread();
+    while(isLocked &amp;&amp; lockedBy != callingThread){
+      wait();
+    }
+    isLocked = true;    lockedCount++;    lockedBy = callingThread;
+  }
+  public synchronized void unlock(){
+    if(Thread.curentThread() == this.lockedBy){
+      lockedCount--;
+      if(lockedCount == 0){
+        isLocked = false;
+        notify();
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">synchronized keyword places </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>some</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> restrictions on reordering of instructions before, inside and after synchronized blocks. 
+Do not synchronize on String objects, or any primitive type wrapper objects. These might be cached or reused internally by the Java compiler, Java VM or Java libraries.
+May it is not a good idea to sync on immutable ojects too. Beacuse we might loose the original object's reference after it is used to sync.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Singleton Pattern ensures a class has only one instance, and provides a global point of access to it.
+Eager Initialization vs Lazy Initialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
+In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
+In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
+So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
+public class BillPughSingleton {
+    private BillPughSingleton(){}
+    private static class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SingletonHelper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
+    }
+    public static BillPughSingleton getInstance(){
+        return SingletonHelper.INSTANCE;
+    }
+}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4208,16 +4540,16 @@
         <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>333</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>118</v>
@@ -4321,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4349,7 +4681,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
@@ -4357,7 +4689,7 @@
         <v>163</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -4415,12 +4747,12 @@
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4493,7 +4825,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +5049,7 @@
         <v>245</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -4768,12 +5100,12 @@
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4789,7 +5121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4864,7 +5198,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -4872,15 +5206,15 @@
         <v>62</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -4898,7 +5232,7 @@
         <v>229</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
@@ -4922,7 +5256,7 @@
         <v>158</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -4930,7 +5264,7 @@
         <v>159</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -4938,15 +5272,15 @@
         <v>160</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="28" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -4993,10 +5327,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5089,10 +5423,10 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5163,8 +5497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5182,25 +5516,25 @@
         <v>211</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -5216,10 +5550,10 @@
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
@@ -5227,10 +5561,10 @@
         <v>104</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
@@ -5238,10 +5572,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>345</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5249,10 +5583,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5260,13 +5594,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
@@ -5274,10 +5608,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
@@ -5285,10 +5619,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5306,12 +5640,12 @@
         <v>101</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
@@ -5330,10 +5664,10 @@
         <v>107</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>220</v>
@@ -5344,7 +5678,7 @@
         <v>217</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>238</v>
@@ -5355,10 +5689,10 @@
         <v>219</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
@@ -5377,7 +5711,7 @@
         <v>212</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>263</v>
@@ -5401,10 +5735,10 @@
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
@@ -5412,10 +5746,10 @@
         <v>108</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
@@ -5423,10 +5757,10 @@
         <v>221</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -5434,10 +5768,10 @@
         <v>111</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
@@ -5445,10 +5779,10 @@
         <v>109</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -5458,12 +5792,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5515,10 +5849,10 @@
         <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -5540,18 +5874,18 @@
         <v>261</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5746,7 +6080,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5754,10 +6088,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -5765,7 +6099,7 @@
         <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -5773,7 +6107,7 @@
         <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5789,17 +6123,17 @@
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -5854,10 +6188,10 @@
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5872,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5894,65 +6228,122 @@
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B11" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B12" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="285" x14ac:dyDescent="0.45">
+      <c r="B13" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B14" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B15" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B16" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="B19" s="29" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5987,10 +6378,10 @@
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6021,23 +6412,23 @@
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6081,42 +6472,42 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6156,7 +6547,7 @@
         <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -6166,12 +6557,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6232,10 +6623,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -6243,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6254,7 +6645,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -6263,10 +6654,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -6274,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -6312,7 +6703,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6358,12 +6749,12 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -6384,7 +6775,7 @@
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>127</v>
@@ -6392,7 +6783,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6408,7 +6799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6433,7 +6824,7 @@
     <row r="2" spans="1:3" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="25"/>
       <c r="B2" s="24" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
@@ -6452,7 +6843,7 @@
         <v>171</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
@@ -6468,10 +6859,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
@@ -6490,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>120</v>
@@ -6517,15 +6908,15 @@
         <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6574,7 +6965,7 @@
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2B4A5-8F21-435E-A739-90166E580E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCDDF4-06CB-4C94-9216-4B8C3F8C8A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="417">
   <si>
     <t>ArrayList</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>Abstract class</t>
-  </si>
-  <si>
-    <t>When we want to share code among several closely related classes</t>
   </si>
   <si>
     <t>Abstraction</t>
@@ -736,9 +733,6 @@
   </si>
   <si>
     <t>Open-Closed Principle</t>
-  </si>
-  <si>
-    <t>Liskov Substitution Principle</t>
   </si>
   <si>
     <t>Interface Segregation Principle</t>
@@ -3939,12 +3933,97 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t>Strems</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liskov Substitution Principle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inheritance</t>
+    </r>
+  </si>
+  <si>
+    <t>When we want to share code among several closely related classes.
+Can have constructors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT METHODS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When we extend an interface that contains a default method, we can perform following,
+*Not override the default method and will inherit the default method.
+*Override the default method similar to other methods we override in subclass.
+*Redeclare default method as abstract, which force subclass to override it.
+Static method in interface is visible to interface methods only hence these static methods cant be overridden(like static methods of class)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FUNCTIONAL INTERFACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+An interface having only single abstract method is called as functional interface. Functional interface can have multiple default or static methods.
+They can have more abstract methods but it will break the functional interface rule.
+The original motivation to introduce default methods to Java 8 was the desire to extend the Collections Framework interfaces with lambda-oriented methods without breaking any existing implementations</t>
+    </r>
+  </si>
+  <si>
+    <t>http://java-latte.blogspot.com/p/concurrency.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4017,6 +4096,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4531,50 +4619,50 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -4582,23 +4670,23 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -4606,6 +4694,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
@@ -4668,43 +4766,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4732,27 +4830,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4779,53 +4877,53 @@
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4854,18 +4952,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="6"/>
@@ -4873,41 +4971,41 @@
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
       <c r="C3" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="23">
         <v>1</v>
@@ -4919,21 +5017,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -4941,10 +5039,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -4952,10 +5050,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -4967,32 +5065,32 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -5000,112 +5098,112 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F19" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F20" s="29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F21" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F22" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F23" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F25" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F26" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F27" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G27" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="G29" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="G30" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5121,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5134,7 +5232,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -5174,163 +5272,163 @@
         <v>59</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>61</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5456,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5410,23 +5508,23 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5457,31 +5555,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5497,9 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5513,80 +5609,80 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="C2" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
       <c r="B8" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
@@ -5594,210 +5690,210 @@
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B11" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
       <c r="B28" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B30" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="B31" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5813,9 +5909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5827,65 +5921,65 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5913,13 +6007,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5927,7 +6021,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5935,7 +6029,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5943,7 +6037,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5951,23 +6045,23 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5975,7 +6069,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -5983,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -5991,7 +6085,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
@@ -5999,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -6007,7 +6101,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -6039,7 +6133,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6047,7 +6141,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -6067,7 +6161,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -6080,7 +6174,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -6088,57 +6182,57 @@
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -6146,7 +6240,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -6154,7 +6248,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -6162,36 +6256,36 @@
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6206,10 +6300,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6222,136 +6316,142 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B12" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="285" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B14" s="29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B16" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B18" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="171" x14ac:dyDescent="0.45">
       <c r="B19" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="25" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{1D871D9B-B38F-4FE9-9226-E6F0F82103DD}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{61178F12-5E82-4A9D-A026-D540B3326538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6373,15 +6473,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6407,28 +6507,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6458,56 +6558,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6536,7 +6636,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -6544,25 +6644,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6589,7 +6689,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6623,10 +6723,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
@@ -6634,7 +6734,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6645,7 +6745,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -6654,10 +6754,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -6665,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -6687,7 +6787,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -6703,7 +6803,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6730,7 +6830,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
@@ -6741,7 +6841,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -6749,41 +6849,41 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6797,10 +6897,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6812,7 +6912,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6824,34 +6924,34 @@
     <row r="2" spans="1:3" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="25"/>
       <c r="B2" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
@@ -6859,10 +6959,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
@@ -6870,10 +6970,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -6881,15 +6981,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
@@ -6897,26 +6997,37 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -6943,7 +7054,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -6957,15 +7068,15 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCDDF4-06CB-4C94-9216-4B8C3F8C8A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B1A89-C725-4BDC-8B0A-9EC85D929F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -4601,8 +4601,8 @@
   </sheetPr>
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6302,9 +6302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/RunningNotes.xlsx
+++ b/RunningNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B1A89-C725-4BDC-8B0A-9EC85D929F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01AE5F1-4A3A-4829-B24D-63BC54D8F2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -4601,7 +4601,7 @@
   </sheetPr>
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -5444,7 +5444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6675,7 +6677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6897,7 +6899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -7041,7 +7043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04F02-2454-4675-B01F-32A13AF6C1ED}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
